--- a/res/reserva.xlsx
+++ b/res/reserva.xlsx
@@ -410,19 +410,19 @@
         <v>437031071554.9</v>
       </c>
       <c r="D2">
-        <v>39588126211.89148</v>
+        <v>39587899989.66781</v>
       </c>
       <c r="E2">
-        <v>2166285250.599152</v>
+        <v>2172090574.864474</v>
       </c>
       <c r="F2">
-        <v>474452912516.1924</v>
+        <v>474446880969.7033</v>
       </c>
       <c r="G2">
-        <v>1.09936106628096</v>
+        <v>1.099354784096658</v>
       </c>
       <c r="H2">
-        <v>0.06015767581977738</v>
+        <v>0.0603188894988556</v>
       </c>
     </row>
     <row r="3">
@@ -433,22 +433,22 @@
         <v>34226172136.67446</v>
       </c>
       <c r="C3">
-        <v>474452912516.1924</v>
+        <v>474446880969.7033</v>
       </c>
       <c r="D3">
-        <v>42225991125.97147</v>
+        <v>42225084800.12243</v>
       </c>
       <c r="E3">
-        <v>2183187545.555094</v>
+        <v>2194382624.821345</v>
       </c>
       <c r="F3">
-        <v>514495716096.6087</v>
+        <v>514477583145.0044</v>
       </c>
       <c r="G3">
-        <v>1.233733967016573</v>
+        <v>1.233707486525403</v>
       </c>
       <c r="H3">
-        <v>0.06378707898847202</v>
+        <v>0.06411417017534345</v>
       </c>
     </row>
     <row r="4">
@@ -459,22 +459,22 @@
         <v>32475732708.94772</v>
       </c>
       <c r="C4">
-        <v>514495716096.6087</v>
+        <v>514477583145.0044</v>
       </c>
       <c r="D4">
-        <v>45071561075.80869</v>
+        <v>45069517871.44103</v>
       </c>
       <c r="E4">
-        <v>2245691178.984321</v>
+        <v>2261858072.615625</v>
       </c>
       <c r="F4">
-        <v>557321585993.433</v>
+        <v>557285242943.8298</v>
       </c>
       <c r="G4">
-        <v>1.387853554521668</v>
+        <v>1.387790639717375</v>
       </c>
       <c r="H4">
-        <v>0.06914982331916987</v>
+        <v>0.06964763791125912</v>
       </c>
     </row>
     <row r="5">
@@ -485,22 +485,22 @@
         <v>30693609073.94145</v>
       </c>
       <c r="C5">
-        <v>557321585993.433</v>
+        <v>557285242943.8298</v>
       </c>
       <c r="D5">
-        <v>48125466578.7317</v>
+        <v>48121821956.99799</v>
       </c>
       <c r="E5">
-        <v>2401453782.252118</v>
+        <v>2422296120.018857</v>
       </c>
       <c r="F5">
-        <v>603045598789.9126</v>
+        <v>602984768780.8091</v>
       </c>
       <c r="G5">
-        <v>1.567931176252249</v>
+        <v>1.567812434212988</v>
       </c>
       <c r="H5">
-        <v>0.07823953763361528</v>
+        <v>0.078918582503071</v>
       </c>
     </row>
     <row r="6">
@@ -511,22 +511,22 @@
         <v>28839689652.87267</v>
       </c>
       <c r="C6">
-        <v>603045598789.9126</v>
+        <v>602984768780.8091</v>
       </c>
       <c r="D6">
-        <v>51390203575.78941</v>
+        <v>51384483752.90667</v>
       </c>
       <c r="E6">
-        <v>2655935243.738196</v>
+        <v>2681057562.099815</v>
       </c>
       <c r="F6">
-        <v>651779867121.9639</v>
+        <v>651688194971.6158</v>
       </c>
       <c r="G6">
-        <v>1.781926372798901</v>
+        <v>1.781728041161093</v>
       </c>
       <c r="H6">
-        <v>0.09209305910383271</v>
+        <v>0.09296416134744222</v>
       </c>
     </row>
     <row r="7">
@@ -537,22 +537,22 @@
         <v>26967564097.62731</v>
       </c>
       <c r="C7">
-        <v>651779867121.9639</v>
+        <v>651688194971.6158</v>
       </c>
       <c r="D7">
-        <v>54889260074.02674</v>
+        <v>54880987231.308</v>
       </c>
       <c r="E7">
-        <v>2845004286.831581</v>
+        <v>2873958025.640492</v>
       </c>
       <c r="F7">
-        <v>703824122909.1591</v>
+        <v>703695224177.2833</v>
       </c>
       <c r="G7">
-        <v>2.03538072164464</v>
+        <v>2.035073951530409</v>
       </c>
       <c r="H7">
-        <v>0.1054972661428435</v>
+        <v>0.1065709166477277</v>
       </c>
     </row>
     <row r="8">
@@ -563,22 +563,22 @@
         <v>25223566788.47191</v>
       </c>
       <c r="C8">
-        <v>703824122909.1591</v>
+        <v>703695224177.2833</v>
       </c>
       <c r="D8">
-        <v>58667036143.07262</v>
+        <v>58655723627.69728</v>
       </c>
       <c r="E8">
-        <v>3013778733.134715</v>
+        <v>3046283517.075593</v>
       </c>
       <c r="F8">
-        <v>759477380319.0969</v>
+        <v>759304664287.905</v>
       </c>
       <c r="G8">
-        <v>2.325881848315187</v>
+        <v>2.32543335839819</v>
       </c>
       <c r="H8">
-        <v>0.1194826551854721</v>
+        <v>0.1207713224153475</v>
       </c>
     </row>
     <row r="9">
@@ -589,22 +589,22 @@
         <v>23545752806.48623</v>
       </c>
       <c r="C9">
-        <v>759477380319.0969</v>
+        <v>759304664287.905</v>
       </c>
       <c r="D9">
-        <v>62729198296.80473</v>
+        <v>62714341389.51103</v>
       </c>
       <c r="E9">
-        <v>3367331032.882129</v>
+        <v>3403157553.405407</v>
       </c>
       <c r="F9">
-        <v>818839247583.0195</v>
+        <v>818615848124.0106</v>
       </c>
       <c r="G9">
-        <v>2.664140697150464</v>
+        <v>2.663509716802722</v>
       </c>
       <c r="H9">
-        <v>0.1430122477101058</v>
+        <v>0.1445338181104121</v>
       </c>
     </row>
     <row r="10">
@@ -615,22 +615,22 @@
         <v>21896673700.86796</v>
       </c>
       <c r="C10">
-        <v>818839247583.0195</v>
+        <v>818615848124.0106</v>
       </c>
       <c r="D10">
-        <v>67090587609.11217</v>
+        <v>67071672214.66432</v>
       </c>
       <c r="E10">
-        <v>3574288883.035887</v>
+        <v>3612897616.809685</v>
       </c>
       <c r="F10">
-        <v>882355546309.0958</v>
+        <v>882074622721.8652</v>
       </c>
       <c r="G10">
-        <v>3.063962523515741</v>
+        <v>3.063098675668061</v>
       </c>
       <c r="H10">
-        <v>0.1632343310159572</v>
+        <v>0.1649975547046889</v>
       </c>
     </row>
     <row r="11">
@@ -641,22 +641,22 @@
         <v>20314603333.16619</v>
       </c>
       <c r="C11">
-        <v>882355546309.0958</v>
+        <v>882074622721.8652</v>
       </c>
       <c r="D11">
-        <v>71784241195.04178</v>
+        <v>71760740127.67058</v>
       </c>
       <c r="E11">
-        <v>3831496607.657928</v>
+        <v>3872734817.363641</v>
       </c>
       <c r="F11">
-        <v>950308290896.4796</v>
+        <v>949962628032.1721</v>
       </c>
       <c r="G11">
-        <v>3.533627510109676</v>
+        <v>3.532470654276177</v>
       </c>
       <c r="H11">
-        <v>0.1886079951855383</v>
+        <v>0.1906379737693871</v>
       </c>
     </row>
     <row r="12">
@@ -667,22 +667,22 @@
         <v>18794239735.57489</v>
       </c>
       <c r="C12">
-        <v>950308290896.4796</v>
+        <v>949962628032.1721</v>
       </c>
       <c r="D12">
-        <v>76832692894.71539</v>
+        <v>76804055532.77574</v>
       </c>
       <c r="E12">
-        <v>4103514740.426182</v>
+        <v>4147082204.282383</v>
       </c>
       <c r="F12">
-        <v>1023037469050.769</v>
+        <v>1022619601360.666</v>
       </c>
       <c r="G12">
-        <v>4.088097947866536</v>
+        <v>4.086574217066962</v>
       </c>
       <c r="H12">
-        <v>0.2183389590725928</v>
+        <v>0.2206570876305537</v>
       </c>
     </row>
     <row r="13">
@@ -693,22 +693,22 @@
         <v>17327577989.73607</v>
       </c>
       <c r="C13">
-        <v>1023037469050.769</v>
+        <v>1022619601360.666</v>
       </c>
       <c r="D13">
-        <v>82261823752.94954</v>
+        <v>82227482280.71953</v>
       </c>
       <c r="E13">
-        <v>4374151610.391942</v>
+        <v>4419688542.015101</v>
       </c>
       <c r="F13">
-        <v>1100925141193.327</v>
+        <v>1100427395099.37</v>
       </c>
       <c r="G13">
-        <v>4.747450786352082</v>
+        <v>4.745468889502426</v>
       </c>
       <c r="H13">
-        <v>0.2524387201132758</v>
+        <v>0.2550667233835616</v>
       </c>
     </row>
     <row r="14">
@@ -719,22 +719,22 @@
         <v>15909585568.39607</v>
       </c>
       <c r="C14">
-        <v>1100925141193.327</v>
+        <v>1100427395099.37</v>
       </c>
       <c r="D14">
-        <v>88100681321.69218</v>
+        <v>88060050493.15488</v>
       </c>
       <c r="E14">
-        <v>4642004663.097995</v>
+        <v>4689182514.395749</v>
       </c>
       <c r="F14">
-        <v>1184383817851.921</v>
+        <v>1183798263078.129</v>
       </c>
       <c r="G14">
-        <v>5.537584932237434</v>
+        <v>5.535031073850448</v>
       </c>
       <c r="H14">
-        <v>0.2917740781582144</v>
+        <v>0.2947394508949796</v>
       </c>
     </row>
     <row r="15">
@@ -745,22 +745,22 @@
         <v>14578731504.90677</v>
       </c>
       <c r="C15">
-        <v>1184383817851.921</v>
+        <v>1183798263078.129</v>
       </c>
       <c r="D15">
-        <v>94387367113.79852</v>
+        <v>94339841643.58488</v>
       </c>
       <c r="E15">
-        <v>4908141495.129288</v>
+        <v>4956632572.860353</v>
       </c>
       <c r="F15">
-        <v>1273863043470.59</v>
+        <v>1273181472148.854</v>
       </c>
       <c r="G15">
-        <v>6.474319599207277</v>
+        <v>6.471059681141179</v>
       </c>
       <c r="H15">
-        <v>0.336664509767352</v>
+        <v>0.3399906618207555</v>
       </c>
     </row>
     <row r="16">
@@ -771,22 +771,22 @@
         <v>13315317821.48395</v>
       </c>
       <c r="C16">
-        <v>1273863043470.59</v>
+        <v>1273181472148.854</v>
       </c>
       <c r="D16">
-        <v>101155341995.0998</v>
+        <v>101100296037.0512</v>
       </c>
       <c r="E16">
-        <v>5134187971.984178</v>
+        <v>5183637030.505476</v>
       </c>
       <c r="F16">
-        <v>1369884197493.706</v>
+        <v>1369098131155.399</v>
       </c>
       <c r="G16">
-        <v>7.59691532348466</v>
+        <v>7.592781290877507</v>
       </c>
       <c r="H16">
-        <v>0.3855850863507205</v>
+        <v>0.3892987835515123</v>
       </c>
     </row>
     <row r="17">
@@ -797,22 +797,22 @@
         <v>12106887692.31054</v>
       </c>
       <c r="C17">
-        <v>1369884197493.706</v>
+        <v>1369098131155.399</v>
       </c>
       <c r="D17">
-        <v>108437159900.4843</v>
+        <v>108373947245.5264</v>
       </c>
       <c r="E17">
-        <v>5477680783.338364</v>
+        <v>5527713929.976454</v>
       </c>
       <c r="F17">
-        <v>1472843676610.852</v>
+        <v>1471944364470.949</v>
       </c>
       <c r="G17">
-        <v>8.956650351134924</v>
+        <v>8.951429136850594</v>
       </c>
       <c r="H17">
-        <v>0.4524433465107145</v>
+        <v>0.4565759648937088</v>
       </c>
     </row>
     <row r="18">
@@ -823,22 +823,22 @@
         <v>10907495599.96525</v>
       </c>
       <c r="C18">
-        <v>1472843676610.852</v>
+        <v>1471944364470.949</v>
       </c>
       <c r="D18">
-        <v>116265561863.3256</v>
+        <v>116193513804.62</v>
       </c>
       <c r="E18">
-        <v>5707463348.939613</v>
+        <v>5757739396.794313</v>
       </c>
       <c r="F18">
-        <v>1583401775125.238</v>
+        <v>1582380138878.775</v>
       </c>
       <c r="G18">
-        <v>10.659235275208</v>
+        <v>10.65262990387914</v>
       </c>
       <c r="H18">
-        <v>0.5232606602158789</v>
+        <v>0.5278699719862967</v>
       </c>
     </row>
     <row r="19">
@@ -849,22 +849,22 @@
         <v>9831014878.063906</v>
       </c>
       <c r="C19">
-        <v>1583401775125.238</v>
+        <v>1582380138878.775</v>
       </c>
       <c r="D19">
-        <v>124707283308.6447</v>
+        <v>124625705582.6505</v>
       </c>
       <c r="E19">
-        <v>5897950364.823729</v>
+        <v>5948128924.291286</v>
       </c>
       <c r="F19">
-        <v>1702211108069.059</v>
+        <v>1701057715537.134</v>
       </c>
       <c r="G19">
-        <v>12.68508743557147</v>
+        <v>12.67678943917883</v>
       </c>
       <c r="H19">
-        <v>0.5999330117975832</v>
+        <v>0.605037119571799</v>
       </c>
     </row>
     <row r="20">
@@ -875,22 +875,22 @@
         <v>8827837216.45491</v>
       </c>
       <c r="C20">
-        <v>1702211108069.059</v>
+        <v>1701057715537.134</v>
       </c>
       <c r="D20">
-        <v>133801822379.182</v>
+        <v>133709995342.9146</v>
       </c>
       <c r="E20">
-        <v>6120607541.995072</v>
+        <v>6170291763.964795</v>
       </c>
       <c r="F20">
-        <v>1829892322906.246</v>
+        <v>1828597419116.084</v>
       </c>
       <c r="G20">
-        <v>15.15680671249557</v>
+        <v>15.1464047268205</v>
       </c>
       <c r="H20">
-        <v>0.6933303584921552</v>
+        <v>0.6989584892280859</v>
       </c>
     </row>
     <row r="21">
@@ -901,22 +901,22 @@
         <v>7889154079.136356</v>
       </c>
       <c r="C21">
-        <v>1829892322906.246</v>
+        <v>1828597419116.084</v>
       </c>
       <c r="D21">
-        <v>143593895931.6866</v>
+        <v>143491071241.3681</v>
       </c>
       <c r="E21">
-        <v>6454363527.459027</v>
+        <v>6503247496.037792</v>
       </c>
       <c r="F21">
-        <v>1967031855310.473</v>
+        <v>1965585242861.414</v>
       </c>
       <c r="G21">
-        <v>18.20143129305014</v>
+        <v>18.1883976155117</v>
       </c>
       <c r="H21">
-        <v>0.8181312549755145</v>
+        <v>0.8243276060783589</v>
       </c>
     </row>
     <row r="22">
@@ -927,22 +927,22 @@
         <v>6926531520.527295</v>
       </c>
       <c r="C22">
-        <v>1967031855310.473</v>
+        <v>1965585242861.414</v>
       </c>
       <c r="D22">
-        <v>154120091220.0196</v>
+        <v>154005487385.8299</v>
       </c>
       <c r="E22">
-        <v>6759596771.658603</v>
+        <v>6807340310.317605</v>
       </c>
       <c r="F22">
-        <v>2114392349758.834</v>
+        <v>2112783389936.926</v>
       </c>
       <c r="G22">
-        <v>22.25068791837201</v>
+        <v>22.23414228743825</v>
       </c>
       <c r="H22">
-        <v>0.9758992291634032</v>
+        <v>0.9827920785668183</v>
       </c>
     </row>
     <row r="23">
@@ -953,22 +953,22 @@
         <v>6059926518.496066</v>
       </c>
       <c r="C23">
-        <v>2114392349758.834</v>
+        <v>2112783389936.926</v>
       </c>
       <c r="D23">
-        <v>165460835234.3937</v>
+        <v>165333635953.3872</v>
       </c>
       <c r="E23">
-        <v>7007953784.575942</v>
+        <v>7054227466.1061</v>
       </c>
       <c r="F23">
-        <v>2272845231208.651</v>
+        <v>2271062798424.208</v>
       </c>
       <c r="G23">
-        <v>27.30409927073791</v>
+        <v>27.28310903585333</v>
       </c>
       <c r="H23">
-        <v>1.156442039880568</v>
+        <v>1.16407805351686</v>
       </c>
     </row>
     <row r="24">
@@ -979,22 +979,22 @@
         <v>5223075618.735994</v>
       </c>
       <c r="C24">
-        <v>2272845231208.651</v>
+        <v>2271062798424.208</v>
       </c>
       <c r="D24">
-        <v>177671553691.5535</v>
+        <v>177530903635.3451</v>
       </c>
       <c r="E24">
-        <v>7214094813.786014</v>
+        <v>7258596931.979835</v>
       </c>
       <c r="F24">
-        <v>2443302690086.419</v>
+        <v>2441335105127.573</v>
       </c>
       <c r="G24">
-        <v>34.01665353153565</v>
+        <v>33.98972494262074</v>
       </c>
       <c r="H24">
-        <v>1.381196701021888</v>
+        <v>1.389716990874516</v>
       </c>
     </row>
     <row r="25">
@@ -1005,22 +1005,22 @@
         <v>4439718861.207808</v>
       </c>
       <c r="C25">
-        <v>2443302690086.419</v>
+        <v>2441335105127.573</v>
       </c>
       <c r="D25">
-        <v>190827402872.605</v>
+        <v>190672402838.1364</v>
       </c>
       <c r="E25">
-        <v>7395434122.402004</v>
+        <v>7437881640.414054</v>
       </c>
       <c r="F25">
-        <v>2626734658836.622</v>
+        <v>2624569626325.295</v>
       </c>
       <c r="G25">
-        <v>42.98186638346987</v>
+        <v>42.94695425517659</v>
       </c>
       <c r="H25">
-        <v>1.665743789999826</v>
+        <v>1.675304647193496</v>
       </c>
     </row>
     <row r="26">
@@ -1031,22 +1031,22 @@
         <v>3732295527.639019</v>
       </c>
       <c r="C26">
-        <v>2626734658836.622</v>
+        <v>2624569626325.295</v>
       </c>
       <c r="D26">
-        <v>205011896771.9662</v>
+        <v>204841598390.7104</v>
       </c>
       <c r="E26">
-        <v>7424684966.867452</v>
+        <v>7464824201.764392</v>
       </c>
       <c r="F26">
-        <v>2824321870641.721</v>
+        <v>2821946400514.241</v>
       </c>
       <c r="G26">
-        <v>54.9291703333184</v>
+        <v>54.88354201155376</v>
       </c>
       <c r="H26">
-        <v>1.989307896945709</v>
+        <v>2.000062467316595</v>
       </c>
     </row>
     <row r="27">
@@ -1057,22 +1057,22 @@
         <v>3124911512.42115</v>
       </c>
       <c r="C27">
-        <v>2824321870641.721</v>
+        <v>2821946400514.241</v>
       </c>
       <c r="D27">
-        <v>220314008715.7785</v>
+        <v>220127408100.8791</v>
       </c>
       <c r="E27">
-        <v>7483639885.205744</v>
+        <v>7521252496.584399</v>
       </c>
       <c r="F27">
-        <v>3037152239472.293</v>
+        <v>3034552556118.536</v>
       </c>
       <c r="G27">
-        <v>70.50247913902736</v>
+        <v>70.44276525139959</v>
       </c>
       <c r="H27">
-        <v>2.39483257540547</v>
+        <v>2.406868951868979</v>
       </c>
     </row>
     <row r="28">
@@ -1083,22 +1083,22 @@
         <v>2579145800.100471</v>
       </c>
       <c r="C28">
-        <v>3037152239472.293</v>
+        <v>3034552556118.536</v>
       </c>
       <c r="D28">
-        <v>236816348692.5505</v>
+        <v>236612379210.8285</v>
       </c>
       <c r="E28">
-        <v>7475127213.356185</v>
+        <v>7510033966.684999</v>
       </c>
       <c r="F28">
-        <v>3266493460951.488</v>
+        <v>3263654901362.679</v>
       </c>
       <c r="G28">
-        <v>91.81968257991666</v>
+        <v>91.74059845767974</v>
       </c>
       <c r="H28">
-        <v>2.898295712117163</v>
+        <v>2.911829942453211</v>
       </c>
     </row>
     <row r="29">
@@ -1109,22 +1109,22 @@
         <v>2120556596.515243</v>
       </c>
       <c r="C29">
-        <v>3266493460951.488</v>
+        <v>3263654901362.679</v>
       </c>
       <c r="D29">
-        <v>254621069429.245</v>
+        <v>254398593562.2359</v>
       </c>
       <c r="E29">
-        <v>7415348850.763576</v>
+        <v>7447414775.413083</v>
       </c>
       <c r="F29">
-        <v>3513699181529.969</v>
+        <v>3510606080149.502</v>
       </c>
       <c r="G29">
-        <v>120.0727534684382</v>
+        <v>119.9678395664113</v>
       </c>
       <c r="H29">
-        <v>3.496887969389443</v>
+        <v>3.512009435471604</v>
       </c>
     </row>
     <row r="30">
@@ -1135,22 +1135,22 @@
         <v>1688056155.025623</v>
       </c>
       <c r="C30">
-        <v>3513699181529.969</v>
+        <v>3510606080149.502</v>
       </c>
       <c r="D30">
-        <v>273826081866.8282</v>
+        <v>273583882032.2896</v>
       </c>
       <c r="E30">
-        <v>7254691582.997824</v>
+        <v>7283831212.718956</v>
       </c>
       <c r="F30">
-        <v>3780270571813.799</v>
+        <v>3776906130969.073</v>
       </c>
       <c r="G30">
-        <v>162.2138464123972</v>
+        <v>162.0703678712257</v>
       </c>
       <c r="H30">
-        <v>4.297660099398592</v>
+        <v>4.314922338948135</v>
       </c>
     </row>
     <row r="31">
@@ -1161,22 +1161,22 @@
         <v>1358561363.397808</v>
       </c>
       <c r="C31">
-        <v>3780270571813.799</v>
+        <v>3776906130969.073</v>
       </c>
       <c r="D31">
-        <v>294557626306.2495</v>
+        <v>294294394642.3689</v>
       </c>
       <c r="E31">
-        <v>7063520635.284073</v>
+        <v>7089701029.980499</v>
       </c>
       <c r="F31">
-        <v>4067764677484.765</v>
+        <v>4064110824581.461</v>
       </c>
       <c r="G31">
-        <v>216.8158422888981</v>
+        <v>216.622084633946</v>
       </c>
       <c r="H31">
-        <v>5.19926506493455</v>
+        <v>5.218535740077959</v>
       </c>
     </row>
     <row r="32">
@@ -1187,22 +1187,22 @@
         <v>1072746871.397232</v>
       </c>
       <c r="C32">
-        <v>4067764677484.765</v>
+        <v>4064110824581.461</v>
       </c>
       <c r="D32">
-        <v>316927893728.9119</v>
+        <v>316642220901.7303</v>
       </c>
       <c r="E32">
-        <v>6839601491.35074</v>
+        <v>6862843850.01165</v>
       </c>
       <c r="F32">
-        <v>4377852969722.326</v>
+        <v>4373890201633.18</v>
       </c>
       <c r="G32">
-        <v>295.4358592685704</v>
+        <v>295.1695589559818</v>
       </c>
       <c r="H32">
-        <v>6.375783210108355</v>
+        <v>6.397449419799218</v>
       </c>
     </row>
     <row r="33">
@@ -1213,22 +1213,22 @@
         <v>820421787.6536671</v>
       </c>
       <c r="C33">
-        <v>4377852969722.326</v>
+        <v>4373890201633.18</v>
       </c>
       <c r="D33">
-        <v>341066360190.105</v>
+        <v>340756723280.3546</v>
       </c>
       <c r="E33">
-        <v>6562508875.370953</v>
+        <v>6582888162.088424</v>
       </c>
       <c r="F33">
-        <v>4712356821037.061</v>
+        <v>4708064036751.445</v>
       </c>
       <c r="G33">
-        <v>415.7207491594345</v>
+        <v>415.3433373032282</v>
       </c>
       <c r="H33">
-        <v>7.99894514520286</v>
+        <v>8.023785156797084</v>
       </c>
     </row>
     <row r="34">
@@ -1239,22 +1239,22 @@
         <v>653063538.6713274</v>
       </c>
       <c r="C34">
-        <v>4712356821037.061</v>
+        <v>4708064036751.445</v>
       </c>
       <c r="D34">
-        <v>367121895623.1157</v>
+        <v>366786645237.4137</v>
       </c>
       <c r="E34">
-        <v>6260529650.112297</v>
+        <v>6278170646.329047</v>
       </c>
       <c r="F34">
-        <v>5073218187010.063</v>
+        <v>5068572511342.53</v>
       </c>
       <c r="G34">
-        <v>562.1534106314273</v>
+        <v>561.6400602974245</v>
       </c>
       <c r="H34">
-        <v>9.586402056451487</v>
+        <v>9.61341473618651</v>
       </c>
     </row>
     <row r="35">
@@ -1265,22 +1265,22 @@
         <v>508889579.3447911</v>
       </c>
       <c r="C35">
-        <v>5073218187010.063</v>
+        <v>5068572511342.53</v>
       </c>
       <c r="D35">
-        <v>395235638093.3051</v>
+        <v>394872984848.3019</v>
       </c>
       <c r="E35">
-        <v>5948603642.023149</v>
+        <v>5963675207.991238</v>
       </c>
       <c r="F35">
-        <v>5462505221461.345</v>
+        <v>5457481820982.841</v>
       </c>
       <c r="G35">
-        <v>776.6628638813581</v>
+        <v>775.9502274672462</v>
       </c>
       <c r="H35">
-        <v>11.68937994305589</v>
+        <v>11.71899651722016</v>
       </c>
     </row>
     <row r="36">
@@ -1291,22 +1291,22 @@
         <v>388550947.6592111</v>
       </c>
       <c r="C36">
-        <v>5462505221461.345</v>
+        <v>5457481820982.841</v>
       </c>
       <c r="D36">
-        <v>425568345280.3076</v>
+        <v>425176345700.1426</v>
       </c>
       <c r="E36">
-        <v>5640251943.025126</v>
+        <v>5652960780.310668</v>
       </c>
       <c r="F36">
-        <v>5882433314798.627</v>
+        <v>5877005205902.673</v>
       </c>
       <c r="G36">
-        <v>1095.27038305814</v>
+        <v>1094.261507433138</v>
       </c>
       <c r="H36">
-        <v>14.51611938409698</v>
+        <v>14.54882767463676</v>
       </c>
     </row>
     <row r="37">
@@ -1317,22 +1317,22 @@
         <v>290304349.2804661</v>
       </c>
       <c r="C37">
-        <v>5882433314798.627</v>
+        <v>5877005205902.673</v>
       </c>
       <c r="D37">
-        <v>458293223242.9661</v>
+        <v>457869765162.8658</v>
       </c>
       <c r="E37">
-        <v>5314468033.949597</v>
+        <v>5325049391.290974</v>
       </c>
       <c r="F37">
-        <v>6335412070007.644</v>
+        <v>6329549921674.248</v>
       </c>
       <c r="G37">
-        <v>1578.664682009997</v>
+        <v>1577.206012578589</v>
       </c>
       <c r="H37">
-        <v>18.30653948906302</v>
+        <v>18.34298867546896</v>
       </c>
     </row>
     <row r="38">
@@ -1343,22 +1343,22 @@
         <v>209419721.3295927</v>
       </c>
       <c r="C38">
-        <v>6335412070007.644</v>
+        <v>6329549921674.248</v>
       </c>
       <c r="D38">
-        <v>493596656430.8273</v>
+        <v>493139444093.6906</v>
       </c>
       <c r="E38">
-        <v>4988506761.063594</v>
+        <v>4997212414.232107</v>
       </c>
       <c r="F38">
-        <v>6824020219677.407</v>
+        <v>6817692153353.706</v>
       </c>
       <c r="G38">
-        <v>2356.973131742383</v>
+        <v>2354.789897354361</v>
       </c>
       <c r="H38">
-        <v>23.82061598302145</v>
+        <v>23.86218634283876</v>
       </c>
     </row>
     <row r="39">
@@ -1369,22 +1369,22 @@
         <v>149273231.3127118</v>
       </c>
       <c r="C39">
-        <v>6824020219677.407</v>
+        <v>6817692153353.706</v>
       </c>
       <c r="D39">
-        <v>531679808685.853</v>
+        <v>531186347602.708</v>
       </c>
       <c r="E39">
-        <v>4671082264.367022</v>
+        <v>4678168789.067038</v>
       </c>
       <c r="F39">
-        <v>7351028946098.893</v>
+        <v>7344200332167.347</v>
       </c>
       <c r="G39">
-        <v>3561.789371143439</v>
+        <v>3558.48361378289</v>
       </c>
       <c r="H39">
-        <v>31.29216285659143</v>
+        <v>31.33963636967678</v>
       </c>
     </row>
     <row r="40">
@@ -1395,22 +1395,22 @@
         <v>103494616.8704709</v>
       </c>
       <c r="C40">
-        <v>7351028946098.893</v>
+        <v>7344200332167.347</v>
       </c>
       <c r="D40">
-        <v>572757695653.4183</v>
+        <v>572225277139.7828</v>
       </c>
       <c r="E40">
-        <v>4361324508.676949</v>
+        <v>4367043045.493957</v>
       </c>
       <c r="F40">
-        <v>7919425317243.634</v>
+        <v>7912058566261.636</v>
       </c>
       <c r="G40">
-        <v>5534.178616944452</v>
+        <v>5529.034209150742</v>
       </c>
       <c r="H40">
-        <v>42.14059282073949</v>
+        <v>42.1958472580226</v>
       </c>
     </row>
     <row r="41">
@@ -1421,22 +1421,22 @@
         <v>64309996.19389852</v>
       </c>
       <c r="C41">
-        <v>7919425317243.634</v>
+        <v>7912058566261.636</v>
       </c>
       <c r="D41">
-        <v>617062153898.0709</v>
+        <v>616487839202.6716</v>
       </c>
       <c r="E41">
-        <v>4052874630.601163</v>
+        <v>4057460653.704781</v>
       </c>
       <c r="F41">
-        <v>8532434596511.104</v>
+        <v>8524488944810.603</v>
       </c>
       <c r="G41">
-        <v>9595.120361033629</v>
+        <v>9586.189950065051</v>
       </c>
       <c r="H41">
-        <v>63.02091230703081</v>
+        <v>63.09222350863296</v>
       </c>
     </row>
     <row r="42">
@@ -1447,22 +1447,22 @@
         <v>40829713.92717928</v>
       </c>
       <c r="C42">
-        <v>8532434596511.104</v>
+        <v>8524488944810.603</v>
       </c>
       <c r="D42">
-        <v>664845755780.3711</v>
+        <v>664226359652.0381</v>
       </c>
       <c r="E42">
-        <v>3751167966.714075</v>
+        <v>3754834190.152377</v>
       </c>
       <c r="F42">
-        <v>9193529184324.76</v>
+        <v>9184960470272.488</v>
       </c>
       <c r="G42">
-        <v>16283.38021094486</v>
+        <v>16268.20998150271</v>
       </c>
       <c r="H42">
-        <v>91.87348148959278</v>
+        <v>91.96327451250843</v>
       </c>
     </row>
     <row r="43">
@@ -1473,22 +1473,22 @@
         <v>26826115.37671368</v>
       </c>
       <c r="C43">
-        <v>9193529184324.76</v>
+        <v>9184960470272.488</v>
       </c>
       <c r="D43">
-        <v>716377682996.9156</v>
+        <v>715709756445.9191</v>
       </c>
       <c r="E43">
-        <v>3468343898.589055</v>
+        <v>3471275176.043915</v>
       </c>
       <c r="F43">
-        <v>9906438523423.086</v>
+        <v>9897198951542.365</v>
       </c>
       <c r="G43">
-        <v>26704.48825470887</v>
+        <v>26679.58988453425</v>
       </c>
       <c r="H43">
-        <v>129.289830073561</v>
+        <v>129.3990996198109</v>
       </c>
     </row>
     <row r="44">
@@ -1499,22 +1499,22 @@
         <v>12370435.20262709</v>
       </c>
       <c r="C44">
-        <v>9906438523423.086</v>
+        <v>9897198951542.365</v>
       </c>
       <c r="D44">
-        <v>771947370471.0953</v>
+        <v>771227182473.2985</v>
       </c>
       <c r="E44">
-        <v>3196085951.142821</v>
+        <v>3198437028.349437</v>
       </c>
       <c r="F44">
-        <v>10675189807943.04</v>
+        <v>10665227696987.31</v>
       </c>
       <c r="G44">
-        <v>62402.60409812888</v>
+        <v>62344.38561300688</v>
       </c>
       <c r="H44">
-        <v>258.3648755109337</v>
+        <v>258.5549316543195</v>
       </c>
     </row>
     <row r="45">
@@ -1525,22 +1525,22 @@
         <v>3463963.603189208</v>
       </c>
       <c r="C45">
-        <v>10675189807943.04</v>
+        <v>10665227696987.31</v>
       </c>
       <c r="D45">
-        <v>831869641669.3232</v>
+        <v>831093159499.7456</v>
       </c>
       <c r="E45">
-        <v>2933768852.182378</v>
+        <v>2935665194.930597</v>
       </c>
       <c r="F45">
-        <v>11504125680760.18</v>
+        <v>11493385191292.13</v>
       </c>
       <c r="G45">
-        <v>240149.6484845961</v>
+        <v>239925.4884591089</v>
       </c>
       <c r="H45">
-        <v>846.9398608811338</v>
+        <v>847.4873096899125</v>
       </c>
     </row>
     <row r="46">
@@ -1551,22 +1551,22 @@
         <v>392308.054137878</v>
       </c>
       <c r="C46">
-        <v>11504125680760.18</v>
+        <v>11493385191292.13</v>
       </c>
       <c r="D46">
-        <v>896482925230.7795</v>
+        <v>895645793122.1868</v>
       </c>
       <c r="E46">
-        <v>2683050758.912806</v>
+        <v>2684591375.420422</v>
       </c>
       <c r="F46">
-        <v>12397925555232.05</v>
+        <v>12386346393038.9</v>
       </c>
       <c r="G46">
-        <v>2285150.446887607</v>
+        <v>2283016.582696538</v>
       </c>
       <c r="H46">
-        <v>6839.142685482156</v>
+        <v>6843.069743546262</v>
       </c>
     </row>
     <row r="47">
@@ -1577,22 +1577,22 @@
         <v>32330.76448723478</v>
       </c>
       <c r="C47">
-        <v>12397925555232.05</v>
+        <v>12386346393038.9</v>
       </c>
       <c r="D47">
-        <v>966151335285.7185</v>
+        <v>965248851162.6743</v>
       </c>
       <c r="E47">
-        <v>2446357670.697281</v>
+        <v>2447618993.998823</v>
       </c>
       <c r="F47">
-        <v>13361630532847.07</v>
+        <v>13349147625207.57</v>
       </c>
       <c r="G47">
-        <v>29883343.32976215</v>
+        <v>29855429.23192507</v>
       </c>
       <c r="H47">
-        <v>75666.55813731781</v>
+        <v>75705.57123588033</v>
       </c>
     </row>
     <row r="48">
@@ -1603,22 +1603,22 @@
         <v>2659.720071365643</v>
       </c>
       <c r="C48">
-        <v>13361630532847.07</v>
+        <v>13349147625207.57</v>
       </c>
       <c r="D48">
-        <v>1041267392317.827</v>
+        <v>1040294482399.34</v>
       </c>
       <c r="E48">
-        <v>2223494315.119522</v>
+        <v>2224534484.969565</v>
       </c>
       <c r="F48">
-        <v>14400674430849.78</v>
+        <v>14387217573121.95</v>
       </c>
       <c r="G48">
-        <v>391495106.3941043</v>
+        <v>391129312.2908221</v>
       </c>
       <c r="H48">
-        <v>835988.0947839221</v>
+        <v>836379.1772370124</v>
       </c>
     </row>
     <row r="49">
@@ -1629,22 +1629,22 @@
         <v>218.4137746459141</v>
       </c>
       <c r="C49">
-        <v>14400674430849.78</v>
+        <v>14387217573121.95</v>
       </c>
       <c r="D49">
-        <v>1122254560056.91</v>
+        <v>1121205751153.033</v>
       </c>
       <c r="E49">
-        <v>2013942643.896728</v>
+        <v>2014805608.054379</v>
       </c>
       <c r="F49">
-        <v>15520915048262.79</v>
+        <v>15506408518666.92</v>
       </c>
       <c r="G49">
-        <v>5138204135.1388</v>
+        <v>5133402199.429494</v>
       </c>
       <c r="H49">
-        <v>9220767.541615319</v>
+        <v>9224718.593507765</v>
       </c>
     </row>
     <row r="50">
@@ -1655,22 +1655,22 @@
         <v>17.90271542696379</v>
       </c>
       <c r="C50">
-        <v>15520915048262.79</v>
+        <v>15506408518666.92</v>
       </c>
       <c r="D50">
-        <v>1209569387902.291</v>
+        <v>1208438777253.295</v>
       </c>
       <c r="E50">
-        <v>1817215666.145998</v>
+        <v>1817934734.899421</v>
       </c>
       <c r="F50">
-        <v>16728667220498.94</v>
+        <v>16713029361185.32</v>
       </c>
       <c r="G50">
-        <v>67563459456.01772</v>
+        <v>67500306430.23185</v>
       </c>
       <c r="H50">
-        <v>101505029.980482</v>
+        <v>101545195.3261446</v>
       </c>
     </row>
     <row r="51">
@@ -1681,22 +1681,22 @@
         <v>1.464621129609309</v>
       </c>
       <c r="C51">
-        <v>16728667220498.94</v>
+        <v>16713029361185.32</v>
       </c>
       <c r="D51">
-        <v>1303704044319.023</v>
+        <v>1302485266834.376</v>
       </c>
       <c r="E51">
-        <v>1632934374.091578</v>
+        <v>1633535070.255335</v>
       </c>
       <c r="F51">
-        <v>18030738330443.87</v>
+        <v>18013881092949.44</v>
       </c>
       <c r="G51">
-        <v>890130572311.7548</v>
+        <v>889298427083.1982</v>
       </c>
       <c r="H51">
-        <v>1114919306.487928</v>
+        <v>1115329444.066592</v>
       </c>
     </row>
     <row r="52">
@@ -1707,22 +1707,22 @@
         <v>0.1195837350194721</v>
       </c>
       <c r="C52">
-        <v>18030738330443.87</v>
+        <v>18013881092949.44</v>
       </c>
       <c r="D52">
-        <v>1405189081348.739</v>
+        <v>1403875274100.72</v>
       </c>
       <c r="E52">
-        <v>1460822140.349455</v>
+        <v>1461324279.028243</v>
       </c>
       <c r="F52">
-        <v>19434466589652.26</v>
+        <v>19416295042771.13</v>
       </c>
       <c r="G52">
-        <v>11750670616868.83</v>
+        <v>11739684112326.18</v>
       </c>
       <c r="H52">
-        <v>12215893240.92935</v>
+        <v>12220092295.91543</v>
       </c>
     </row>
     <row r="53">
@@ -1733,22 +1733,22 @@
         <v>0.009742634484294433</v>
       </c>
       <c r="C53">
-        <v>19434466589652.26</v>
+        <v>19416295042771.13</v>
       </c>
       <c r="D53">
-        <v>1514596422996.427</v>
+        <v>1513180186808.392</v>
       </c>
       <c r="E53">
-        <v>1300571011.59956</v>
+        <v>1300990164.77411</v>
       </c>
       <c r="F53">
-        <v>20947762441637.09</v>
+        <v>20928174239414.75</v>
       </c>
       <c r="G53">
-        <v>155460663687837.7</v>
+        <v>155315298880165</v>
       </c>
       <c r="H53">
-        <v>133492744051.5334</v>
+        <v>133535766621.5812</v>
       </c>
     </row>
     <row r="54">
@@ -1759,22 +1759,22 @@
         <v>0.0007919124177843634</v>
       </c>
       <c r="C54">
-        <v>20947762441637.09</v>
+        <v>20928174239414.75</v>
       </c>
       <c r="D54">
-        <v>1632542591163.975</v>
+        <v>1631015949105.68</v>
       </c>
       <c r="E54">
-        <v>1151863100.177564</v>
+        <v>1152211679.947271</v>
       </c>
       <c r="F54">
-        <v>22579153169700.89</v>
+        <v>22558037976840.48</v>
       </c>
       <c r="G54">
-        <v>2061519120676946</v>
+        <v>2059591329138373</v>
       </c>
       <c r="H54">
-        <v>1454533448787.533</v>
+        <v>1454973623435.485</v>
       </c>
     </row>
     <row r="55">
@@ -1785,22 +1785,22 @@
         <v>6.421574696975852E-05</v>
       </c>
       <c r="C55">
-        <v>22579153169700.89</v>
+        <v>22558037976840.48</v>
       </c>
       <c r="D55">
-        <v>1759692180649.285</v>
+        <v>1758046533224.16</v>
       </c>
       <c r="E55">
-        <v>1014410381.132819</v>
+        <v>1014698438.16271</v>
       </c>
       <c r="F55">
-        <v>24337830939969.04</v>
+        <v>24315069811626.48</v>
       </c>
       <c r="G55">
-        <v>2.740281416453797E+16</v>
+        <v>2.737718731282666E+16</v>
       </c>
       <c r="H55">
-        <v>15796910088276.96</v>
+        <v>15801395857632.36</v>
       </c>
     </row>
     <row r="56">
@@ -1811,22 +1811,22 @@
         <v>5.194710452630794E-06</v>
       </c>
       <c r="C56">
-        <v>24337830939969.04</v>
+        <v>24315069811626.48</v>
       </c>
       <c r="D56">
-        <v>1896761602140.669</v>
+        <v>1894987678924.292</v>
       </c>
       <c r="E56">
-        <v>887987518.4210887</v>
+        <v>888223387.8813424</v>
       </c>
       <c r="F56">
-        <v>26233704554591.29</v>
+        <v>26209169267162.89</v>
       </c>
       <c r="G56">
-        <v>3.651332676646257E+17</v>
+        <v>3.647917812174884E+17</v>
       </c>
       <c r="H56">
-        <v>170940714890351.4</v>
+        <v>170986120589553.4</v>
       </c>
     </row>
     <row r="57">
@@ -1837,22 +1837,22 @@
         <v>4.192020630722466E-07</v>
       </c>
       <c r="C57">
-        <v>26233704554591.29</v>
+        <v>26209169267162.89</v>
       </c>
       <c r="D57">
-        <v>2044523117908.832</v>
+        <v>2042610925373.547</v>
       </c>
       <c r="E57">
-        <v>772373332.5553727</v>
+        <v>772564136.2201384</v>
       </c>
       <c r="F57">
-        <v>28277455299167.57</v>
+        <v>28251007628400.21</v>
       </c>
       <c r="G57">
-        <v>4.877178091455319E+18</v>
+        <v>4.872616585910068E+18</v>
       </c>
       <c r="H57">
-        <v>1842484569123553</v>
+        <v>1842939728297550</v>
       </c>
     </row>
     <row r="58">
@@ -1863,22 +1863,22 @@
         <v>3.374242461919535E-08</v>
       </c>
       <c r="C58">
-        <v>28277455299167.57</v>
+        <v>28251007628400.21</v>
       </c>
       <c r="D58">
-        <v>2203809196889.218</v>
+        <v>2201747962129.05</v>
       </c>
       <c r="E58">
-        <v>667284689.8007178</v>
+        <v>667436689.8718346</v>
       </c>
       <c r="F58">
-        <v>30480597211366.98</v>
+        <v>30452088153839.39</v>
       </c>
       <c r="G58">
-        <v>6.531271009006027E+19</v>
+        <v>6.525162275613479E+19</v>
       </c>
       <c r="H58">
-        <v>1.977583701620286E+16</v>
+        <v>1.978034173312324E+16</v>
       </c>
     </row>
     <row r="59">
@@ -1889,22 +1889,22 @@
         <v>2.708120731082727E-09</v>
       </c>
       <c r="C59">
-        <v>30480597211366.98</v>
+        <v>30452088153839.39</v>
       </c>
       <c r="D59">
-        <v>2375517211392.264</v>
+        <v>2373295321437.803</v>
       </c>
       <c r="E59">
-        <v>572386572.3448929</v>
+        <v>572505438.1027191</v>
       </c>
       <c r="F59">
-        <v>32855542036186.91</v>
+        <v>32824810969839.09</v>
       </c>
       <c r="G59">
-        <v>8.771829055208018E+20</v>
+        <v>8.763624509786688E+20</v>
       </c>
       <c r="H59">
-        <v>2.113593259618261E+17</v>
+        <v>2.114032183025412E+17</v>
       </c>
     </row>
     <row r="60">
@@ -1915,22 +1915,22 @@
         <v>2.165902393529222E-10</v>
       </c>
       <c r="C60">
-        <v>32855542036186.91</v>
+        <v>32824810969839.09</v>
       </c>
       <c r="D60">
-        <v>2560614499134.78</v>
+        <v>2558219435521.62</v>
       </c>
       <c r="E60">
-        <v>487300903.326744</v>
+        <v>487391877.4612905</v>
       </c>
       <c r="F60">
-        <v>35415669234418.36</v>
+        <v>35382543013483.25</v>
       </c>
       <c r="G60">
-        <v>1.182239101256265E+22</v>
+        <v>1.181133297218042E+22</v>
       </c>
       <c r="H60">
-        <v>2.249874716342657E+18</v>
+        <v>2.250294745125202E+18</v>
       </c>
     </row>
     <row r="61">
@@ -1941,22 +1941,22 @@
         <v>1.725264823465909E-11</v>
       </c>
       <c r="C61">
-        <v>35415669234418.36</v>
+        <v>35382543013483.25</v>
       </c>
       <c r="D61">
-        <v>2760143818774.415</v>
+        <v>2757562087003.312</v>
       </c>
       <c r="E61">
-        <v>411623775.2358655</v>
+        <v>411691733.538862</v>
       </c>
       <c r="F61">
-        <v>38175401429417.54</v>
+        <v>38139693408753.02</v>
       </c>
       <c r="G61">
-        <v>1.599837764749369E+23</v>
+        <v>1.598341338382826E+23</v>
       </c>
       <c r="H61">
-        <v>2.385858504950843E+19</v>
+        <v>2.386252405655664E+19</v>
       </c>
     </row>
     <row r="62">
@@ -1967,22 +1967,22 @@
         <v>1.369261529610239E-12</v>
       </c>
       <c r="C62">
-        <v>38175401429417.54</v>
+        <v>38139693408753.02</v>
       </c>
       <c r="D62">
-        <v>2975229230832.684</v>
+        <v>2972446284330.454</v>
       </c>
       <c r="E62">
-        <v>344902946.4289358</v>
+        <v>344952380.5457451</v>
       </c>
       <c r="F62">
-        <v>41150285757303.79</v>
+        <v>41111794740702.93</v>
       </c>
       <c r="G62">
-        <v>2.172871410240807E+24</v>
+        <v>2.170838966882071E+24</v>
       </c>
       <c r="H62">
-        <v>2.518897514977381E+20</v>
+        <v>2.519258542551298E+20</v>
       </c>
     </row>
     <row r="63">
@@ -1993,22 +1993,22 @@
         <v>1.082428155933926E-13</v>
       </c>
       <c r="C63">
-        <v>41150285757303.79</v>
+        <v>41111794740702.93</v>
       </c>
       <c r="D63">
-        <v>3207082439284.371</v>
+        <v>3204082597442.267</v>
       </c>
       <c r="E63">
-        <v>286600772.5519741</v>
+        <v>286635713.0752971</v>
       </c>
       <c r="F63">
-        <v>44357081595815.6</v>
+        <v>44315590702432.12</v>
       </c>
       <c r="G63">
-        <v>2.962859402449006E+25</v>
+        <v>2.960088002032582E+25</v>
       </c>
       <c r="H63">
-        <v>2.647757922600352E+21</v>
+        <v>2.648080720220974E+21</v>
       </c>
     </row>
     <row r="64">
@@ -2019,22 +2019,22 @@
         <v>8.51967489382539E-15</v>
       </c>
       <c r="C64">
-        <v>44357081595815.6</v>
+        <v>44315590702432.12</v>
       </c>
       <c r="D64">
-        <v>3457009628226.968</v>
+        <v>3453775988057.153</v>
       </c>
       <c r="E64">
-        <v>236109873.6556065</v>
+        <v>236133816.2483602</v>
       </c>
       <c r="F64">
-        <v>47813855114168.91</v>
+        <v>47769130556673.02</v>
       </c>
       <c r="G64">
-        <v>4.057677870704228E+26</v>
+        <v>4.053882373563653E+26</v>
       </c>
       <c r="H64">
-        <v>2.771348397656892E+22</v>
+        <v>2.771629424727199E+22</v>
       </c>
     </row>
     <row r="65">
@@ -2045,22 +2045,22 @@
         <v>6.673539278543467E-16</v>
       </c>
       <c r="C65">
-        <v>47813855114168.91</v>
+        <v>47769130556673.02</v>
       </c>
       <c r="D65">
-        <v>3726418829469.932</v>
+        <v>3722933170381.396</v>
       </c>
       <c r="E65">
-        <v>192786256.1920369</v>
+        <v>192802117.9393336</v>
       </c>
       <c r="F65">
-        <v>51540081157382.65</v>
+        <v>51491870924936.48</v>
       </c>
       <c r="G65">
-        <v>5.583871876578271E+27</v>
+        <v>5.578648772400639E+27</v>
       </c>
       <c r="H65">
-        <v>2.888815786428E+23</v>
+        <v>2.889053467613869E+23</v>
       </c>
     </row>
     <row r="66">
@@ -2071,22 +2071,22 @@
         <v>5.199760649973211E-17</v>
       </c>
       <c r="C66">
-        <v>51540081157382.65</v>
+        <v>51491870924936.48</v>
       </c>
       <c r="D66">
-        <v>4016827861977.855</v>
+        <v>4013070543132.454</v>
       </c>
       <c r="E66">
-        <v>155976252.6738687</v>
+        <v>155986376.4279514</v>
       </c>
       <c r="F66">
-        <v>55556753043107.83</v>
+        <v>55504785481692.51</v>
       </c>
       <c r="G66">
-        <v>7.725024539347883E+28</v>
+        <v>7.717798593581665E+28</v>
       </c>
       <c r="H66">
-        <v>2.999681392540101E+24</v>
+        <v>2.999876089080274E+24</v>
       </c>
     </row>
     <row r="67">
@@ -2097,22 +2097,22 @@
         <v>4.027819742224324E-18</v>
       </c>
       <c r="C67">
-        <v>55556753043107.83</v>
+        <v>55504785481692.51</v>
       </c>
       <c r="D67">
-        <v>4329872888993.219</v>
+        <v>4325822738660.304</v>
       </c>
       <c r="E67">
-        <v>125017334.2698431</v>
+        <v>125023528.9778755</v>
       </c>
       <c r="F67">
-        <v>59886500914766.77</v>
+        <v>59830483196823.84</v>
       </c>
       <c r="G67">
-        <v>1.07499172408398E+30</v>
+        <v>1.073986179995089E+30</v>
       </c>
       <c r="H67">
-        <v>3.103846305713858E+25</v>
+        <v>3.104000103759174E+25</v>
       </c>
     </row>
     <row r="68">
@@ -2123,22 +2123,22 @@
         <v>3.099870451790628E-19</v>
       </c>
       <c r="C68">
-        <v>59886500914766.77</v>
+        <v>59830483196823.84</v>
       </c>
       <c r="D68">
-        <v>4667317641911.834</v>
+        <v>4662951838195.471</v>
       </c>
       <c r="E68">
-        <v>99241108.96392512</v>
+        <v>99244715.77579598</v>
       </c>
       <c r="F68">
-        <v>64553719315569.65</v>
+        <v>64493335790303.53</v>
       </c>
       <c r="G68">
-        <v>1.505649256799031E+31</v>
+        <v>1.504240874163607E+31</v>
       </c>
       <c r="H68">
-        <v>3.201459883802527E+26</v>
+        <v>3.201576237434944E+26</v>
       </c>
     </row>
     <row r="69">
@@ -2149,22 +2149,22 @@
         <v>2.368543639090791E-20</v>
       </c>
       <c r="C69">
-        <v>64553719315569.65</v>
+        <v>64493335790303.53</v>
       </c>
       <c r="D69">
-        <v>5031063362111.449</v>
+        <v>5026357304376.037</v>
       </c>
       <c r="E69">
-        <v>77993584.48075686</v>
+        <v>77995562.81987879</v>
       </c>
       <c r="F69">
-        <v>69584704684096.61</v>
+        <v>69519615099116.75</v>
       </c>
       <c r="G69">
-        <v>2.124116811308875E+32</v>
+        <v>2.122129911993303E+32</v>
       </c>
       <c r="H69">
-        <v>3.292892019954344E+27</v>
+        <v>3.292975545505204E+27</v>
       </c>
     </row>
     <row r="70">
@@ -2175,22 +2175,22 @@
         <v>1.795219224065669E-21</v>
       </c>
       <c r="C70">
-        <v>69584704684096.61</v>
+        <v>69519615099116.75</v>
       </c>
       <c r="D70">
-        <v>5423159515956.933</v>
+        <v>5418086686225.73</v>
       </c>
       <c r="E70">
-        <v>60657148.91797853</v>
+        <v>60658157.56403267</v>
       </c>
       <c r="F70">
-        <v>75007803542904.63</v>
+        <v>74937641127184.92</v>
       </c>
       <c r="G70">
-        <v>3.020889840782227E+33</v>
+        <v>3.018064096904711E+33</v>
       </c>
       <c r="H70">
-        <v>3.378815695868444E+28</v>
+        <v>3.378871880987265E+28</v>
       </c>
     </row>
     <row r="71">
@@ -2201,22 +2201,22 @@
         <v>1.348524269168167E-22</v>
       </c>
       <c r="C71">
-        <v>75007803542904.63</v>
+        <v>74937641127184.92</v>
       </c>
       <c r="D71">
-        <v>5845815343536.675</v>
+        <v>5840347157082.258</v>
       </c>
       <c r="E71">
-        <v>46663159.95702807</v>
+        <v>46663630.04833327</v>
       </c>
       <c r="F71">
-        <v>80853572223281.34</v>
+        <v>80777941620637.14</v>
       </c>
       <c r="G71">
-        <v>4.334972293188795E+34</v>
+        <v>4.330917352110286E+34</v>
       </c>
       <c r="H71">
-        <v>3.460312952751831E+29</v>
+        <v>3.460347812436299E+29</v>
       </c>
     </row>
     <row r="72">
@@ -2227,22 +2227,22 @@
         <v>1.002937421583133E-23</v>
       </c>
       <c r="C72">
-        <v>80853572223281.34</v>
+        <v>80777941620637.14</v>
       </c>
       <c r="D72">
-        <v>6301412306989.226</v>
+        <v>6295517951274.333</v>
       </c>
       <c r="E72">
-        <v>35491588.78509753</v>
+        <v>35491784.50210651</v>
       </c>
       <c r="F72">
-        <v>87154949038681.78</v>
+        <v>87073424080126.97</v>
       </c>
       <c r="G72">
-        <v>6.282956614623544E+35</v>
+        <v>6.277079522406177E+35</v>
       </c>
       <c r="H72">
-        <v>3.538764036650881E+30</v>
+        <v>3.538783551029821E+30</v>
       </c>
     </row>
     <row r="73">
@@ -2253,22 +2253,22 @@
         <v>7.376595068051128E-25</v>
       </c>
       <c r="C73">
-        <v>87154949038681.78</v>
+        <v>87073424080126.97</v>
       </c>
       <c r="D73">
-        <v>6792517509020.953</v>
+        <v>6786163770082.608</v>
       </c>
       <c r="E73">
-        <v>26670954.37075087</v>
+        <v>26671025.2331043</v>
       </c>
       <c r="F73">
-        <v>93947439876748.36</v>
+        <v>93859561179184.34</v>
       </c>
       <c r="G73">
-        <v>9.208201678902124E+36</v>
+        <v>9.199588302568288E+36</v>
       </c>
       <c r="H73">
-        <v>3.615618605156437E+31</v>
+        <v>3.615628211533467E+31</v>
       </c>
     </row>
     <row r="74">
@@ -2279,22 +2279,22 @@
         <v>5.35798718717224E-26</v>
       </c>
       <c r="C74">
-        <v>93947439876748.36</v>
+        <v>93859561179184.34</v>
       </c>
       <c r="D74">
-        <v>7321898157028.542</v>
+        <v>7315049232327.593</v>
       </c>
       <c r="E74">
-        <v>19783319.39793754</v>
+        <v>19783341.1197819</v>
       </c>
       <c r="F74">
-        <v>101269318250457.5</v>
+        <v>101174590628170.8</v>
       </c>
       <c r="G74">
-        <v>1.36653894480341E+38</v>
+        <v>1.365260680324288E+38</v>
       </c>
       <c r="H74">
-        <v>3.692304349906161E+32</v>
+        <v>3.692308404011482E+32</v>
       </c>
     </row>
     <row r="75">
@@ -2305,22 +2305,22 @@
         <v>3.837223450258516E-27</v>
       </c>
       <c r="C75">
-        <v>101269318250457.5</v>
+        <v>101174590628170.8</v>
       </c>
       <c r="D75">
-        <v>7892537154184.911</v>
+        <v>7885154450867.043</v>
       </c>
       <c r="E75">
-        <v>14467304.19562099</v>
+        <v>14467308.39771288</v>
       </c>
       <c r="F75">
-        <v>109161840937338.2</v>
+        <v>109059730611729.5</v>
       </c>
       <c r="G75">
-        <v>2.056835432310617E+39</v>
+        <v>2.054911462176073E+39</v>
       </c>
       <c r="H75">
-        <v>3.770253252946821E+33</v>
+        <v>3.770254348033398E+33</v>
       </c>
     </row>
     <row r="76">
@@ -2331,22 +2331,22 @@
         <v>2.704842910064732E-28</v>
       </c>
       <c r="C76">
-        <v>109161840937338.2</v>
+        <v>109059730611729.5</v>
       </c>
       <c r="D76">
-        <v>8507649905588.522</v>
+        <v>8499691823020.326</v>
       </c>
       <c r="E76">
-        <v>10416428.88926537</v>
+        <v>10416429.66461597</v>
       </c>
       <c r="F76">
-        <v>117669480426497.8</v>
+        <v>117559412018320.1</v>
       </c>
       <c r="G76">
-        <v>3.145339743735772E+40</v>
+        <v>3.142397583014133E+40</v>
       </c>
       <c r="H76">
-        <v>3.85102914868209E+34</v>
+        <v>3.851029435334818E+34</v>
       </c>
     </row>
     <row r="77">
@@ -2357,22 +2357,22 @@
         <v>1.872976155163048E-29</v>
       </c>
       <c r="C77">
-        <v>117669480426497.8</v>
+        <v>117559412018320.1</v>
       </c>
       <c r="D77">
-        <v>9170702434539.93</v>
+        <v>9162124129895.389</v>
       </c>
       <c r="E77">
-        <v>7372475.783757168</v>
+        <v>7372475.871076279</v>
       </c>
       <c r="F77">
-        <v>126840175488562</v>
+        <v>126721528775739.6</v>
       </c>
       <c r="G77">
-        <v>4.896326314277928E+41</v>
+        <v>4.891746274846623E+41</v>
       </c>
       <c r="H77">
-        <v>3.936235794264755E+35</v>
+        <v>3.93623584088527E+35</v>
       </c>
     </row>
     <row r="78">
@@ -2383,19 +2383,19 @@
         <v>1.271164200719562E-30</v>
       </c>
       <c r="C78">
-        <v>126840175488562</v>
+        <v>126721528775739.6</v>
       </c>
       <c r="D78">
-        <v>9885430911210.209</v>
+        <v>9876184046787.313</v>
       </c>
       <c r="E78">
         <v>5119854.528606431</v>
       </c>
       <c r="F78">
-        <v>136725601279917.7</v>
+        <v>136597707702672.4</v>
       </c>
       <c r="G78">
-        <v>7.776675039789832E+42</v>
+        <v>7.76940071250964E+42</v>
       </c>
       <c r="H78">
         <v>4.027689362010241E+36</v>
@@ -2409,19 +2409,19 @@
         <v>8.43311726193044E-32</v>
       </c>
       <c r="C79">
-        <v>136725601279917.7</v>
+        <v>136597707702672.4</v>
       </c>
       <c r="D79">
-        <v>10655862703708.13</v>
+        <v>10645895174551.91</v>
       </c>
       <c r="E79">
         <v>3480712.612785329</v>
       </c>
       <c r="F79">
-        <v>147381460502913.2</v>
+        <v>147243599396511.7</v>
       </c>
       <c r="G79">
-        <v>1.263573406219763E+44</v>
+        <v>1.262391455483561E+44</v>
       </c>
       <c r="H79">
         <v>4.127432958270703E+37</v>
@@ -2435,19 +2435,19 @@
         <v>5.45202479511411E-33</v>
       </c>
       <c r="C80">
-        <v>147381460502913.2</v>
+        <v>147243599396511.7</v>
       </c>
       <c r="D80">
-        <v>11486339070148.81</v>
+        <v>11475594710446.29</v>
       </c>
       <c r="E80">
         <v>2310510.491420873</v>
       </c>
       <c r="F80">
-        <v>158867797262551.5</v>
+        <v>158719191796447.5</v>
       </c>
       <c r="G80">
-        <v>2.106802426951986E+45</v>
+        <v>2.104831716966928E+45</v>
       </c>
       <c r="H80">
         <v>4.237894320457715E+38</v>
@@ -2461,19 +2461,19 @@
         <v>3.423200520607734E-34</v>
       </c>
       <c r="C81">
-        <v>158867797262551.5</v>
+        <v>158719191796447.5</v>
       </c>
       <c r="D81">
-        <v>12381539619614.26</v>
+        <v>12369957886206.93</v>
       </c>
       <c r="E81">
         <v>1493205.100467224</v>
       </c>
       <c r="F81">
-        <v>171249335388960.7</v>
+        <v>171089148189449.3</v>
       </c>
       <c r="G81">
-        <v>3.616948392323835E+46</v>
+        <v>3.613565086748363E+46</v>
       </c>
       <c r="H81">
         <v>4.362014703719808E+39</v>
@@ -2487,19 +2487,19 @@
         <v>2.079488835010824E-35</v>
       </c>
       <c r="C82">
-        <v>171249335388960.7</v>
+        <v>171089148189449.3</v>
       </c>
       <c r="D82">
-        <v>13346508679882.22</v>
+        <v>13334024311112.71</v>
       </c>
       <c r="E82">
         <v>936418.4757753663</v>
       </c>
       <c r="F82">
-        <v>184595843132424.4</v>
+        <v>184423171564143.6</v>
       </c>
       <c r="G82">
-        <v>6.418167991660678E+47</v>
+        <v>6.412164415897578E+47</v>
       </c>
       <c r="H82">
         <v>4.503118554952434E+40</v>
@@ -2513,19 +2513,19 @@
         <v>1.21678744489942E-36</v>
       </c>
       <c r="C83">
-        <v>184595843132424.4</v>
+        <v>184423171564143.6</v>
       </c>
       <c r="D83">
-        <v>14386683720491.17</v>
+        <v>14373226368461.77</v>
       </c>
       <c r="E83">
         <v>567603.9080792945</v>
       </c>
       <c r="F83">
-        <v>198982526285311.7</v>
+        <v>198796397365001.5</v>
       </c>
       <c r="G83">
-        <v>1.182349783505564E+49</v>
+        <v>1.18124380956691E+49</v>
       </c>
       <c r="H83">
         <v>4.664774529508833E+41</v>
@@ -2539,19 +2539,19 @@
         <v>6.823094040051235E-38</v>
       </c>
       <c r="C84">
-        <v>198982526285311.7</v>
+        <v>198796397365001.5</v>
       </c>
       <c r="D84">
-        <v>15507925991258.38</v>
+        <v>15493419825429.2</v>
       </c>
       <c r="E84">
         <v>330958.8354570117</v>
       </c>
       <c r="F84">
-        <v>214490451945611.2</v>
+        <v>214289816859471.8</v>
       </c>
       <c r="G84">
-        <v>2.272858310354159E+50</v>
+        <v>2.270732271090442E+50</v>
       </c>
       <c r="H84">
         <v>4.850568283454679E+42</v>
@@ -2565,19 +2565,19 @@
         <v>3.645242063338626E-39</v>
       </c>
       <c r="C85">
-        <v>214490451945611.2</v>
+        <v>214289816859471.8</v>
       </c>
       <c r="D85">
-        <v>16716553548876.09</v>
+        <v>16700916828769.19</v>
       </c>
       <c r="E85">
         <v>184588.2429982729</v>
       </c>
       <c r="F85">
-        <v>231207005309899</v>
+        <v>230990733503652.8</v>
       </c>
       <c r="G85">
-        <v>4.585855550444743E+51</v>
+        <v>4.581565925823059E+51</v>
       </c>
       <c r="H85">
         <v>5.063813041518872E+43</v>
@@ -2591,19 +2591,19 @@
         <v>1.84351492740937E-40</v>
       </c>
       <c r="C86">
-        <v>231207005309899</v>
+        <v>230990733503652.8</v>
       </c>
       <c r="D86">
-        <v>18019376857686.24</v>
+        <v>18002521472288.01</v>
       </c>
       <c r="E86">
         <v>97852.55530859658</v>
       </c>
       <c r="F86">
-        <v>249226382069732.7</v>
+        <v>248993254878088.2</v>
       </c>
       <c r="G86">
-        <v>9.774467561815878E+52</v>
+        <v>9.765324492157141E+52</v>
       </c>
       <c r="H86">
         <v>5.307933982726439E+44</v>
@@ -2617,19 +2617,19 @@
         <v>8.762402245454233E-42</v>
       </c>
       <c r="C87">
-        <v>249226382069732.7</v>
+        <v>248993254878088.2</v>
       </c>
       <c r="D87">
-        <v>19423737165238.88</v>
+        <v>19405568136505.19</v>
       </c>
       <c r="E87">
         <v>48955.49181360807</v>
       </c>
       <c r="F87">
-        <v>268650119186016.1</v>
+        <v>268398822965637.9</v>
       </c>
       <c r="G87">
-        <v>2.216713707170375E+54</v>
+        <v>2.21464018575185E+54</v>
       </c>
       <c r="H87">
         <v>5.586994347241391E+45</v>
@@ -2643,19 +2643,19 @@
         <v>3.882675600773243E-43</v>
       </c>
       <c r="C88">
-        <v>268650119186016.1</v>
+        <v>268398822965637.9</v>
       </c>
       <c r="D88">
-        <v>20937547868865.15</v>
+        <v>20917962816531.66</v>
       </c>
       <c r="E88">
         <v>22927.98137875241</v>
       </c>
       <c r="F88">
-        <v>289587667031953.3</v>
+        <v>289316785759241.6</v>
       </c>
       <c r="G88">
-        <v>5.39255658255235E+55</v>
+        <v>5.387512367081556E+55</v>
       </c>
       <c r="H88">
         <v>5.90520139621921E+46</v>
@@ -2669,19 +2669,19 @@
         <v>1.589328620204012E-44</v>
       </c>
       <c r="C89">
-        <v>289587667031953.3</v>
+        <v>289316785759241.6</v>
       </c>
       <c r="D89">
-        <v>22569339106344.12</v>
+        <v>22548227671025.92</v>
       </c>
       <c r="E89">
         <v>9960.803061615843</v>
       </c>
       <c r="F89">
-        <v>312157006128336.6</v>
+        <v>311865013420306.7</v>
       </c>
       <c r="G89">
-        <v>1.420054909943486E+57</v>
+        <v>1.418726585829151E+57</v>
       </c>
       <c r="H89">
         <v>6.2673023910796E+47</v>
@@ -2695,19 +2695,19 @@
         <v>5.950235332927601E-46</v>
       </c>
       <c r="C90">
-        <v>312157006128336.6</v>
+        <v>311865013420306.7</v>
       </c>
       <c r="D90">
-        <v>24328305821913.64</v>
+        <v>24305549043243.61</v>
       </c>
       <c r="E90">
         <v>3976.461214948124</v>
       </c>
       <c r="F90">
-        <v>336485311946273.8</v>
+        <v>336170562459573.9</v>
       </c>
       <c r="G90">
-        <v>4.088629181989642E+58</v>
+        <v>4.084804664571969E+58</v>
       </c>
       <c r="H90">
         <v>6.682863773375578E+48</v>
@@ -2721,19 +2721,19 @@
         <v>2.015869335064944E-47</v>
       </c>
       <c r="C91">
-        <v>336485311946273.8</v>
+        <v>336170562459573.9</v>
       </c>
       <c r="D91">
-        <v>26224359578461.41</v>
+        <v>26199829224762.98</v>
       </c>
       <c r="E91">
         <v>1448.525077086954</v>
       </c>
       <c r="F91">
-        <v>362709671523286.7</v>
+        <v>362370391682888.4</v>
       </c>
       <c r="G91">
-        <v>1.300895803230052E+60</v>
+        <v>1.299678940942812E+60</v>
       </c>
       <c r="H91">
         <v>7.185609959389E+49</v>
@@ -2747,19 +2747,19 @@
         <v>6.10991930816653E-49</v>
       </c>
       <c r="C92">
-        <v>362709671523286.7</v>
+        <v>362370391682888.4</v>
       </c>
       <c r="D92">
-        <v>28268184407839.14</v>
+        <v>28241742253556.44</v>
       </c>
       <c r="E92">
         <v>474.6214457498302</v>
       </c>
       <c r="F92">
-        <v>390977855930651.2</v>
+        <v>390612133935970.2</v>
       </c>
       <c r="G92">
-        <v>4.626605194287236E+61</v>
+        <v>4.622277452307508E+61</v>
       </c>
       <c r="H92">
         <v>7.768047691160998E+50</v>
@@ -2773,19 +2773,19 @@
         <v>1.635225949299503E-50</v>
       </c>
       <c r="C93">
-        <v>390977855930651.2</v>
+        <v>390612133935970.2</v>
       </c>
       <c r="D93">
-        <v>30471297013994.84</v>
+        <v>30442794060808.52</v>
       </c>
       <c r="E93">
         <v>132.3232757569742</v>
       </c>
       <c r="F93">
-        <v>421449152944513.7</v>
+        <v>421054927996646.4</v>
       </c>
       <c r="G93">
-        <v>1.863430373462952E+63</v>
+        <v>1.861687314456426E+63</v>
       </c>
       <c r="H93">
         <v>8.092048429983559E+51</v>
@@ -2799,19 +2799,19 @@
         <v>3.769814205825257E-52</v>
       </c>
       <c r="C94">
-        <v>421449152944513.7</v>
+        <v>421054927996646.4</v>
       </c>
       <c r="D94">
-        <v>32846111668146.13</v>
+        <v>32815387305386</v>
       </c>
       <c r="E94">
         <v>30.76756393303528</v>
       </c>
       <c r="F94">
-        <v>454295264612629.1</v>
+        <v>453870315302001.6</v>
       </c>
       <c r="G94">
-        <v>8.712925856502715E+64</v>
+        <v>8.704775756502387E+64</v>
       </c>
       <c r="H94">
         <v>8.161559762147453E+52</v>
@@ -2825,19 +2825,19 @@
         <v>6.533057929376426E-54</v>
       </c>
       <c r="C95">
-        <v>454295264612629.1</v>
+        <v>453870315302001.6</v>
       </c>
       <c r="D95">
-        <v>35406010161660.94</v>
+        <v>35372891261284.34</v>
       </c>
       <c r="E95">
         <v>6.64314183262953</v>
       </c>
       <c r="F95">
-        <v>489701274774283.4</v>
+        <v>489243206563279.3</v>
       </c>
       <c r="G95">
-        <v>5.419515722102346E+66</v>
+        <v>5.414446288961752E+66</v>
       </c>
       <c r="H95">
         <v>1.016850287329935E+54</v>
@@ -2851,16 +2851,16 @@
         <v>0</v>
       </c>
       <c r="C96">
-        <v>489701274774283.4</v>
+        <v>489243206563279.3</v>
       </c>
       <c r="D96">
-        <v>38165417210810.88</v>
+        <v>38129717151847.3</v>
       </c>
       <c r="E96">
         <v>0</v>
       </c>
       <c r="F96">
-        <v>527866691985094.3</v>
+        <v>527372923715126.6</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -2876,16 +2876,16 @@
         <v>0</v>
       </c>
       <c r="C97">
-        <v>527866691985094.3</v>
+        <v>527372923715126.6</v>
       </c>
       <c r="D97">
-        <v>41139881738285.61</v>
+        <v>41101399355250.23</v>
       </c>
       <c r="E97">
         <v>0</v>
       </c>
       <c r="F97">
-        <v>569006573723379.9</v>
+        <v>568474323070376.9</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>

--- a/res/reserva.xlsx
+++ b/res/reserva.xlsx
@@ -1,21 +1,59 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3e64e3084cf54c9d/Documentos/Semestre 7/Pensiones/Proyecto/res/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_B19F3FDC8F79A8D366075C52F37BD2727AC9F6DB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC7B4035-9642-4568-9ECA-FE742A57C045}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>Salarios</t>
+  </si>
+  <si>
+    <t>Reserva_Inicial</t>
+  </si>
+  <si>
+    <t>Ingresos</t>
+  </si>
+  <si>
+    <t>Egresos</t>
+  </si>
+  <si>
+    <t>Reserva_final</t>
+  </si>
+  <si>
+    <t>Tasa_Ingresos</t>
+  </si>
+  <si>
+    <t>Tasa_Costos</t>
+  </si>
+  <si>
+    <t>Inf</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,13 +101,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -107,7 +153,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -141,6 +187,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -175,9 +222,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -350,56 +398,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Año</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Salarios</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Reserva_Inicial</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Ingresos</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Egresos</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Reserva_final</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Tasa_Ingresos</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Tasa_Costos</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2025</v>
       </c>
@@ -407,51 +445,51 @@
         <v>36010122084.65284</v>
       </c>
       <c r="C2">
-        <v>437031071554.9</v>
+        <v>437031071554.90002</v>
       </c>
       <c r="D2">
-        <v>39587899989.66781</v>
+        <v>39583318715.901031</v>
       </c>
       <c r="E2">
-        <v>2172090574.864474</v>
+        <v>2289551719.4303141</v>
       </c>
       <c r="F2">
-        <v>474446880969.7033</v>
+        <v>474324838551.37073</v>
       </c>
       <c r="G2">
-        <v>1.099354784096658</v>
+        <v>1.0992275622628629</v>
       </c>
       <c r="H2">
-        <v>0.0603188894988556</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>6.3580781927037616E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2026</v>
       </c>
       <c r="B3">
-        <v>34226172136.67446</v>
+        <v>34226172136.674461</v>
       </c>
       <c r="C3">
-        <v>474446880969.7033</v>
+        <v>474324838551.37073</v>
       </c>
       <c r="D3">
-        <v>42225084800.12243</v>
+        <v>42207393840.820511</v>
       </c>
       <c r="E3">
-        <v>2194382624.821345</v>
+        <v>2404074830.0555811</v>
       </c>
       <c r="F3">
-        <v>514477583145.0044</v>
+        <v>514128157562.13562</v>
       </c>
       <c r="G3">
-        <v>1.233707486525403</v>
+        <v>1.233190602567966</v>
       </c>
       <c r="H3">
-        <v>0.06411417017534345</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>7.0240832672010561E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2027</v>
       </c>
@@ -459,207 +497,207 @@
         <v>32475732708.94772</v>
       </c>
       <c r="C4">
-        <v>514477583145.0044</v>
+        <v>514128157562.13562</v>
       </c>
       <c r="D4">
-        <v>45069517871.44103</v>
+        <v>45029935927.079163</v>
       </c>
       <c r="E4">
-        <v>2261858072.615625</v>
+        <v>2578596792.5088191</v>
       </c>
       <c r="F4">
-        <v>557285242943.8298</v>
+        <v>556579496696.70605</v>
       </c>
       <c r="G4">
-        <v>1.387790639717375</v>
+        <v>1.386571823664275</v>
       </c>
       <c r="H4">
-        <v>0.06964763791125912</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>7.9400727171226038E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2028</v>
       </c>
       <c r="B5">
-        <v>30693609073.94145</v>
+        <v>30693609073.941448</v>
       </c>
       <c r="C5">
-        <v>557285242943.8298</v>
+        <v>556579496696.70605</v>
       </c>
       <c r="D5">
-        <v>48121821956.99799</v>
+        <v>48049790112.539001</v>
       </c>
       <c r="E5">
-        <v>2422296120.018857</v>
+        <v>2859035975.7375059</v>
       </c>
       <c r="F5">
-        <v>602984768780.8091</v>
+        <v>601770250833.50757</v>
       </c>
       <c r="G5">
-        <v>1.567812434212988</v>
+        <v>1.565465631519128</v>
       </c>
       <c r="H5">
-        <v>0.078918582503071</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>9.3147598539162921E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2029</v>
       </c>
       <c r="B6">
-        <v>28839689652.87267</v>
+        <v>28839689652.872669</v>
       </c>
       <c r="C6">
-        <v>602984768780.8091</v>
+        <v>601770250833.50757</v>
       </c>
       <c r="D6">
-        <v>51384483752.90667</v>
+        <v>51271006398.335548</v>
       </c>
       <c r="E6">
-        <v>2681057562.099815</v>
+        <v>3163781653.3022261</v>
       </c>
       <c r="F6">
-        <v>651688194971.6158</v>
+        <v>649877475578.54089</v>
       </c>
       <c r="G6">
-        <v>1.781728041161093</v>
+        <v>1.7777932777868339</v>
       </c>
       <c r="H6">
-        <v>0.09296416134744222</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>0.1097023474032803</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2030</v>
       </c>
       <c r="B7">
-        <v>26967564097.62731</v>
+        <v>26967564097.627312</v>
       </c>
       <c r="C7">
-        <v>651688194971.6158</v>
+        <v>649877475578.54089</v>
       </c>
       <c r="D7">
-        <v>54880987231.308</v>
+        <v>54720197550.614487</v>
       </c>
       <c r="E7">
-        <v>2873958025.640492</v>
+        <v>3378339081.6144252</v>
       </c>
       <c r="F7">
-        <v>703695224177.2833</v>
+        <v>701219334047.54102</v>
       </c>
       <c r="G7">
-        <v>2.035073951530409</v>
+        <v>2.029111615439859</v>
       </c>
       <c r="H7">
-        <v>0.1065709166477277</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>0.12527416526699431</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2031</v>
       </c>
       <c r="B8">
-        <v>25223566788.47191</v>
+        <v>25223566788.471909</v>
       </c>
       <c r="C8">
-        <v>703695224177.2833</v>
+        <v>701219334047.54102</v>
       </c>
       <c r="D8">
-        <v>58655723627.69728</v>
+        <v>58437366324.100418</v>
       </c>
       <c r="E8">
-        <v>3046283517.075593</v>
+        <v>3697683274.6598382</v>
       </c>
       <c r="F8">
-        <v>759304664287.905</v>
+        <v>755959017096.98169</v>
       </c>
       <c r="G8">
-        <v>2.32543335839819</v>
+        <v>2.3167764818577692</v>
       </c>
       <c r="H8">
-        <v>0.1207713224153475</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>0.14659636782018531</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2032</v>
       </c>
       <c r="B9">
-        <v>23545752806.48623</v>
+        <v>23545752806.486229</v>
       </c>
       <c r="C9">
-        <v>759304664287.905</v>
+        <v>755959017096.98169</v>
       </c>
       <c r="D9">
-        <v>62714341389.51103</v>
+        <v>62431626735.227913</v>
       </c>
       <c r="E9">
-        <v>3403157553.405407</v>
+        <v>3966531870.7089958</v>
       </c>
       <c r="F9">
-        <v>818615848124.0106</v>
+        <v>814424111961.50061</v>
       </c>
       <c r="G9">
-        <v>2.663509716802722</v>
+        <v>2.6515026828120631</v>
       </c>
       <c r="H9">
-        <v>0.1445338181104121</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>0.1684606095761067</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2033</v>
       </c>
       <c r="B10">
-        <v>21896673700.86796</v>
+        <v>21896673700.867962</v>
       </c>
       <c r="C10">
-        <v>818615848124.0106</v>
+        <v>814424111961.50061</v>
       </c>
       <c r="D10">
-        <v>67071672214.66432</v>
+        <v>66724672326.964432</v>
       </c>
       <c r="E10">
-        <v>3612897616.809685</v>
+        <v>4133707154.7497659</v>
       </c>
       <c r="F10">
-        <v>882074622721.8652</v>
+        <v>877015077133.71533</v>
       </c>
       <c r="G10">
-        <v>3.063098675668061</v>
+        <v>3.0472515249802319</v>
       </c>
       <c r="H10">
-        <v>0.1649975547046889</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>0.1887824247290085</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2034</v>
       </c>
       <c r="B11">
-        <v>20314603333.16619</v>
+        <v>20314603333.166191</v>
       </c>
       <c r="C11">
-        <v>882074622721.8652</v>
+        <v>877015077133.71533</v>
       </c>
       <c r="D11">
-        <v>71760740127.67058</v>
+        <v>71345787449.324921</v>
       </c>
       <c r="E11">
-        <v>3872734817.363641</v>
+        <v>4401656592.8416281</v>
       </c>
       <c r="F11">
-        <v>949962628032.1721</v>
+        <v>943959207990.19861</v>
       </c>
       <c r="G11">
-        <v>3.532470654276177</v>
+        <v>3.512044329846391</v>
       </c>
       <c r="H11">
-        <v>0.1906379737693871</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>0.21667450359000409</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2035</v>
       </c>
@@ -667,51 +705,51 @@
         <v>18794239735.57489</v>
       </c>
       <c r="C12">
-        <v>949962628032.1721</v>
+        <v>943959207990.19897</v>
       </c>
       <c r="D12">
-        <v>76804055532.77574</v>
+        <v>76316150660.862854</v>
       </c>
       <c r="E12">
-        <v>4147082204.282383</v>
+        <v>4660284175.49967</v>
       </c>
       <c r="F12">
-        <v>1022619601360.666</v>
+        <v>1015615074475.562</v>
       </c>
       <c r="G12">
-        <v>4.086574217066962</v>
+        <v>4.0606138760913524</v>
       </c>
       <c r="H12">
-        <v>0.2206570876305537</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>0.24796343140597499</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2036</v>
       </c>
       <c r="B13">
-        <v>17327577989.73607</v>
+        <v>17327577989.736069</v>
       </c>
       <c r="C13">
-        <v>1022619601360.666</v>
+        <v>1015615074475.562</v>
       </c>
       <c r="D13">
-        <v>82227482280.71953</v>
+        <v>81663340477.189377</v>
       </c>
       <c r="E13">
-        <v>4419688542.015101</v>
+        <v>4886995701.3511839</v>
       </c>
       <c r="F13">
-        <v>1100427395099.37</v>
+        <v>1092391419251.4</v>
       </c>
       <c r="G13">
-        <v>4.745468889502426</v>
+        <v>4.7129114366452347</v>
       </c>
       <c r="H13">
-        <v>0.2550667233835616</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>0.28203570656245081</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2037</v>
       </c>
@@ -719,51 +757,51 @@
         <v>15909585568.39607</v>
       </c>
       <c r="C14">
-        <v>1100427395099.37</v>
+        <v>1092391419251.4</v>
       </c>
       <c r="D14">
-        <v>88060050493.15488</v>
+        <v>87415729970.233856</v>
       </c>
       <c r="E14">
-        <v>4689182514.395749</v>
+        <v>5151138209.7015276</v>
       </c>
       <c r="F14">
-        <v>1183798263078.129</v>
+        <v>1174656011011.9319</v>
       </c>
       <c r="G14">
-        <v>5.535031073850448</v>
+        <v>5.494532185922095</v>
       </c>
       <c r="H14">
-        <v>0.2947394508949796</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>0.32377576320618401</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2038</v>
       </c>
       <c r="B15">
-        <v>14578731504.90677</v>
+        <v>14578731504.906771</v>
       </c>
       <c r="C15">
-        <v>1183798263078.129</v>
+        <v>1174656011011.9319</v>
       </c>
       <c r="D15">
-        <v>94339841643.58488</v>
+        <v>93611083926.279205</v>
       </c>
       <c r="E15">
-        <v>4956632572.860353</v>
+        <v>5372785566.9473</v>
       </c>
       <c r="F15">
-        <v>1273181472148.854</v>
+        <v>1262894309371.2639</v>
       </c>
       <c r="G15">
-        <v>6.471059681141179</v>
+        <v>6.4210719495569597</v>
       </c>
       <c r="H15">
-        <v>0.3399906618207555</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>0.36853587468422599</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2039</v>
       </c>
@@ -771,51 +809,51 @@
         <v>13315317821.48395</v>
       </c>
       <c r="C16">
-        <v>1273181472148.854</v>
+        <v>1262894309371.2639</v>
       </c>
       <c r="D16">
-        <v>101100296037.0512</v>
+        <v>100285758544.61349</v>
       </c>
       <c r="E16">
-        <v>5183637030.505476</v>
+        <v>5511205136.1184483</v>
       </c>
       <c r="F16">
-        <v>1369098131155.399</v>
+        <v>1357668862779.76</v>
       </c>
       <c r="G16">
-        <v>7.592781290877507</v>
+        <v>7.5316083242718239</v>
       </c>
       <c r="H16">
-        <v>0.3892987835515123</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>0.41389963123720919</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2040</v>
       </c>
       <c r="B17">
-        <v>12106887692.31054</v>
+        <v>12106887692.310539</v>
       </c>
       <c r="C17">
-        <v>1369098131155.399</v>
+        <v>1357668862779.76</v>
       </c>
       <c r="D17">
-        <v>108373947245.5264</v>
+        <v>107474244461.6701</v>
       </c>
       <c r="E17">
-        <v>5527713929.976454</v>
+        <v>5756508675.2344036</v>
       </c>
       <c r="F17">
-        <v>1471944364470.949</v>
+        <v>1459386598566.1951</v>
       </c>
       <c r="G17">
-        <v>8.951429136850594</v>
+        <v>8.8771158362962499</v>
       </c>
       <c r="H17">
-        <v>0.4565759648937088</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>0.47547386426079918</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2041</v>
       </c>
@@ -823,207 +861,207 @@
         <v>10907495599.96525</v>
       </c>
       <c r="C18">
-        <v>1471944364470.949</v>
+        <v>1459386598566.1951</v>
       </c>
       <c r="D18">
-        <v>116193513804.62</v>
+        <v>115206531942.4124</v>
       </c>
       <c r="E18">
-        <v>5757739396.794313</v>
+        <v>5969316361.4656801</v>
       </c>
       <c r="F18">
-        <v>1582380138878.775</v>
+        <v>1568623814147.1421</v>
       </c>
       <c r="G18">
-        <v>10.65262990387914</v>
+        <v>10.56214333405547</v>
       </c>
       <c r="H18">
-        <v>0.5278699719862967</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>0.54726736369113871</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2042</v>
       </c>
       <c r="B19">
-        <v>9831014878.063906</v>
+        <v>9831014878.0639057</v>
       </c>
       <c r="C19">
-        <v>1582380138878.775</v>
+        <v>1568623814147.1421</v>
       </c>
       <c r="D19">
-        <v>124625705582.6505</v>
+        <v>123544930416.80161</v>
       </c>
       <c r="E19">
-        <v>5948128924.291286</v>
+        <v>6169423594.3435211</v>
       </c>
       <c r="F19">
-        <v>1701057715537.134</v>
+        <v>1685999320969.6001</v>
       </c>
       <c r="G19">
-        <v>12.67678943917883</v>
+        <v>12.56685418028095</v>
       </c>
       <c r="H19">
-        <v>0.605037119571799</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>0.62754696955137867</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2043</v>
       </c>
       <c r="B20">
-        <v>8827837216.45491</v>
+        <v>8827837216.4549103</v>
       </c>
       <c r="C20">
-        <v>1701057715537.134</v>
+        <v>1685999320969.6001</v>
       </c>
       <c r="D20">
-        <v>133709995342.9146</v>
+        <v>132530413133.6794</v>
       </c>
       <c r="E20">
-        <v>6170291763.964795</v>
+        <v>6322971745.7414541</v>
       </c>
       <c r="F20">
-        <v>1828597419116.084</v>
+        <v>1812206762357.5381</v>
       </c>
       <c r="G20">
-        <v>15.1464047268205</v>
+        <v>15.01278397914332</v>
       </c>
       <c r="H20">
-        <v>0.6989584892280859</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>0.7162537766278203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2044</v>
       </c>
       <c r="B21">
-        <v>7889154079.136356</v>
+        <v>7889154079.1363564</v>
       </c>
       <c r="C21">
-        <v>1828597419116.084</v>
+        <v>1812206762357.5381</v>
       </c>
       <c r="D21">
-        <v>143491071241.3681</v>
+        <v>142209128226.78879</v>
       </c>
       <c r="E21">
-        <v>6503247496.037792</v>
+        <v>6618115390.8981094</v>
       </c>
       <c r="F21">
-        <v>1965585242861.414</v>
+        <v>1947797775193.429</v>
       </c>
       <c r="G21">
-        <v>18.1883976155117</v>
+        <v>18.025903259118088</v>
       </c>
       <c r="H21">
-        <v>0.8243276060783589</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>0.83888783569335601</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2045</v>
       </c>
       <c r="B22">
-        <v>6926531520.527295</v>
+        <v>6926531520.5272951</v>
       </c>
       <c r="C22">
-        <v>1965585242861.414</v>
+        <v>1947797775193.429</v>
       </c>
       <c r="D22">
-        <v>154005487385.8299</v>
+        <v>152618037398.30969</v>
       </c>
       <c r="E22">
-        <v>6807340310.317605</v>
+        <v>6836051069.8952122</v>
       </c>
       <c r="F22">
-        <v>2112783389936.926</v>
+        <v>2093579761521.843</v>
       </c>
       <c r="G22">
-        <v>22.23414228743825</v>
+        <v>22.03383279871241</v>
       </c>
       <c r="H22">
-        <v>0.9827920785668183</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>0.98693711991868693</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2046</v>
       </c>
       <c r="B23">
-        <v>6059926518.496066</v>
+        <v>6059926518.4960661</v>
       </c>
       <c r="C23">
-        <v>2112783389936.926</v>
+        <v>2093579761521.843</v>
       </c>
       <c r="D23">
-        <v>165333635953.3872</v>
+        <v>163839939342.56561</v>
       </c>
       <c r="E23">
-        <v>7054227466.1061</v>
+        <v>6977030493.4214621</v>
       </c>
       <c r="F23">
-        <v>2271062798424.208</v>
+        <v>2250442670370.9868</v>
       </c>
       <c r="G23">
-        <v>27.28310903585333</v>
+        <v>27.03662145778409</v>
       </c>
       <c r="H23">
-        <v>1.16407805351686</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>1.1513391246785281</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2047</v>
       </c>
       <c r="B24">
-        <v>5223075618.735994</v>
+        <v>5223075618.7359943</v>
       </c>
       <c r="C24">
-        <v>2271062798424.208</v>
+        <v>2250442670370.9868</v>
       </c>
       <c r="D24">
-        <v>177530903635.3451</v>
+        <v>175930541765.16571</v>
       </c>
       <c r="E24">
-        <v>7258596931.979835</v>
+        <v>7085595769.2635231</v>
       </c>
       <c r="F24">
-        <v>2441335105127.573</v>
+        <v>2419287616366.8892</v>
       </c>
       <c r="G24">
-        <v>33.98972494262074</v>
+        <v>33.683322740738262</v>
       </c>
       <c r="H24">
-        <v>1.389716990874516</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>1.3565945214054289</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2048</v>
       </c>
       <c r="B25">
-        <v>4439718861.207808</v>
+        <v>4439718861.2078075</v>
       </c>
       <c r="C25">
-        <v>2441335105127.573</v>
+        <v>2419287616366.8892</v>
       </c>
       <c r="D25">
-        <v>190672402838.1364</v>
+        <v>188965274800.0621</v>
       </c>
       <c r="E25">
-        <v>7437881640.414054</v>
+        <v>7149929742.7827463</v>
       </c>
       <c r="F25">
-        <v>2624569626325.295</v>
+        <v>2601102961424.168</v>
       </c>
       <c r="G25">
-        <v>42.94695425517659</v>
+        <v>42.562441611146284</v>
       </c>
       <c r="H25">
-        <v>1.675304647193496</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>1.610446509407498</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2049</v>
       </c>
@@ -1031,51 +1069,51 @@
         <v>3732295527.639019</v>
       </c>
       <c r="C26">
-        <v>2624569626325.295</v>
+        <v>2601102961424.168</v>
       </c>
       <c r="D26">
-        <v>204841598390.7104</v>
+        <v>203024272090.84689</v>
       </c>
       <c r="E26">
-        <v>7464824201.764392</v>
+        <v>7166387603.3479795</v>
       </c>
       <c r="F26">
-        <v>2821946400514.241</v>
+        <v>2796960845911.667</v>
       </c>
       <c r="G26">
-        <v>54.88354201155376</v>
+        <v>54.396622825651818</v>
       </c>
       <c r="H26">
-        <v>2.000062467316595</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>1.920101864999233</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2050</v>
       </c>
       <c r="B27">
-        <v>3124911512.42115</v>
+        <v>3124911512.4211502</v>
       </c>
       <c r="C27">
-        <v>2821946400514.241</v>
+        <v>2796960845911.667</v>
       </c>
       <c r="D27">
-        <v>220127408100.8791</v>
+        <v>218193038934.5325</v>
       </c>
       <c r="E27">
-        <v>7521252496.584399</v>
+        <v>7188555177.500392</v>
       </c>
       <c r="F27">
-        <v>3034552556118.536</v>
+        <v>3007965329668.6992</v>
       </c>
       <c r="G27">
-        <v>70.44276525139959</v>
+        <v>69.823749590105606</v>
       </c>
       <c r="H27">
-        <v>2.406868951868979</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>2.300402795063714</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2051</v>
       </c>
@@ -1083,207 +1121,207 @@
         <v>2579145800.100471</v>
       </c>
       <c r="C28">
-        <v>3034552556118.536</v>
+        <v>3007965329668.6992</v>
       </c>
       <c r="D28">
-        <v>236612379210.8285</v>
+        <v>234557896565.16559</v>
       </c>
       <c r="E28">
-        <v>7510033966.684999</v>
+        <v>7056312260.3061848</v>
       </c>
       <c r="F28">
-        <v>3263654901362.679</v>
+        <v>3235466913973.5591</v>
       </c>
       <c r="G28">
-        <v>91.74059845767974</v>
+        <v>90.94402362054457</v>
       </c>
       <c r="H28">
-        <v>2.911829942453211</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>2.7359105716440322</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2052</v>
       </c>
       <c r="B29">
-        <v>2120556596.515243</v>
+        <v>2120556596.5152431</v>
       </c>
       <c r="C29">
-        <v>3263654901362.679</v>
+        <v>3235466913973.5591</v>
       </c>
       <c r="D29">
-        <v>254398593562.2359</v>
+        <v>252222169886.40701</v>
       </c>
       <c r="E29">
-        <v>7447414775.413083</v>
+        <v>6921390521.0115147</v>
       </c>
       <c r="F29">
-        <v>3510606080149.502</v>
+        <v>3480767693338.9541</v>
       </c>
       <c r="G29">
-        <v>119.9678395664113</v>
+        <v>118.94149408739629</v>
       </c>
       <c r="H29">
-        <v>3.512009435471604</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>3.2639499140865129</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2053</v>
       </c>
       <c r="B30">
-        <v>1688056155.025623</v>
+        <v>1688056155.0256231</v>
       </c>
       <c r="C30">
-        <v>3510606080149.502</v>
+        <v>3480767693338.9541</v>
       </c>
       <c r="D30">
-        <v>273583882032.2896</v>
+        <v>271279260284.0372</v>
       </c>
       <c r="E30">
-        <v>7283831212.718956</v>
+        <v>6746796610.5311499</v>
       </c>
       <c r="F30">
-        <v>3776906130969.073</v>
+        <v>3745300157012.46</v>
       </c>
       <c r="G30">
-        <v>162.0703678712257</v>
+        <v>160.70511604509949</v>
       </c>
       <c r="H30">
-        <v>4.314922338948135</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>3.996784461491294</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2054</v>
       </c>
       <c r="B31">
-        <v>1358561363.397808</v>
+        <v>1358561363.3978081</v>
       </c>
       <c r="C31">
-        <v>3776906130969.073</v>
+        <v>3745300157012.46</v>
       </c>
       <c r="D31">
-        <v>294294394642.3689</v>
+        <v>291851608435.4856</v>
       </c>
       <c r="E31">
-        <v>7089701029.980499</v>
+        <v>6563039251.3006573</v>
       </c>
       <c r="F31">
-        <v>4064110824581.461</v>
+        <v>4030588726196.645</v>
       </c>
       <c r="G31">
-        <v>216.622084633946</v>
+        <v>214.82401627082561</v>
       </c>
       <c r="H31">
-        <v>5.218535740077959</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>4.8308743558599927</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2055</v>
       </c>
       <c r="B32">
-        <v>1072746871.397232</v>
+        <v>1072746871.3972321</v>
       </c>
       <c r="C32">
-        <v>4064110824581.461</v>
+        <v>4030588726196.645</v>
       </c>
       <c r="D32">
-        <v>316642220901.7303</v>
+        <v>314050124298.68298</v>
       </c>
       <c r="E32">
-        <v>6862843850.01165</v>
+        <v>6335509932.5540228</v>
       </c>
       <c r="F32">
-        <v>4373890201633.18</v>
+        <v>4338303340562.7729</v>
       </c>
       <c r="G32">
-        <v>295.1695589559818</v>
+        <v>292.75324186183713</v>
       </c>
       <c r="H32">
-        <v>6.397449419799218</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>5.9058759353939134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2056</v>
       </c>
       <c r="B33">
-        <v>820421787.6536671</v>
+        <v>820421787.65366709</v>
       </c>
       <c r="C33">
-        <v>4373890201633.18</v>
+        <v>4338303340562.7729</v>
       </c>
       <c r="D33">
-        <v>340756723280.3546</v>
+        <v>338003664703.14362</v>
       </c>
       <c r="E33">
-        <v>6582888162.088424</v>
+        <v>6056609499.3432293</v>
       </c>
       <c r="F33">
-        <v>4708064036751.445</v>
+        <v>4670250395766.5742</v>
       </c>
       <c r="G33">
-        <v>415.3433373032282</v>
+        <v>411.98767486393052</v>
       </c>
       <c r="H33">
-        <v>8.023785156797084</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>7.3823118674902464</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2057</v>
       </c>
       <c r="B34">
-        <v>653063538.6713274</v>
+        <v>653063538.67132735</v>
       </c>
       <c r="C34">
-        <v>4708064036751.445</v>
+        <v>4670250395766.5742</v>
       </c>
       <c r="D34">
-        <v>366786645237.4137</v>
+        <v>363859014717.31427</v>
       </c>
       <c r="E34">
-        <v>6278170646.329047</v>
+        <v>5778176608.678957</v>
       </c>
       <c r="F34">
-        <v>5068572511342.53</v>
+        <v>5028331233875.21</v>
       </c>
       <c r="G34">
-        <v>561.6400602974245</v>
+        <v>557.15714194914892</v>
       </c>
       <c r="H34">
-        <v>9.61341473618651</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>8.8478015790542965</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2058</v>
       </c>
       <c r="B35">
-        <v>508889579.3447911</v>
+        <v>508889579.34479111</v>
       </c>
       <c r="C35">
-        <v>5068572511342.53</v>
+        <v>5028331233875.21</v>
       </c>
       <c r="D35">
-        <v>394872984848.3019</v>
+        <v>391755625675.87549</v>
       </c>
       <c r="E35">
-        <v>5963675207.991238</v>
+        <v>5477206976.1166945</v>
       </c>
       <c r="F35">
-        <v>5457481820982.841</v>
+        <v>5414609652574.9697</v>
       </c>
       <c r="G35">
-        <v>775.9502274672462</v>
+        <v>769.82442081103591</v>
       </c>
       <c r="H35">
-        <v>11.71899651722016</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>10.763055873867071</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2059</v>
       </c>
@@ -1291,51 +1329,51 @@
         <v>388550947.6592111</v>
       </c>
       <c r="C36">
-        <v>5457481820982.841</v>
+        <v>5414609652574.9697</v>
       </c>
       <c r="D36">
-        <v>425176345700.1426</v>
+        <v>421853365521.7182</v>
       </c>
       <c r="E36">
-        <v>5652960780.310668</v>
+        <v>5181344698.0695868</v>
       </c>
       <c r="F36">
-        <v>5877005205902.673</v>
+        <v>5831281673398.6182</v>
       </c>
       <c r="G36">
-        <v>1094.261507433138</v>
+        <v>1085.7092694359239</v>
       </c>
       <c r="H36">
-        <v>14.54882767463676</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>13.335045839636001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2060</v>
       </c>
       <c r="B37">
-        <v>290304349.2804661</v>
+        <v>290304349.28046608</v>
       </c>
       <c r="C37">
-        <v>5877005205902.673</v>
+        <v>5831281673398.6182</v>
       </c>
       <c r="D37">
-        <v>457869765162.8658</v>
+        <v>454323930183.76123</v>
       </c>
       <c r="E37">
-        <v>5325049391.290974</v>
+        <v>4869597542.1292934</v>
       </c>
       <c r="F37">
-        <v>6329549921674.248</v>
+        <v>6280736006040.25</v>
       </c>
       <c r="G37">
-        <v>1577.206012578589</v>
+        <v>1564.991813969807</v>
       </c>
       <c r="H37">
-        <v>18.34298867546896</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>16.774111563257101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2061</v>
       </c>
@@ -1343,51 +1381,51 @@
         <v>209419721.3295927</v>
       </c>
       <c r="C38">
-        <v>6329549921674.248</v>
+        <v>6280736006040.25</v>
       </c>
       <c r="D38">
-        <v>493139444093.6906</v>
+        <v>489351901252.13287</v>
       </c>
       <c r="E38">
-        <v>4997212414.232107</v>
+        <v>4563702361.0444965</v>
       </c>
       <c r="F38">
-        <v>6817692153353.706</v>
+        <v>6765524204931.3379</v>
       </c>
       <c r="G38">
-        <v>2354.789897354361</v>
+        <v>2336.7040035449781</v>
       </c>
       <c r="H38">
-        <v>23.86218634283876</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>21.792132718302909</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2062</v>
       </c>
       <c r="B39">
-        <v>149273231.3127118</v>
+        <v>149273231.31271181</v>
       </c>
       <c r="C39">
-        <v>6817692153353.706</v>
+        <v>6765524204931.3379</v>
       </c>
       <c r="D39">
-        <v>531186347602.708</v>
+        <v>527136598167.39758</v>
       </c>
       <c r="E39">
-        <v>4678168789.067038</v>
+        <v>4265344549.6833162</v>
       </c>
       <c r="F39">
-        <v>7344200332167.347</v>
+        <v>7288395458549.0518</v>
       </c>
       <c r="G39">
-        <v>3558.48361378289</v>
+        <v>3531.3538370660808</v>
       </c>
       <c r="H39">
-        <v>31.33963636967678</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>28.574075285794979</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2063</v>
       </c>
@@ -1395,155 +1433,155 @@
         <v>103494616.8704709</v>
       </c>
       <c r="C40">
-        <v>7344200332167.347</v>
+        <v>7288395458549.0518</v>
       </c>
       <c r="D40">
-        <v>572225277139.7828</v>
+        <v>567891406022.64465</v>
       </c>
       <c r="E40">
-        <v>4367043045.493957</v>
+        <v>3971514126.113616</v>
       </c>
       <c r="F40">
-        <v>7912058566261.636</v>
+        <v>7852315350445.583</v>
       </c>
       <c r="G40">
-        <v>5529.034209150742</v>
+        <v>5487.158880286418</v>
       </c>
       <c r="H40">
-        <v>42.1958472580226</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>38.374113033184933</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2064</v>
       </c>
       <c r="B41">
-        <v>64309996.19389852</v>
+        <v>64309996.193898521</v>
       </c>
       <c r="C41">
-        <v>7912058566261.636</v>
+        <v>7852315350445.583</v>
       </c>
       <c r="D41">
-        <v>616487839202.6716</v>
+        <v>611845910954.61792</v>
       </c>
       <c r="E41">
-        <v>4057460653.704781</v>
+        <v>3690634935.294251</v>
       </c>
       <c r="F41">
-        <v>8524488944810.603</v>
+        <v>8460470626464.9072</v>
       </c>
       <c r="G41">
-        <v>9586.189950065051</v>
+        <v>9514.0094412362505</v>
       </c>
       <c r="H41">
-        <v>63.09222350863296</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>57.388200182235501</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2065</v>
       </c>
       <c r="B42">
-        <v>40829713.92717928</v>
+        <v>40829713.927179277</v>
       </c>
       <c r="C42">
-        <v>8524488944810.603</v>
+        <v>8460470626464.9072</v>
       </c>
       <c r="D42">
-        <v>664226359652.0381</v>
+        <v>659250297616.29346</v>
       </c>
       <c r="E42">
-        <v>3754834190.152377</v>
+        <v>3412381524.823895</v>
       </c>
       <c r="F42">
-        <v>9184960470272.488</v>
+        <v>9116308542556.377</v>
       </c>
       <c r="G42">
-        <v>16268.20998150271</v>
+        <v>16146.33643507964</v>
       </c>
       <c r="H42">
-        <v>91.96327451250843</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>83.575935185584569</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2066</v>
       </c>
       <c r="B43">
-        <v>26826115.37671368</v>
+        <v>26826115.376713678</v>
       </c>
       <c r="C43">
-        <v>9184960470272.488</v>
+        <v>9116308542556.377</v>
       </c>
       <c r="D43">
-        <v>715709756445.9191</v>
+        <v>710371868389.07813</v>
       </c>
       <c r="E43">
-        <v>3471275176.043915</v>
+        <v>3146832026.9015369</v>
       </c>
       <c r="F43">
-        <v>9897198951542.365</v>
+        <v>9823533578918.5527</v>
       </c>
       <c r="G43">
-        <v>26679.58988453425</v>
+        <v>26480.608854971</v>
       </c>
       <c r="H43">
-        <v>129.3990996198109</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>117.3047973108001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2067</v>
       </c>
       <c r="B44">
-        <v>12370435.20262709</v>
+        <v>12370435.202627091</v>
       </c>
       <c r="C44">
-        <v>9897198951542.365</v>
+        <v>9823533578918.5527</v>
       </c>
       <c r="D44">
-        <v>771227182473.2985</v>
+        <v>765497754274.96899</v>
       </c>
       <c r="E44">
-        <v>3198437028.349437</v>
+        <v>2894868684.6129098</v>
       </c>
       <c r="F44">
-        <v>10665227696987.31</v>
+        <v>10586136464508.91</v>
       </c>
       <c r="G44">
-        <v>62344.38561300688</v>
+        <v>61881.230671043908</v>
       </c>
       <c r="H44">
-        <v>258.5549316543195</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>234.01510433506249</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2068</v>
       </c>
       <c r="B45">
-        <v>3463963.603189208</v>
+        <v>3463963.6031892081</v>
       </c>
       <c r="C45">
-        <v>10665227696987.31</v>
+        <v>10586136464508.91</v>
       </c>
       <c r="D45">
-        <v>831093159499.7456</v>
+        <v>824940023466.99524</v>
       </c>
       <c r="E45">
-        <v>2935665194.930597</v>
+        <v>2653642113.432394</v>
       </c>
       <c r="F45">
-        <v>11493385191292.13</v>
+        <v>11408422845862.471</v>
       </c>
       <c r="G45">
-        <v>239925.4884591089</v>
+        <v>238149.16031666391</v>
       </c>
       <c r="H45">
-        <v>847.4873096899125</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>766.07101500409362</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2069</v>
       </c>
@@ -1551,51 +1589,51 @@
         <v>392308.054137878</v>
       </c>
       <c r="C46">
-        <v>11493385191292.13</v>
+        <v>11408422845862.471</v>
       </c>
       <c r="D46">
-        <v>895645793122.1868</v>
+        <v>889034208091.3479</v>
       </c>
       <c r="E46">
-        <v>2684591375.420422</v>
+        <v>2425148306.8957319</v>
       </c>
       <c r="F46">
-        <v>12386346393038.9</v>
+        <v>12295031905646.92</v>
       </c>
       <c r="G46">
-        <v>2283016.582696538</v>
+        <v>2266163.5383577771</v>
       </c>
       <c r="H46">
-        <v>6843.069743546262</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>6181.7448847058486</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2070</v>
       </c>
       <c r="B47">
-        <v>32330.76448723478</v>
+        <v>32330.764487234781</v>
       </c>
       <c r="C47">
-        <v>12386346393038.9</v>
+        <v>12295031905646.92</v>
       </c>
       <c r="D47">
-        <v>965248851162.6743</v>
+        <v>958141360326.58191</v>
       </c>
       <c r="E47">
-        <v>2447618993.998823</v>
+        <v>2209927531.071094</v>
       </c>
       <c r="F47">
-        <v>13349147625207.57</v>
+        <v>13250963338442.439</v>
       </c>
       <c r="G47">
-        <v>29855429.23192507</v>
+        <v>29635592.461937811</v>
       </c>
       <c r="H47">
-        <v>75705.57123588033</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>68353.704779967185</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2071</v>
       </c>
@@ -1603,77 +1641,77 @@
         <v>2659.720071365643</v>
       </c>
       <c r="C48">
-        <v>13349147625207.57</v>
+        <v>13250963338442.439</v>
       </c>
       <c r="D48">
-        <v>1040294482399.34</v>
+        <v>1032650777839.588</v>
       </c>
       <c r="E48">
-        <v>2224534484.969565</v>
+        <v>2007674064.754843</v>
       </c>
       <c r="F48">
-        <v>14387217573121.95</v>
+        <v>14281606442217.27</v>
       </c>
       <c r="G48">
-        <v>391129312.2908221</v>
+        <v>388255436.71194309</v>
       </c>
       <c r="H48">
-        <v>836379.1772370124</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>754844.12302231323</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2072</v>
       </c>
       <c r="B49">
-        <v>218.4137746459141</v>
+        <v>218.41377464591409</v>
       </c>
       <c r="C49">
-        <v>14387217573121.95</v>
+        <v>14281606442217.27</v>
       </c>
       <c r="D49">
-        <v>1121205751153.033</v>
+        <v>1112982454173.6609</v>
       </c>
       <c r="E49">
-        <v>2014805608.054379</v>
+        <v>1817882273.983737</v>
       </c>
       <c r="F49">
-        <v>15506408518666.92</v>
+        <v>15392771014116.949</v>
       </c>
       <c r="G49">
-        <v>5133402199.429494</v>
+        <v>5095752115.3507586</v>
       </c>
       <c r="H49">
-        <v>9224718.593507765</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>8323111.8409579862</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2073</v>
       </c>
       <c r="B50">
-        <v>17.90271542696379</v>
+        <v>17.902715426963791</v>
       </c>
       <c r="C50">
-        <v>15506408518666.92</v>
+        <v>15392771014116.949</v>
       </c>
       <c r="D50">
-        <v>1208438777253.295</v>
+        <v>1199589197526.8701</v>
       </c>
       <c r="E50">
-        <v>1817934734.899421</v>
+        <v>1640066742.4599991</v>
       </c>
       <c r="F50">
-        <v>16713029361185.32</v>
+        <v>16590720144901.35</v>
       </c>
       <c r="G50">
-        <v>67500306430.23185</v>
+        <v>67005991488.874046</v>
       </c>
       <c r="H50">
-        <v>101545195.3261446</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>91609943.148057178</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2074</v>
       </c>
@@ -1681,25 +1719,25 @@
         <v>1.464621129609309</v>
       </c>
       <c r="C51">
-        <v>16713029361185.32</v>
+        <v>16590720144901.35</v>
       </c>
       <c r="D51">
-        <v>1302485266834.376</v>
+        <v>1292959144237.4109</v>
       </c>
       <c r="E51">
-        <v>1633535070.255335</v>
+        <v>1473829761.624651</v>
       </c>
       <c r="F51">
-        <v>18013881092949.44</v>
+        <v>17882205459377.141</v>
       </c>
       <c r="G51">
-        <v>889298427083.1982</v>
+        <v>882794272251.35693</v>
       </c>
       <c r="H51">
-        <v>1115329444.066592</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>1006287381.650569</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2075</v>
       </c>
@@ -1707,233 +1745,233 @@
         <v>0.1195837350194721</v>
       </c>
       <c r="C52">
-        <v>18013881092949.44</v>
+        <v>17882205459377.141</v>
       </c>
       <c r="D52">
-        <v>1403875274100.72</v>
+        <v>1393618502631.0759</v>
       </c>
       <c r="E52">
-        <v>1461324279.028243</v>
+        <v>1318844727.4799631</v>
       </c>
       <c r="F52">
-        <v>19416295042771.13</v>
+        <v>19274505117280.738</v>
       </c>
       <c r="G52">
-        <v>11739684112326.18</v>
+        <v>11653913489189.4</v>
       </c>
       <c r="H52">
-        <v>12220092295.91543</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>11028629664.93907</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2076</v>
       </c>
       <c r="B53">
-        <v>0.009742634484294433</v>
+        <v>9.7426344842944327E-3</v>
       </c>
       <c r="C53">
-        <v>19416295042771.13</v>
+        <v>19274505117280.738</v>
       </c>
       <c r="D53">
-        <v>1513180186808.392</v>
+        <v>1502134517491.865</v>
       </c>
       <c r="E53">
-        <v>1300990164.77411</v>
+        <v>1174775700.772567</v>
       </c>
       <c r="F53">
-        <v>20928174239414.75</v>
+        <v>20775464859071.828</v>
       </c>
       <c r="G53">
-        <v>155315298880165</v>
+        <v>154181553245518.31</v>
       </c>
       <c r="H53">
-        <v>133535766621.5812</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>120580906803.6329</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2077</v>
       </c>
       <c r="B54">
-        <v>0.0007919124177843634</v>
+        <v>7.919124177843634E-4</v>
       </c>
       <c r="C54">
-        <v>20928174239414.75</v>
+        <v>20775464859071.828</v>
       </c>
       <c r="D54">
-        <v>1631015949105.68</v>
+        <v>1619118669089.697</v>
       </c>
       <c r="E54">
-        <v>1152211679.947271</v>
+        <v>1041274427.1524791</v>
       </c>
       <c r="F54">
-        <v>22558037976840.48</v>
+        <v>22393542253734.371</v>
       </c>
       <c r="G54">
-        <v>2059591329138373</v>
+        <v>2044567849585837</v>
       </c>
       <c r="H54">
-        <v>1454973623435.485</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>1314885843141.3259</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2078</v>
       </c>
       <c r="B55">
-        <v>6.421574696975852E-05</v>
+        <v>6.4215746969758516E-5</v>
       </c>
       <c r="C55">
-        <v>22558037976840.48</v>
+        <v>22393542253734.371</v>
       </c>
       <c r="D55">
-        <v>1758046533224.16</v>
+        <v>1745230120283.1631</v>
       </c>
       <c r="E55">
-        <v>1014698438.16271</v>
+        <v>918016081.80983293</v>
       </c>
       <c r="F55">
-        <v>24315069811626.48</v>
+        <v>24137854357935.73</v>
       </c>
       <c r="G55">
-        <v>2.737718731282666E+16</v>
+        <v>2.7177603666357E+16</v>
       </c>
       <c r="H55">
-        <v>15801395857632.36</v>
-      </c>
-    </row>
-    <row r="56">
+        <v>14295809441291.08</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2079</v>
       </c>
       <c r="B56">
-        <v>5.194710452630794E-06</v>
+        <v>5.1947104526307937E-6</v>
       </c>
       <c r="C56">
-        <v>24315069811626.48</v>
+        <v>24137854357935.73</v>
       </c>
       <c r="D56">
-        <v>1894987678924.292</v>
+        <v>1881179429718.3569</v>
       </c>
       <c r="E56">
-        <v>888223387.8813424</v>
+        <v>804729103.93273401</v>
       </c>
       <c r="F56">
-        <v>26209169267162.89</v>
+        <v>26018229058550.148</v>
       </c>
       <c r="G56">
-        <v>3.647917812174884E+17</v>
+        <v>3.6213364476660262E+17</v>
       </c>
       <c r="H56">
-        <v>170986120589553.4</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>154913177793228</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2080</v>
       </c>
       <c r="B57">
-        <v>4.192020630722466E-07</v>
+        <v>4.1920206307224658E-7</v>
       </c>
       <c r="C57">
-        <v>26209169267162.89</v>
+        <v>26018229058550.148</v>
       </c>
       <c r="D57">
-        <v>2042610925373.547</v>
+        <v>2027732554825.7109</v>
       </c>
       <c r="E57">
-        <v>772564136.2201384</v>
+        <v>701154557.42878294</v>
       </c>
       <c r="F57">
-        <v>28251007628400.21</v>
+        <v>28045260458818.43</v>
       </c>
       <c r="G57">
-        <v>4.872616585910068E+18</v>
+        <v>4.8371244644286136E+18</v>
       </c>
       <c r="H57">
-        <v>1842939728297550</v>
-      </c>
-    </row>
-    <row r="58">
+        <v>1672593288998065</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2081</v>
       </c>
       <c r="B58">
-        <v>3.374242461919535E-08</v>
+        <v>3.3742424619195353E-8</v>
       </c>
       <c r="C58">
-        <v>28251007628400.21</v>
+        <v>28045260458818.43</v>
       </c>
       <c r="D58">
-        <v>2201747962129.05</v>
+        <v>2185715170520.708</v>
       </c>
       <c r="E58">
-        <v>667436689.8718346</v>
+        <v>606991330.47457612</v>
       </c>
       <c r="F58">
-        <v>30452088153839.39</v>
+        <v>30230368638008.66</v>
       </c>
       <c r="G58">
-        <v>6.525162275613479E+19</v>
+        <v>6.4776470428189123E+19</v>
       </c>
       <c r="H58">
-        <v>1.978034173312324E+16</v>
-      </c>
-    </row>
-    <row r="59">
+        <v>1.798896603681739E+16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2082</v>
       </c>
       <c r="B59">
-        <v>2.708120731082727E-09</v>
+        <v>2.708120731082727E-9</v>
       </c>
       <c r="C59">
-        <v>30452088153839.39</v>
+        <v>30230368638008.66</v>
       </c>
       <c r="D59">
-        <v>2373295321437.803</v>
+        <v>2356017326622.9458</v>
       </c>
       <c r="E59">
-        <v>572505438.1027191</v>
+        <v>521896680.22708827</v>
       </c>
       <c r="F59">
-        <v>32824810969839.09</v>
+        <v>32585864067951.379</v>
       </c>
       <c r="G59">
-        <v>8.763624509786688E+20</v>
+        <v>8.6998238283157825E+20</v>
       </c>
       <c r="H59">
-        <v>2.114032183025412E+17</v>
-      </c>
-    </row>
-    <row r="60">
+        <v>1.9271544072498941E+17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2083</v>
       </c>
       <c r="B60">
-        <v>2.165902393529222E-10</v>
+        <v>2.1659023935292221E-10</v>
       </c>
       <c r="C60">
-        <v>32824810969839.09</v>
+        <v>32585864067951.379</v>
       </c>
       <c r="D60">
-        <v>2558219435521.62</v>
+        <v>2539598467546.9341</v>
       </c>
       <c r="E60">
-        <v>487391877.4612905</v>
+        <v>445504161.50598878</v>
       </c>
       <c r="F60">
-        <v>35382543013483.25</v>
+        <v>35125017031336.809</v>
       </c>
       <c r="G60">
-        <v>1.181133297218042E+22</v>
+        <v>1.172535971673587E+22</v>
       </c>
       <c r="H60">
-        <v>2.250294745125202E+18</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>2.056898606497514E+18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2084</v>
       </c>
@@ -1941,51 +1979,51 @@
         <v>1.725264823465909E-11</v>
       </c>
       <c r="C61">
-        <v>35382543013483.25</v>
+        <v>35125017031336.809</v>
       </c>
       <c r="D61">
-        <v>2757562087003.312</v>
+        <v>2737492842019.8188</v>
       </c>
       <c r="E61">
-        <v>411691733.538862</v>
+        <v>377436229.53003359</v>
       </c>
       <c r="F61">
-        <v>38139693408753.02</v>
+        <v>37862132437127.094</v>
       </c>
       <c r="G61">
-        <v>1.598341338382826E+23</v>
+        <v>1.586708779305215E+23</v>
       </c>
       <c r="H61">
-        <v>2.386252405655664E+19</v>
-      </c>
-    </row>
-    <row r="62">
+        <v>2.1877002556152312E+19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2085</v>
       </c>
       <c r="B62">
-        <v>1.369261529610239E-12</v>
+        <v>1.3692615296102391E-12</v>
       </c>
       <c r="C62">
-        <v>38139693408753.02</v>
+        <v>37862132437127.094</v>
       </c>
       <c r="D62">
-        <v>2972446284330.454</v>
+        <v>2950815334802.022</v>
       </c>
       <c r="E62">
-        <v>344952380.5457451</v>
+        <v>317281590.76877087</v>
       </c>
       <c r="F62">
-        <v>41111794740702.93</v>
+        <v>40812630490338.352</v>
       </c>
       <c r="G62">
-        <v>2.170838966882071E+24</v>
+        <v>2.1550414372935559E+24</v>
       </c>
       <c r="H62">
-        <v>2.519258542551298E+20</v>
-      </c>
-    </row>
-    <row r="63">
+        <v>2.3171730447950679E+20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2086</v>
       </c>
@@ -1993,155 +2031,155 @@
         <v>1.082428155933926E-13</v>
       </c>
       <c r="C63">
-        <v>41111794740702.93</v>
+        <v>40812630490338.352</v>
       </c>
       <c r="D63">
-        <v>3204082597442.267</v>
+        <v>3180767754870.7231</v>
       </c>
       <c r="E63">
-        <v>286635713.0752971</v>
+        <v>264567681.5129773</v>
       </c>
       <c r="F63">
-        <v>44315590702432.12</v>
+        <v>43993133677527.563</v>
       </c>
       <c r="G63">
-        <v>2.960088002032582E+25</v>
+        <v>2.9385486116871528E+25</v>
       </c>
       <c r="H63">
-        <v>2.648080720220974E+21</v>
-      </c>
-    </row>
-    <row r="64">
+        <v>2.444205465855668E+21</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2087</v>
       </c>
       <c r="B64">
-        <v>8.51967489382539E-15</v>
+        <v>8.5196748938253898E-15</v>
       </c>
       <c r="C64">
-        <v>44315590702432.12</v>
+        <v>43993133677527.563</v>
       </c>
       <c r="D64">
-        <v>3453775988057.153</v>
+        <v>3428645614424.9238</v>
       </c>
       <c r="E64">
-        <v>236133816.2483602</v>
+        <v>218769195.27967411</v>
       </c>
       <c r="F64">
-        <v>47769130556673.02</v>
+        <v>47421560522757.203</v>
       </c>
       <c r="G64">
-        <v>4.053882373563653E+26</v>
+        <v>4.0243855043222663E+26</v>
       </c>
       <c r="H64">
-        <v>2.771629424727199E+22</v>
-      </c>
-    </row>
-    <row r="65">
+        <v>2.5678115421778172E+22</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2088</v>
       </c>
       <c r="B65">
-        <v>6.673539278543467E-16</v>
+        <v>6.6735392785434672E-16</v>
       </c>
       <c r="C65">
-        <v>47769130556673.02</v>
+        <v>47421560522757.203</v>
       </c>
       <c r="D65">
-        <v>3722933170381.396</v>
+        <v>3695845434939.646</v>
       </c>
       <c r="E65">
-        <v>192802117.9393336</v>
+        <v>179332336.43370509</v>
       </c>
       <c r="F65">
-        <v>51491870924936.48</v>
+        <v>51117226625360.406</v>
       </c>
       <c r="G65">
-        <v>5.578648772400639E+27</v>
+        <v>5.5380590128875108E+27</v>
       </c>
       <c r="H65">
-        <v>2.889053467613869E+23</v>
-      </c>
-    </row>
-    <row r="66">
+        <v>2.6872148188336621E+23</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2089</v>
       </c>
       <c r="B66">
-        <v>5.199760649973211E-17</v>
+        <v>5.1997606499732113E-17</v>
       </c>
       <c r="C66">
-        <v>51491870924936.48</v>
+        <v>51117226625360.406</v>
       </c>
       <c r="D66">
-        <v>4013070543132.454</v>
+        <v>3983872620892.3179</v>
       </c>
       <c r="E66">
-        <v>155986376.4279514</v>
+        <v>145694891.12242949</v>
       </c>
       <c r="F66">
-        <v>55504785481692.51</v>
+        <v>55100953551361.609</v>
       </c>
       <c r="G66">
-        <v>7.717798593581665E+28</v>
+        <v>7.6616461584877801E+28</v>
       </c>
       <c r="H66">
-        <v>2.999876089080274E+24</v>
-      </c>
-    </row>
-    <row r="67">
+        <v>2.8019537999923162E+24</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2090</v>
       </c>
       <c r="B67">
-        <v>4.027819742224324E-18</v>
+        <v>4.0278197422243239E-18</v>
       </c>
       <c r="C67">
-        <v>55504785481692.51</v>
+        <v>55100953551361.609</v>
       </c>
       <c r="D67">
-        <v>4325822738660.304</v>
+        <v>4294349946354.9092</v>
       </c>
       <c r="E67">
-        <v>125023528.9778755</v>
+        <v>117286044.1636263</v>
       </c>
       <c r="F67">
-        <v>59830483196823.84</v>
+        <v>59395186211672.352</v>
       </c>
       <c r="G67">
-        <v>1.073986179995089E+30</v>
+        <v>1.066172326764404E+30</v>
       </c>
       <c r="H67">
-        <v>3.104000103759174E+25</v>
-      </c>
-    </row>
-    <row r="68">
+        <v>2.9118990339636272E+25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2091</v>
       </c>
       <c r="B68">
-        <v>3.099870451790628E-19</v>
+        <v>3.0998704517906281E-19</v>
       </c>
       <c r="C68">
-        <v>59830483196823.84</v>
+        <v>59395186211672.352</v>
       </c>
       <c r="D68">
-        <v>4662951838195.471</v>
+        <v>4629026702900.7793</v>
       </c>
       <c r="E68">
-        <v>99244715.77579598</v>
+        <v>93528898.994882122</v>
       </c>
       <c r="F68">
-        <v>64493335790303.53</v>
+        <v>64024119385674.141</v>
       </c>
       <c r="G68">
-        <v>1.504240874163607E+31</v>
+        <v>1.4932968247840289E+31</v>
       </c>
       <c r="H68">
-        <v>3.201576237434944E+26</v>
-      </c>
-    </row>
-    <row r="69">
+        <v>3.01718734538908E+26</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2092</v>
       </c>
@@ -2149,25 +2187,25 @@
         <v>2.368543639090791E-20</v>
       </c>
       <c r="C69">
-        <v>64493335790303.53</v>
+        <v>64024119385674.141</v>
       </c>
       <c r="D69">
-        <v>5026357304376.037</v>
+        <v>4989788559737.3359</v>
       </c>
       <c r="E69">
-        <v>77995562.81987879</v>
+        <v>73856344.187685028</v>
       </c>
       <c r="F69">
-        <v>69519615099116.75</v>
+        <v>69013834089067.289</v>
       </c>
       <c r="G69">
-        <v>2.122129911993303E+32</v>
+        <v>2.1066905744885321E+32</v>
       </c>
       <c r="H69">
-        <v>3.292975545505204E+27</v>
-      </c>
-    </row>
-    <row r="70">
+        <v>3.1182175818401278E+27</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2093</v>
       </c>
@@ -2175,51 +2213,51 @@
         <v>1.795219224065669E-21</v>
       </c>
       <c r="C70">
-        <v>69519615099116.75</v>
+        <v>69013834089067.289</v>
       </c>
       <c r="D70">
-        <v>5418086686225.73</v>
+        <v>5378668190960.3799</v>
       </c>
       <c r="E70">
-        <v>60658157.56403267</v>
+        <v>57729453.525315747</v>
       </c>
       <c r="F70">
-        <v>74937641127184.92</v>
+        <v>74392444550574.141</v>
       </c>
       <c r="G70">
-        <v>3.018064096904711E+33</v>
+        <v>2.9961066140876112E+33</v>
       </c>
       <c r="H70">
-        <v>3.378871880987265E+28</v>
-      </c>
-    </row>
-    <row r="71">
+        <v>3.215732805856138E+28</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2094</v>
       </c>
       <c r="B71">
-        <v>1.348524269168167E-22</v>
+        <v>1.3485242691681669E-22</v>
       </c>
       <c r="C71">
-        <v>74937641127184.92</v>
+        <v>74392444550574.141</v>
       </c>
       <c r="D71">
-        <v>5840347157082.258</v>
+        <v>5797856729904.501</v>
       </c>
       <c r="E71">
-        <v>46663630.04833327</v>
+        <v>44648488.756678917</v>
       </c>
       <c r="F71">
-        <v>80777941620637.14</v>
+        <v>80190256631989.891</v>
       </c>
       <c r="G71">
-        <v>4.330917352110286E+34</v>
+        <v>4.2994085182322224E+34</v>
       </c>
       <c r="H71">
-        <v>3.460347812436299E+29</v>
-      </c>
-    </row>
-    <row r="72">
+        <v>3.3109147367603689E+29</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2095</v>
       </c>
@@ -2227,77 +2265,77 @@
         <v>1.002937421583133E-23</v>
       </c>
       <c r="C72">
-        <v>80777941620637.14</v>
+        <v>80190256631989.891</v>
       </c>
       <c r="D72">
-        <v>6295517951274.333</v>
+        <v>6249716115758.166</v>
       </c>
       <c r="E72">
-        <v>35491784.50210651</v>
+        <v>34153339.641086876</v>
       </c>
       <c r="F72">
-        <v>87073424080126.97</v>
+        <v>86439938594408.422</v>
       </c>
       <c r="G72">
-        <v>6.277079522406177E+35</v>
+        <v>6.2314118321490243E+35</v>
       </c>
       <c r="H72">
-        <v>3.538783551029821E+30</v>
-      </c>
-    </row>
-    <row r="73">
+        <v>3.4053310711226601E+30</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2096</v>
       </c>
       <c r="B73">
-        <v>7.376595068051128E-25</v>
+        <v>7.3765950680511283E-25</v>
       </c>
       <c r="C73">
-        <v>87073424080126.97</v>
+        <v>86439938594408.422</v>
       </c>
       <c r="D73">
-        <v>6786163770082.608</v>
+        <v>6736792402394.5547</v>
       </c>
       <c r="E73">
-        <v>26671025.2331043</v>
+        <v>25823910.051280402</v>
       </c>
       <c r="F73">
-        <v>93859561179184.34</v>
+        <v>93176705172892.922</v>
       </c>
       <c r="G73">
-        <v>9.199588302568288E+36</v>
+        <v>9.1326585507890602E+36</v>
       </c>
       <c r="H73">
-        <v>3.615628211533467E+31</v>
-      </c>
-    </row>
-    <row r="74">
+        <v>3.500789973293599E+31</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2097</v>
       </c>
       <c r="B74">
-        <v>5.35798718717224E-26</v>
+        <v>5.3579871871722403E-26</v>
       </c>
       <c r="C74">
-        <v>93859561179184.34</v>
+        <v>93176705172892.922</v>
       </c>
       <c r="D74">
-        <v>7315049232327.593</v>
+        <v>7261830104247.5381</v>
       </c>
       <c r="E74">
-        <v>19783341.1197819</v>
+        <v>19284887.6791014</v>
       </c>
       <c r="F74">
-        <v>101174590628170.8</v>
+        <v>100438515992252.8</v>
       </c>
       <c r="G74">
-        <v>1.365260680324288E+38</v>
+        <v>1.355328008553914E+38</v>
       </c>
       <c r="H74">
-        <v>3.692308404011482E+32</v>
-      </c>
-    </row>
-    <row r="75">
+        <v>3.5992784240455222E+32</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2098</v>
       </c>
@@ -2305,25 +2343,25 @@
         <v>3.837223450258516E-27</v>
       </c>
       <c r="C75">
-        <v>101174590628170.8</v>
+        <v>100438515992252.8</v>
       </c>
       <c r="D75">
-        <v>7885154450867.043</v>
+        <v>7827787659935.4561</v>
       </c>
       <c r="E75">
-        <v>14467308.39771288</v>
+        <v>14209001.2897695</v>
       </c>
       <c r="F75">
-        <v>109059730611729.5</v>
+        <v>108266289443186.91</v>
       </c>
       <c r="G75">
-        <v>2.054911462176073E+39</v>
+        <v>2.0399613839032731E+39</v>
       </c>
       <c r="H75">
-        <v>3.770254348033398E+33</v>
-      </c>
-    </row>
-    <row r="76">
+        <v>3.7029381984028657E+33</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2099</v>
       </c>
@@ -2331,51 +2369,51 @@
         <v>2.704842910064732E-28</v>
       </c>
       <c r="C76">
-        <v>109059730611729.5</v>
+        <v>108266289443186.91</v>
       </c>
       <c r="D76">
-        <v>8499691823020.326</v>
+        <v>8437854100953.6748</v>
       </c>
       <c r="E76">
-        <v>10416429.66461597</v>
+        <v>10316628.217844641</v>
       </c>
       <c r="F76">
-        <v>117559412018320.1</v>
+        <v>116704133227512.41</v>
       </c>
       <c r="G76">
-        <v>3.142397583014133E+40</v>
+        <v>3.1195357296190419E+40</v>
       </c>
       <c r="H76">
-        <v>3.851029435334818E+34</v>
-      </c>
-    </row>
-    <row r="77">
+        <v>3.8141321181560748E+34</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2100</v>
       </c>
       <c r="B77">
-        <v>1.872976155163048E-29</v>
+        <v>1.8729761551630479E-29</v>
       </c>
       <c r="C77">
-        <v>117559412018320.1</v>
+        <v>116704133227512.41</v>
       </c>
       <c r="D77">
-        <v>9162124129895.389</v>
+        <v>9095467019672.9141</v>
       </c>
       <c r="E77">
-        <v>7372475.871076279</v>
+        <v>7370693.1668296056</v>
       </c>
       <c r="F77">
-        <v>126721528775739.6</v>
+        <v>125799592876492.09</v>
       </c>
       <c r="G77">
-        <v>4.891746274846623E+41</v>
+        <v>4.8561574020044731E+41</v>
       </c>
       <c r="H77">
-        <v>3.93623584088527E+35</v>
-      </c>
-    </row>
-    <row r="78">
+        <v>3.9352840379262407E+35</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2101</v>
       </c>
@@ -2383,77 +2421,77 @@
         <v>1.271164200719562E-30</v>
       </c>
       <c r="C78">
-        <v>126721528775739.6</v>
+        <v>125799592876492.09</v>
       </c>
       <c r="D78">
-        <v>9876184046787.313</v>
+        <v>9804331938043.7969</v>
       </c>
       <c r="E78">
-        <v>5119854.528606431</v>
+        <v>5172809.0512164785</v>
       </c>
       <c r="F78">
-        <v>136597707702672.4</v>
+        <v>135603919641726.91</v>
       </c>
       <c r="G78">
-        <v>7.76940071250964E+42</v>
+        <v>7.7128760647081662E+42</v>
       </c>
       <c r="H78">
-        <v>4.027689362010241E+36</v>
-      </c>
-    </row>
-    <row r="79">
+        <v>4.069347648626613E+36</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2102</v>
       </c>
       <c r="B79">
-        <v>8.43311726193044E-32</v>
+        <v>8.4331172619304396E-32</v>
       </c>
       <c r="C79">
-        <v>136597707702672.4</v>
+        <v>135603919641726.91</v>
       </c>
       <c r="D79">
-        <v>10645895174551.91</v>
+        <v>10568443186156.279</v>
       </c>
       <c r="E79">
-        <v>3480712.612785329</v>
+        <v>3558585.9767912431</v>
       </c>
       <c r="F79">
-        <v>147243599396511.7</v>
+        <v>146172359269297.19</v>
       </c>
       <c r="G79">
-        <v>1.262391455483561E+44</v>
+        <v>1.253207189927896E+44</v>
       </c>
       <c r="H79">
-        <v>4.127432958270703E+37</v>
-      </c>
-    </row>
-    <row r="80">
+        <v>4.2197752815032491E+37</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2103</v>
       </c>
       <c r="B80">
-        <v>5.45202479511411E-33</v>
+        <v>5.4520247951141098E-33</v>
       </c>
       <c r="C80">
-        <v>147243599396511.7</v>
+        <v>146172359269297.19</v>
       </c>
       <c r="D80">
-        <v>11475594710446.29</v>
+        <v>11392106408321.98</v>
       </c>
       <c r="E80">
-        <v>2310510.491420873</v>
+        <v>2393879.837626609</v>
       </c>
       <c r="F80">
-        <v>158719191796447.5</v>
+        <v>157564463283739.31</v>
       </c>
       <c r="G80">
-        <v>2.104831716966928E+45</v>
+        <v>2.0895184516642589E+45</v>
       </c>
       <c r="H80">
-        <v>4.237894320457715E+38</v>
-      </c>
-    </row>
-    <row r="81">
+        <v>4.3908087868050598E+38</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2104</v>
       </c>
@@ -2461,25 +2499,25 @@
         <v>3.423200520607734E-34</v>
       </c>
       <c r="C81">
-        <v>158719191796447.5</v>
+        <v>157564463283739.31</v>
       </c>
       <c r="D81">
-        <v>12369957886206.93</v>
+        <v>12279962823508.881</v>
       </c>
       <c r="E81">
-        <v>1493205.100467224</v>
+        <v>1570442.4732942721</v>
       </c>
       <c r="F81">
-        <v>171089148189449.3</v>
+        <v>169844424536805.81</v>
       </c>
       <c r="G81">
-        <v>3.613565086748363E+46</v>
+        <v>3.5872753435223172E+46</v>
       </c>
       <c r="H81">
-        <v>4.362014703719808E+39</v>
-      </c>
-    </row>
-    <row r="82">
+        <v>4.5876438258295928E+39</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2105</v>
       </c>
@@ -2487,363 +2525,363 @@
         <v>2.079488835010824E-35</v>
       </c>
       <c r="C82">
-        <v>171089148189449.3</v>
+        <v>169844424536805.81</v>
       </c>
       <c r="D82">
-        <v>13334024311112.71</v>
+        <v>13237015376878.08</v>
       </c>
       <c r="E82">
-        <v>936418.4757753663</v>
+        <v>1001602.57173367</v>
       </c>
       <c r="F82">
-        <v>184423171564143.6</v>
+        <v>183081438912081.31</v>
       </c>
       <c r="G82">
-        <v>6.412164415897578E+47</v>
+        <v>6.3655140407662636E+47</v>
       </c>
       <c r="H82">
-        <v>4.503118554952434E+40</v>
-      </c>
-    </row>
-    <row r="83">
+        <v>4.8165806657406588E+40</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2106</v>
       </c>
       <c r="B83">
-        <v>1.21678744489942E-36</v>
+        <v>1.2167874448994201E-36</v>
       </c>
       <c r="C83">
-        <v>184423171564143.6</v>
+        <v>183081438912081.31</v>
       </c>
       <c r="D83">
-        <v>14373226368461.77</v>
+        <v>14268656929774.52</v>
       </c>
       <c r="E83">
-        <v>567603.9080792945</v>
+        <v>618762.92611276894</v>
       </c>
       <c r="F83">
-        <v>198796397365001.5</v>
+        <v>197350095223092.91</v>
       </c>
       <c r="G83">
-        <v>1.18124380956691E+49</v>
+        <v>1.172649914295752E+49</v>
       </c>
       <c r="H83">
-        <v>4.664774529508833E+41</v>
-      </c>
-    </row>
-    <row r="84">
+        <v>5.0852178719177721E+41</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2107</v>
       </c>
       <c r="B84">
-        <v>6.823094040051235E-38</v>
+        <v>6.8230940400512354E-38</v>
       </c>
       <c r="C84">
-        <v>198796397365001.5</v>
+        <v>197350095223092.91</v>
       </c>
       <c r="D84">
-        <v>15493419825429.2</v>
+        <v>15380700646982.051</v>
       </c>
       <c r="E84">
-        <v>330958.8354570117</v>
+        <v>368597.68948457937</v>
       </c>
       <c r="F84">
-        <v>214289816859471.8</v>
+        <v>212730795501477.31</v>
       </c>
       <c r="G84">
-        <v>2.270732271090442E+50</v>
+        <v>2.2542120270801E+50</v>
       </c>
       <c r="H84">
-        <v>4.850568283454679E+42</v>
-      </c>
-    </row>
-    <row r="85">
+        <v>5.4022073757290842E+42</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2108</v>
       </c>
       <c r="B85">
-        <v>3.645242063338626E-39</v>
+        <v>3.6452420633386258E-39</v>
       </c>
       <c r="C85">
-        <v>214289816859471.8</v>
+        <v>212730795501477.31</v>
       </c>
       <c r="D85">
-        <v>16700916828769.19</v>
+        <v>16579412752448.539</v>
       </c>
       <c r="E85">
-        <v>184588.2429982729</v>
+        <v>210583.86763651171</v>
       </c>
       <c r="F85">
-        <v>230990733503652.8</v>
+        <v>229310208043341.91</v>
       </c>
       <c r="G85">
-        <v>4.581565925823059E+51</v>
+        <v>4.5482336877413537E+51</v>
       </c>
       <c r="H85">
-        <v>5.063813041518872E+43</v>
-      </c>
-    </row>
-    <row r="86">
+        <v>5.7769515433397837E+43</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2109</v>
       </c>
       <c r="B86">
-        <v>1.84351492740937E-40</v>
+        <v>1.8435149274093701E-40</v>
       </c>
       <c r="C86">
-        <v>230990733503652.8</v>
+        <v>229310208043341.91</v>
       </c>
       <c r="D86">
-        <v>18002521472288.01</v>
+        <v>17871547838052.77</v>
       </c>
       <c r="E86">
-        <v>97852.55530859658</v>
+        <v>114656.5881243225</v>
       </c>
       <c r="F86">
-        <v>248993254878088.2</v>
+        <v>247181755766738.09</v>
       </c>
       <c r="G86">
-        <v>9.765324492157141E+52</v>
+        <v>9.6942788866738709E+52</v>
       </c>
       <c r="H86">
-        <v>5.307933982726439E+44</v>
-      </c>
-    </row>
-    <row r="87">
+        <v>6.219455368633526E+44</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2110</v>
       </c>
       <c r="B87">
-        <v>8.762402245454233E-42</v>
+        <v>8.7624022454542326E-42</v>
       </c>
       <c r="C87">
-        <v>248993254878088.2</v>
+        <v>247181755766738.09</v>
       </c>
       <c r="D87">
-        <v>19405568136505.19</v>
+        <v>19264386924374.34</v>
       </c>
       <c r="E87">
-        <v>48955.49181360807</v>
+        <v>59067.529054525883</v>
       </c>
       <c r="F87">
-        <v>268398822965637.9</v>
+        <v>266446142632044.91</v>
       </c>
       <c r="G87">
-        <v>2.21464018575185E+54</v>
+        <v>2.198528027444567E+54</v>
       </c>
       <c r="H87">
-        <v>5.586994347241391E+45</v>
-      </c>
-    </row>
-    <row r="88">
+        <v>6.7410200307990862E+45</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2111</v>
       </c>
       <c r="B88">
-        <v>3.882675600773243E-43</v>
+        <v>3.8826756007732427E-43</v>
       </c>
       <c r="C88">
-        <v>268398822965637.9</v>
+        <v>266446142632044.91</v>
       </c>
       <c r="D88">
-        <v>20917962816531.66</v>
+        <v>20765778487927.961</v>
       </c>
       <c r="E88">
-        <v>22927.98137875241</v>
+        <v>28533.994253523138</v>
       </c>
       <c r="F88">
-        <v>289316785759241.6</v>
+        <v>287211921091438.88</v>
       </c>
       <c r="G88">
-        <v>5.387512367081556E+55</v>
+        <v>5.3483166308801106E+55</v>
       </c>
       <c r="H88">
-        <v>5.90520139621921E+46</v>
-      </c>
-    </row>
-    <row r="89">
+        <v>7.3490544118186273E+46</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2112</v>
       </c>
       <c r="B89">
-        <v>1.589328620204012E-44</v>
+        <v>1.5893286202040119E-44</v>
       </c>
       <c r="C89">
-        <v>289316785759241.6</v>
+        <v>287211921091438.88</v>
       </c>
       <c r="D89">
-        <v>22548227671025.92</v>
+        <v>22384182686029.898</v>
       </c>
       <c r="E89">
-        <v>9960.803061615843</v>
+        <v>12785.153465700179</v>
       </c>
       <c r="F89">
-        <v>311865013420306.7</v>
+        <v>309596103764683.63</v>
       </c>
       <c r="G89">
-        <v>1.418726585829151E+57</v>
+        <v>1.408404932842434E+57</v>
       </c>
       <c r="H89">
-        <v>6.2673023910796E+47</v>
-      </c>
-    </row>
-    <row r="90">
+        <v>8.044373770893923E+47</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2113</v>
       </c>
       <c r="B90">
-        <v>5.950235332927601E-46</v>
+        <v>5.9502353329276011E-46</v>
       </c>
       <c r="C90">
-        <v>311865013420306.7</v>
+        <v>309596103764683.63</v>
       </c>
       <c r="D90">
-        <v>24305549043243.61</v>
+        <v>24128719028486.762</v>
       </c>
       <c r="E90">
-        <v>3976.461214948124</v>
+        <v>5249.3513139976812</v>
       </c>
       <c r="F90">
-        <v>336170562459573.9</v>
+        <v>333724822787921</v>
       </c>
       <c r="G90">
-        <v>4.084804664571969E+58</v>
+        <v>4.0550865097658389E+58</v>
       </c>
       <c r="H90">
-        <v>6.682863773375578E+48</v>
-      </c>
-    </row>
-    <row r="91">
+        <v>8.8220902540587844E+48</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2114</v>
       </c>
       <c r="B91">
-        <v>2.015869335064944E-47</v>
+        <v>2.0158693350649441E-47</v>
       </c>
       <c r="C91">
-        <v>336170562459573.9</v>
+        <v>333724822787921</v>
       </c>
       <c r="D91">
-        <v>26199829224762.98</v>
+        <v>26009217764724.672</v>
       </c>
       <c r="E91">
-        <v>1448.525077086954</v>
+        <v>1955.913619080183</v>
       </c>
       <c r="F91">
-        <v>362370391682888.4</v>
+        <v>359734040550689.81</v>
       </c>
       <c r="G91">
-        <v>1.299678940942812E+60</v>
+        <v>1.2902233945578E+60</v>
       </c>
       <c r="H91">
-        <v>7.185609959389E+49</v>
-      </c>
-    </row>
-    <row r="92">
+        <v>9.702581338274934E+49</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2115</v>
       </c>
       <c r="B92">
-        <v>6.10991930816653E-49</v>
+        <v>6.1099193081665297E-49</v>
       </c>
       <c r="C92">
-        <v>362370391682888.4</v>
+        <v>359734040550689.81</v>
       </c>
       <c r="D92">
-        <v>28241742253556.44</v>
+        <v>28036275275909.191</v>
       </c>
       <c r="E92">
-        <v>474.6214457498302</v>
+        <v>648.8123932826602</v>
       </c>
       <c r="F92">
-        <v>390612133935970.2</v>
+        <v>387770315825950.13</v>
       </c>
       <c r="G92">
-        <v>4.622277452307508E+61</v>
+        <v>4.5886490249447082E+61</v>
       </c>
       <c r="H92">
-        <v>7.768047691160998E+50</v>
-      </c>
-    </row>
-    <row r="93">
+        <v>1.0619001013899749E+51</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2116</v>
       </c>
       <c r="B93">
-        <v>1.635225949299503E-50</v>
+        <v>1.6352259492995031E-50</v>
       </c>
       <c r="C93">
-        <v>390612133935970.2</v>
+        <v>387770315825950.13</v>
       </c>
       <c r="D93">
-        <v>30442794060808.52</v>
+        <v>30221313784170.52</v>
       </c>
       <c r="E93">
-        <v>132.3232757569742</v>
+        <v>176.36955827110171</v>
       </c>
       <c r="F93">
-        <v>421054927996646.4</v>
+        <v>417991629609944.31</v>
       </c>
       <c r="G93">
-        <v>1.861687314456426E+63</v>
+        <v>1.8481429919282219E+63</v>
       </c>
       <c r="H93">
-        <v>8.092048429983559E+51</v>
-      </c>
-    </row>
-    <row r="94">
+        <v>1.078563842181288E+52</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2117</v>
       </c>
       <c r="B94">
-        <v>3.769814205825257E-52</v>
+        <v>3.7698142058252572E-52</v>
       </c>
       <c r="C94">
-        <v>421054927996646.4</v>
+        <v>417991629609944.31</v>
       </c>
       <c r="D94">
-        <v>32815387305386</v>
+        <v>32576645715375.422</v>
       </c>
       <c r="E94">
-        <v>30.76756393303528</v>
+        <v>37.422343455112703</v>
       </c>
       <c r="F94">
-        <v>453870315302001.6</v>
+        <v>450568275325282.31</v>
       </c>
       <c r="G94">
-        <v>8.704775756502387E+64</v>
+        <v>8.6414459537652479E+64</v>
       </c>
       <c r="H94">
-        <v>8.161559762147453E+52</v>
-      </c>
-    </row>
-    <row r="95">
+        <v>9.9268402663681163E+52</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2118</v>
       </c>
       <c r="B95">
-        <v>6.533057929376426E-54</v>
+        <v>6.5330579293764258E-54</v>
       </c>
       <c r="C95">
-        <v>453870315302001.6</v>
+        <v>450568275325282.31</v>
       </c>
       <c r="D95">
-        <v>35372891261284.34</v>
+        <v>35115543078116.191</v>
       </c>
       <c r="E95">
-        <v>6.64314183262953</v>
+        <v>7.455900926043717</v>
       </c>
       <c r="F95">
-        <v>489243206563279.3</v>
+        <v>485683818403391</v>
       </c>
       <c r="G95">
-        <v>5.414446288961752E+66</v>
+        <v>5.3750546004216942E+66</v>
       </c>
       <c r="H95">
-        <v>1.016850287329935E+54</v>
-      </c>
-    </row>
-    <row r="96">
+        <v>1.141257433600528E+54</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2119</v>
       </c>
@@ -2851,24 +2889,22 @@
         <v>0</v>
       </c>
       <c r="C96">
-        <v>489243206563279.3</v>
+        <v>485683818403391</v>
       </c>
       <c r="D96">
-        <v>38129717151847.3</v>
+        <v>37852312249848.688</v>
       </c>
       <c r="E96">
         <v>0</v>
       </c>
       <c r="F96">
-        <v>527372923715126.6</v>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>Inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
+        <v>523536130653239.69</v>
+      </c>
+      <c r="G96" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>2120</v>
       </c>
@@ -2876,21 +2912,19 @@
         <v>0</v>
       </c>
       <c r="C97">
-        <v>527372923715126.6</v>
+        <v>523536130653239.69</v>
       </c>
       <c r="D97">
-        <v>41101399355250.23</v>
+        <v>40802374591579.859</v>
       </c>
       <c r="E97">
         <v>0</v>
       </c>
       <c r="F97">
-        <v>568474323070376.9</v>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>Inf</t>
-        </is>
+        <v>564338505244819.5</v>
+      </c>
+      <c r="G97" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/res/reserva.xlsx
+++ b/res/reserva.xlsx
@@ -1,59 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3e64e3084cf54c9d/Documentos/Semestre 7/Pensiones/Proyecto/res/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_B19F3FDC8F79A8D366075C52F37BD2727AC9F6DB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC7B4035-9642-4568-9ECA-FE742A57C045}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
-  <si>
-    <t>Año</t>
-  </si>
-  <si>
-    <t>Salarios</t>
-  </si>
-  <si>
-    <t>Reserva_Inicial</t>
-  </si>
-  <si>
-    <t>Ingresos</t>
-  </si>
-  <si>
-    <t>Egresos</t>
-  </si>
-  <si>
-    <t>Reserva_final</t>
-  </si>
-  <si>
-    <t>Tasa_Ingresos</t>
-  </si>
-  <si>
-    <t>Tasa_Costos</t>
-  </si>
-  <si>
-    <t>Inf</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,21 +63,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -153,7 +107,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -187,7 +141,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -222,10 +175,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -398,46 +350,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Año</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Salarios</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Reserva_Inicial</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Ingresos</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Egresos</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Reserva_final</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Tasa_Ingresos</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Tasa_Costos</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2">
         <v>2025</v>
       </c>
@@ -445,51 +407,51 @@
         <v>36010122084.65284</v>
       </c>
       <c r="C2">
-        <v>437031071554.90002</v>
+        <v>437031071554.9</v>
       </c>
       <c r="D2">
-        <v>39583318715.901031</v>
+        <v>39583318715.90103</v>
       </c>
       <c r="E2">
-        <v>2289551719.4303141</v>
+        <v>2289551719.430314</v>
       </c>
       <c r="F2">
-        <v>474324838551.37073</v>
+        <v>474324838551.3707</v>
       </c>
       <c r="G2">
-        <v>1.0992275622628629</v>
+        <v>1.099227562262863</v>
       </c>
       <c r="H2">
-        <v>6.3580781927037616E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.06358078192703762</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3">
         <v>2026</v>
       </c>
       <c r="B3">
-        <v>34226172136.674461</v>
+        <v>34226172136.67446</v>
       </c>
       <c r="C3">
-        <v>474324838551.37073</v>
+        <v>474324838551.3707</v>
       </c>
       <c r="D3">
-        <v>42207393840.820511</v>
+        <v>42207393840.82051</v>
       </c>
       <c r="E3">
-        <v>2404074830.0555811</v>
+        <v>2404074830.055581</v>
       </c>
       <c r="F3">
-        <v>514128157562.13562</v>
+        <v>514128157562.1356</v>
       </c>
       <c r="G3">
         <v>1.233190602567966</v>
       </c>
       <c r="H3">
-        <v>7.0240832672010561E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.07024083267201056</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4">
         <v>2027</v>
       </c>
@@ -497,207 +459,207 @@
         <v>32475732708.94772</v>
       </c>
       <c r="C4">
-        <v>514128157562.13562</v>
+        <v>514128157562.1356</v>
       </c>
       <c r="D4">
-        <v>45029935927.079163</v>
+        <v>45029935927.07916</v>
       </c>
       <c r="E4">
-        <v>2578596792.5088191</v>
+        <v>2578596792.508819</v>
       </c>
       <c r="F4">
-        <v>556579496696.70605</v>
+        <v>556579496696.7061</v>
       </c>
       <c r="G4">
         <v>1.386571823664275</v>
       </c>
       <c r="H4">
-        <v>7.9400727171226038E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.07940072717122604</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5">
         <v>2028</v>
       </c>
       <c r="B5">
-        <v>30693609073.941448</v>
+        <v>30693609073.94145</v>
       </c>
       <c r="C5">
-        <v>556579496696.70605</v>
+        <v>556579496696.7061</v>
       </c>
       <c r="D5">
-        <v>48049790112.539001</v>
+        <v>48049790112.539</v>
       </c>
       <c r="E5">
-        <v>2859035975.7375059</v>
+        <v>2859035975.737506</v>
       </c>
       <c r="F5">
-        <v>601770250833.50757</v>
+        <v>601770250833.5076</v>
       </c>
       <c r="G5">
         <v>1.565465631519128</v>
       </c>
       <c r="H5">
-        <v>9.3147598539162921E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.09314759853916292</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6">
         <v>2029</v>
       </c>
       <c r="B6">
-        <v>28839689652.872669</v>
+        <v>28839689652.87267</v>
       </c>
       <c r="C6">
-        <v>601770250833.50757</v>
+        <v>601770250833.5076</v>
       </c>
       <c r="D6">
-        <v>51271006398.335548</v>
+        <v>51271006398.33555</v>
       </c>
       <c r="E6">
-        <v>3163781653.3022261</v>
+        <v>3163781653.302226</v>
       </c>
       <c r="F6">
-        <v>649877475578.54089</v>
+        <v>649877475578.5409</v>
       </c>
       <c r="G6">
-        <v>1.7777932777868339</v>
+        <v>1.777793277786834</v>
       </c>
       <c r="H6">
         <v>0.1097023474032803</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7">
         <v>2030</v>
       </c>
       <c r="B7">
-        <v>26967564097.627312</v>
+        <v>26967564097.62731</v>
       </c>
       <c r="C7">
-        <v>649877475578.54089</v>
+        <v>649877475578.5409</v>
       </c>
       <c r="D7">
-        <v>54720197550.614487</v>
+        <v>54720197550.61449</v>
       </c>
       <c r="E7">
-        <v>3378339081.6144252</v>
+        <v>3378339081.614425</v>
       </c>
       <c r="F7">
-        <v>701219334047.54102</v>
+        <v>701219334047.541</v>
       </c>
       <c r="G7">
         <v>2.029111615439859</v>
       </c>
       <c r="H7">
-        <v>0.12527416526699431</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.1252741652669943</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8">
         <v>2031</v>
       </c>
       <c r="B8">
-        <v>25223566788.471909</v>
+        <v>25223566788.47191</v>
       </c>
       <c r="C8">
-        <v>701219334047.54102</v>
+        <v>701219334047.541</v>
       </c>
       <c r="D8">
-        <v>58437366324.100418</v>
+        <v>58437366324.10042</v>
       </c>
       <c r="E8">
-        <v>3697683274.6598382</v>
+        <v>3697683274.659838</v>
       </c>
       <c r="F8">
-        <v>755959017096.98169</v>
+        <v>755959017096.9817</v>
       </c>
       <c r="G8">
-        <v>2.3167764818577692</v>
+        <v>2.316776481857769</v>
       </c>
       <c r="H8">
-        <v>0.14659636782018531</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.1465963678201853</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9">
         <v>2032</v>
       </c>
       <c r="B9">
-        <v>23545752806.486229</v>
+        <v>23545752806.48623</v>
       </c>
       <c r="C9">
-        <v>755959017096.98169</v>
+        <v>755959017096.9817</v>
       </c>
       <c r="D9">
-        <v>62431626735.227913</v>
+        <v>62431626735.22791</v>
       </c>
       <c r="E9">
-        <v>3966531870.7089958</v>
+        <v>3966531870.708996</v>
       </c>
       <c r="F9">
-        <v>814424111961.50061</v>
+        <v>814424111961.5006</v>
       </c>
       <c r="G9">
-        <v>2.6515026828120631</v>
+        <v>2.651502682812063</v>
       </c>
       <c r="H9">
         <v>0.1684606095761067</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10">
         <v>2033</v>
       </c>
       <c r="B10">
-        <v>21896673700.867962</v>
+        <v>21896673700.86796</v>
       </c>
       <c r="C10">
-        <v>814424111961.50061</v>
+        <v>814424111961.5006</v>
       </c>
       <c r="D10">
-        <v>66724672326.964432</v>
+        <v>66724672326.96443</v>
       </c>
       <c r="E10">
-        <v>4133707154.7497659</v>
+        <v>4133707154.749766</v>
       </c>
       <c r="F10">
-        <v>877015077133.71533</v>
+        <v>877015077133.7153</v>
       </c>
       <c r="G10">
-        <v>3.0472515249802319</v>
+        <v>3.047251524980232</v>
       </c>
       <c r="H10">
         <v>0.1887824247290085</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11">
         <v>2034</v>
       </c>
       <c r="B11">
-        <v>20314603333.166191</v>
+        <v>20314603333.16619</v>
       </c>
       <c r="C11">
-        <v>877015077133.71533</v>
+        <v>877015077133.7153</v>
       </c>
       <c r="D11">
-        <v>71345787449.324921</v>
+        <v>71345787449.32492</v>
       </c>
       <c r="E11">
-        <v>4401656592.8416281</v>
+        <v>4401656592.841628</v>
       </c>
       <c r="F11">
-        <v>943959207990.19861</v>
+        <v>943959207990.1986</v>
       </c>
       <c r="G11">
         <v>3.512044329846391</v>
       </c>
       <c r="H11">
-        <v>0.21667450359000409</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.2166745035900041</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12">
         <v>2035</v>
       </c>
@@ -705,51 +667,51 @@
         <v>18794239735.57489</v>
       </c>
       <c r="C12">
-        <v>943959207990.19897</v>
+        <v>943959207990.1986</v>
       </c>
       <c r="D12">
-        <v>76316150660.862854</v>
+        <v>76316150660.86285</v>
       </c>
       <c r="E12">
-        <v>4660284175.49967</v>
+        <v>4660284175.499674</v>
       </c>
       <c r="F12">
         <v>1015615074475.562</v>
       </c>
       <c r="G12">
-        <v>4.0606138760913524</v>
+        <v>4.060613876091352</v>
       </c>
       <c r="H12">
-        <v>0.24796343140597499</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.247963431405975</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13">
         <v>2036</v>
       </c>
       <c r="B13">
-        <v>17327577989.736069</v>
+        <v>17327577989.73607</v>
       </c>
       <c r="C13">
         <v>1015615074475.562</v>
       </c>
       <c r="D13">
-        <v>81663340477.189377</v>
+        <v>81663340477.18938</v>
       </c>
       <c r="E13">
-        <v>4886995701.3511839</v>
+        <v>4886995701.351184</v>
       </c>
       <c r="F13">
         <v>1092391419251.4</v>
       </c>
       <c r="G13">
-        <v>4.7129114366452347</v>
+        <v>4.712911436645235</v>
       </c>
       <c r="H13">
-        <v>0.28203570656245081</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.2820357065624508</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14">
         <v>2037</v>
       </c>
@@ -760,48 +722,48 @@
         <v>1092391419251.4</v>
       </c>
       <c r="D14">
-        <v>87415729970.233856</v>
+        <v>87415729970.23386</v>
       </c>
       <c r="E14">
-        <v>5151138209.7015276</v>
+        <v>5151138209.701528</v>
       </c>
       <c r="F14">
-        <v>1174656011011.9319</v>
+        <v>1174656011011.932</v>
       </c>
       <c r="G14">
         <v>5.494532185922095</v>
       </c>
       <c r="H14">
-        <v>0.32377576320618401</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.323775763206184</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15">
         <v>2038</v>
       </c>
       <c r="B15">
-        <v>14578731504.906771</v>
+        <v>14578731504.90677</v>
       </c>
       <c r="C15">
-        <v>1174656011011.9319</v>
+        <v>1174656011011.932</v>
       </c>
       <c r="D15">
-        <v>93611083926.279205</v>
+        <v>93611083926.27921</v>
       </c>
       <c r="E15">
         <v>5372785566.9473</v>
       </c>
       <c r="F15">
-        <v>1262894309371.2639</v>
+        <v>1262894309371.264</v>
       </c>
       <c r="G15">
-        <v>6.4210719495569597</v>
+        <v>6.42107194955696</v>
       </c>
       <c r="H15">
-        <v>0.36853587468422599</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.368535874684226</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16">
         <v>2039</v>
       </c>
@@ -809,30 +771,30 @@
         <v>13315317821.48395</v>
       </c>
       <c r="C16">
-        <v>1262894309371.2639</v>
+        <v>1262894309371.264</v>
       </c>
       <c r="D16">
-        <v>100285758544.61349</v>
+        <v>100285758544.6135</v>
       </c>
       <c r="E16">
-        <v>5511205136.1184483</v>
+        <v>5511205136.118448</v>
       </c>
       <c r="F16">
         <v>1357668862779.76</v>
       </c>
       <c r="G16">
-        <v>7.5316083242718239</v>
+        <v>7.531608324271824</v>
       </c>
       <c r="H16">
-        <v>0.41389963123720919</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.4138996312372092</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17">
         <v>2040</v>
       </c>
       <c r="B17">
-        <v>12106887692.310539</v>
+        <v>12106887692.31054</v>
       </c>
       <c r="C17">
         <v>1357668862779.76</v>
@@ -841,19 +803,19 @@
         <v>107474244461.6701</v>
       </c>
       <c r="E17">
-        <v>5756508675.2344036</v>
+        <v>5756508675.234404</v>
       </c>
       <c r="F17">
-        <v>1459386598566.1951</v>
+        <v>1459386598566.195</v>
       </c>
       <c r="G17">
-        <v>8.8771158362962499</v>
+        <v>8.87711583629625</v>
       </c>
       <c r="H17">
-        <v>0.47547386426079918</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.4754738642607992</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18">
         <v>2041</v>
       </c>
@@ -861,68 +823,68 @@
         <v>10907495599.96525</v>
       </c>
       <c r="C18">
-        <v>1459386598566.1951</v>
+        <v>1459386598566.195</v>
       </c>
       <c r="D18">
         <v>115206531942.4124</v>
       </c>
       <c r="E18">
-        <v>5969316361.4656801</v>
+        <v>5969316361.46568</v>
       </c>
       <c r="F18">
-        <v>1568623814147.1421</v>
+        <v>1568623814147.142</v>
       </c>
       <c r="G18">
         <v>10.56214333405547</v>
       </c>
       <c r="H18">
-        <v>0.54726736369113871</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.5472673636911387</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19">
         <v>2042</v>
       </c>
       <c r="B19">
-        <v>9831014878.0639057</v>
+        <v>9831014878.063906</v>
       </c>
       <c r="C19">
-        <v>1568623814147.1421</v>
+        <v>1568623814147.142</v>
       </c>
       <c r="D19">
-        <v>123544930416.80161</v>
+        <v>123544930416.8016</v>
       </c>
       <c r="E19">
-        <v>6169423594.3435211</v>
+        <v>6169423594.343521</v>
       </c>
       <c r="F19">
-        <v>1685999320969.6001</v>
+        <v>1685999320969.6</v>
       </c>
       <c r="G19">
         <v>12.56685418028095</v>
       </c>
       <c r="H19">
-        <v>0.62754696955137867</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.6275469695513787</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20">
         <v>2043</v>
       </c>
       <c r="B20">
-        <v>8827837216.4549103</v>
+        <v>8827837216.45491</v>
       </c>
       <c r="C20">
-        <v>1685999320969.6001</v>
+        <v>1685999320969.6</v>
       </c>
       <c r="D20">
         <v>132530413133.6794</v>
       </c>
       <c r="E20">
-        <v>6322971745.7414541</v>
+        <v>6322971745.741454</v>
       </c>
       <c r="F20">
-        <v>1812206762357.5381</v>
+        <v>1812206762357.538</v>
       </c>
       <c r="G20">
         <v>15.01278397914332</v>
@@ -931,47 +893,47 @@
         <v>0.7162537766278203</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21">
         <v>2044</v>
       </c>
       <c r="B21">
-        <v>7889154079.1363564</v>
+        <v>7889154079.136356</v>
       </c>
       <c r="C21">
-        <v>1812206762357.5381</v>
+        <v>1812206762357.538</v>
       </c>
       <c r="D21">
-        <v>142209128226.78879</v>
+        <v>142209128226.7888</v>
       </c>
       <c r="E21">
-        <v>6618115390.8981094</v>
+        <v>6618115390.898109</v>
       </c>
       <c r="F21">
         <v>1947797775193.429</v>
       </c>
       <c r="G21">
-        <v>18.025903259118088</v>
+        <v>18.02590325911809</v>
       </c>
       <c r="H21">
-        <v>0.83888783569335601</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.838887835693356</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22">
         <v>2045</v>
       </c>
       <c r="B22">
-        <v>6926531520.5272951</v>
+        <v>6926531520.527295</v>
       </c>
       <c r="C22">
         <v>1947797775193.429</v>
       </c>
       <c r="D22">
-        <v>152618037398.30969</v>
+        <v>152618037398.3097</v>
       </c>
       <c r="E22">
-        <v>6836051069.8952122</v>
+        <v>6836051069.895212</v>
       </c>
       <c r="F22">
         <v>2093579761521.843</v>
@@ -980,88 +942,88 @@
         <v>22.03383279871241</v>
       </c>
       <c r="H22">
-        <v>0.98693711991868693</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.9869371199186869</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23">
         <v>2046</v>
       </c>
       <c r="B23">
-        <v>6059926518.4960661</v>
+        <v>6059926518.496066</v>
       </c>
       <c r="C23">
         <v>2093579761521.843</v>
       </c>
       <c r="D23">
-        <v>163839939342.56561</v>
+        <v>163839939342.5656</v>
       </c>
       <c r="E23">
-        <v>6977030493.4214621</v>
+        <v>6977030493.421462</v>
       </c>
       <c r="F23">
-        <v>2250442670370.9868</v>
+        <v>2250442670370.987</v>
       </c>
       <c r="G23">
         <v>27.03662145778409</v>
       </c>
       <c r="H23">
-        <v>1.1513391246785281</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.151339124678528</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24">
         <v>2047</v>
       </c>
       <c r="B24">
-        <v>5223075618.7359943</v>
+        <v>5223075618.735994</v>
       </c>
       <c r="C24">
-        <v>2250442670370.9868</v>
+        <v>2250442670370.987</v>
       </c>
       <c r="D24">
-        <v>175930541765.16571</v>
+        <v>175930541765.1657</v>
       </c>
       <c r="E24">
-        <v>7085595769.2635231</v>
+        <v>7085595769.263523</v>
       </c>
       <c r="F24">
-        <v>2419287616366.8892</v>
+        <v>2419287616366.889</v>
       </c>
       <c r="G24">
-        <v>33.683322740738262</v>
+        <v>33.68332274073826</v>
       </c>
       <c r="H24">
-        <v>1.3565945214054289</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.356594521405429</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25">
         <v>2048</v>
       </c>
       <c r="B25">
-        <v>4439718861.2078075</v>
+        <v>4439718861.207808</v>
       </c>
       <c r="C25">
-        <v>2419287616366.8892</v>
+        <v>2419287616366.889</v>
       </c>
       <c r="D25">
         <v>188965274800.0621</v>
       </c>
       <c r="E25">
-        <v>7149929742.7827463</v>
+        <v>7149929742.782746</v>
       </c>
       <c r="F25">
         <v>2601102961424.168</v>
       </c>
       <c r="G25">
-        <v>42.562441611146284</v>
+        <v>42.56244161114628</v>
       </c>
       <c r="H25">
         <v>1.610446509407498</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="A26">
         <v>2049</v>
       </c>
@@ -1072,27 +1034,27 @@
         <v>2601102961424.168</v>
       </c>
       <c r="D26">
-        <v>203024272090.84689</v>
+        <v>203024272090.8469</v>
       </c>
       <c r="E26">
-        <v>7166387603.3479795</v>
+        <v>7166387603.34798</v>
       </c>
       <c r="F26">
         <v>2796960845911.667</v>
       </c>
       <c r="G26">
-        <v>54.396622825651818</v>
+        <v>54.39662282565182</v>
       </c>
       <c r="H26">
         <v>1.920101864999233</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27">
       <c r="A27">
         <v>2050</v>
       </c>
       <c r="B27">
-        <v>3124911512.4211502</v>
+        <v>3124911512.42115</v>
       </c>
       <c r="C27">
         <v>2796960845911.667</v>
@@ -1104,16 +1066,16 @@
         <v>7188555177.500392</v>
       </c>
       <c r="F27">
-        <v>3007965329668.6992</v>
+        <v>3007965329668.699</v>
       </c>
       <c r="G27">
-        <v>69.823749590105606</v>
+        <v>69.82374959010561</v>
       </c>
       <c r="H27">
         <v>2.300402795063714</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28">
       <c r="A28">
         <v>2051</v>
       </c>
@@ -1121,82 +1083,82 @@
         <v>2579145800.100471</v>
       </c>
       <c r="C28">
-        <v>3007965329668.6992</v>
+        <v>3007965329668.699</v>
       </c>
       <c r="D28">
-        <v>234557896565.16559</v>
+        <v>234557896565.1656</v>
       </c>
       <c r="E28">
-        <v>7056312260.3061848</v>
+        <v>7056312260.306185</v>
       </c>
       <c r="F28">
-        <v>3235466913973.5591</v>
+        <v>3235466913973.559</v>
       </c>
       <c r="G28">
         <v>90.94402362054457</v>
       </c>
       <c r="H28">
-        <v>2.7359105716440322</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2.735910571644032</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29">
         <v>2052</v>
       </c>
       <c r="B29">
-        <v>2120556596.5152431</v>
+        <v>2120556596.515243</v>
       </c>
       <c r="C29">
-        <v>3235466913973.5591</v>
+        <v>3235466913973.559</v>
       </c>
       <c r="D29">
-        <v>252222169886.40701</v>
+        <v>252222169886.407</v>
       </c>
       <c r="E29">
-        <v>6921390521.0115147</v>
+        <v>6921390521.011515</v>
       </c>
       <c r="F29">
-        <v>3480767693338.9541</v>
+        <v>3480767693338.954</v>
       </c>
       <c r="G29">
-        <v>118.94149408739629</v>
+        <v>118.9414940873963</v>
       </c>
       <c r="H29">
-        <v>3.2639499140865129</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3.263949914086513</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30">
         <v>2053</v>
       </c>
       <c r="B30">
-        <v>1688056155.0256231</v>
+        <v>1688056155.025623</v>
       </c>
       <c r="C30">
-        <v>3480767693338.9541</v>
+        <v>3480767693338.954</v>
       </c>
       <c r="D30">
         <v>271279260284.0372</v>
       </c>
       <c r="E30">
-        <v>6746796610.5311499</v>
+        <v>6746796610.53115</v>
       </c>
       <c r="F30">
         <v>3745300157012.46</v>
       </c>
       <c r="G30">
-        <v>160.70511604509949</v>
+        <v>160.7051160450995</v>
       </c>
       <c r="H30">
         <v>3.996784461491294</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31">
       <c r="A31">
         <v>2054</v>
       </c>
       <c r="B31">
-        <v>1358561363.3978081</v>
+        <v>1358561363.397808</v>
       </c>
       <c r="C31">
         <v>3745300157012.46</v>
@@ -1205,82 +1167,82 @@
         <v>291851608435.4856</v>
       </c>
       <c r="E31">
-        <v>6563039251.3006573</v>
+        <v>6563039251.300657</v>
       </c>
       <c r="F31">
         <v>4030588726196.645</v>
       </c>
       <c r="G31">
-        <v>214.82401627082561</v>
+        <v>214.8240162708256</v>
       </c>
       <c r="H31">
-        <v>4.8308743558599927</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4.830874355859993</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32">
         <v>2055</v>
       </c>
       <c r="B32">
-        <v>1072746871.3972321</v>
+        <v>1072746871.397232</v>
       </c>
       <c r="C32">
         <v>4030588726196.645</v>
       </c>
       <c r="D32">
-        <v>314050124298.68298</v>
+        <v>314050124298.683</v>
       </c>
       <c r="E32">
-        <v>6335509932.5540228</v>
+        <v>6335509932.554023</v>
       </c>
       <c r="F32">
-        <v>4338303340562.7729</v>
+        <v>4338303340562.773</v>
       </c>
       <c r="G32">
-        <v>292.75324186183713</v>
+        <v>292.7532418618371</v>
       </c>
       <c r="H32">
-        <v>5.9058759353939134</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5.905875935393913</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33">
         <v>2056</v>
       </c>
       <c r="B33">
-        <v>820421787.65366709</v>
+        <v>820421787.6536671</v>
       </c>
       <c r="C33">
-        <v>4338303340562.7729</v>
+        <v>4338303340562.773</v>
       </c>
       <c r="D33">
-        <v>338003664703.14362</v>
+        <v>338003664703.1436</v>
       </c>
       <c r="E33">
-        <v>6056609499.3432293</v>
+        <v>6056609499.343229</v>
       </c>
       <c r="F33">
-        <v>4670250395766.5742</v>
+        <v>4670250395766.574</v>
       </c>
       <c r="G33">
-        <v>411.98767486393052</v>
+        <v>411.9876748639305</v>
       </c>
       <c r="H33">
-        <v>7.3823118674902464</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7.382311867490246</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34">
         <v>2057</v>
       </c>
       <c r="B34">
-        <v>653063538.67132735</v>
+        <v>653063538.6713274</v>
       </c>
       <c r="C34">
-        <v>4670250395766.5742</v>
+        <v>4670250395766.574</v>
       </c>
       <c r="D34">
-        <v>363859014717.31427</v>
+        <v>363859014717.3143</v>
       </c>
       <c r="E34">
         <v>5778176608.678957</v>
@@ -1289,39 +1251,39 @@
         <v>5028331233875.21</v>
       </c>
       <c r="G34">
-        <v>557.15714194914892</v>
+        <v>557.1571419491489</v>
       </c>
       <c r="H34">
-        <v>8.8478015790542965</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8.847801579054297</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35">
         <v>2058</v>
       </c>
       <c r="B35">
-        <v>508889579.34479111</v>
+        <v>508889579.3447911</v>
       </c>
       <c r="C35">
         <v>5028331233875.21</v>
       </c>
       <c r="D35">
-        <v>391755625675.87549</v>
+        <v>391755625675.8755</v>
       </c>
       <c r="E35">
-        <v>5477206976.1166945</v>
+        <v>5477206976.116694</v>
       </c>
       <c r="F35">
-        <v>5414609652574.9697</v>
+        <v>5414609652574.97</v>
       </c>
       <c r="G35">
-        <v>769.82442081103591</v>
+        <v>769.8244208110359</v>
       </c>
       <c r="H35">
-        <v>10.763055873867071</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+        <v>10.76305587386707</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36">
         <v>2059</v>
       </c>
@@ -1329,39 +1291,39 @@
         <v>388550947.6592111</v>
       </c>
       <c r="C36">
-        <v>5414609652574.9697</v>
+        <v>5414609652574.97</v>
       </c>
       <c r="D36">
         <v>421853365521.7182</v>
       </c>
       <c r="E36">
-        <v>5181344698.0695868</v>
+        <v>5181344698.069587</v>
       </c>
       <c r="F36">
-        <v>5831281673398.6182</v>
+        <v>5831281673398.618</v>
       </c>
       <c r="G36">
-        <v>1085.7092694359239</v>
+        <v>1085.709269435924</v>
       </c>
       <c r="H36">
-        <v>13.335045839636001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13.335045839636</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37">
         <v>2060</v>
       </c>
       <c r="B37">
-        <v>290304349.28046608</v>
+        <v>290304349.2804661</v>
       </c>
       <c r="C37">
-        <v>5831281673398.6182</v>
+        <v>5831281673398.618</v>
       </c>
       <c r="D37">
-        <v>454323930183.76123</v>
+        <v>454323930183.7612</v>
       </c>
       <c r="E37">
-        <v>4869597542.1292934</v>
+        <v>4869597542.129293</v>
       </c>
       <c r="F37">
         <v>6280736006040.25</v>
@@ -1370,10 +1332,10 @@
         <v>1564.991813969807</v>
       </c>
       <c r="H37">
-        <v>16.774111563257101</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+        <v>16.7741115632571</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38">
         <v>2061</v>
       </c>
@@ -1384,48 +1346,48 @@
         <v>6280736006040.25</v>
       </c>
       <c r="D38">
-        <v>489351901252.13287</v>
+        <v>489351901252.1329</v>
       </c>
       <c r="E38">
-        <v>4563702361.0444965</v>
+        <v>4563702361.044497</v>
       </c>
       <c r="F38">
-        <v>6765524204931.3379</v>
+        <v>6765524204931.338</v>
       </c>
       <c r="G38">
-        <v>2336.7040035449781</v>
+        <v>2336.704003544978</v>
       </c>
       <c r="H38">
-        <v>21.792132718302909</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+        <v>21.79213271830291</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39">
         <v>2062</v>
       </c>
       <c r="B39">
-        <v>149273231.31271181</v>
+        <v>149273231.3127118</v>
       </c>
       <c r="C39">
-        <v>6765524204931.3379</v>
+        <v>6765524204931.338</v>
       </c>
       <c r="D39">
-        <v>527136598167.39758</v>
+        <v>527136598167.3976</v>
       </c>
       <c r="E39">
-        <v>4265344549.6833162</v>
+        <v>4265344549.683316</v>
       </c>
       <c r="F39">
-        <v>7288395458549.0518</v>
+        <v>7288395458549.052</v>
       </c>
       <c r="G39">
-        <v>3531.3538370660808</v>
+        <v>3531.353837066081</v>
       </c>
       <c r="H39">
-        <v>28.574075285794979</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28.57407528579498</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40">
         <v>2063</v>
       </c>
@@ -1433,10 +1395,10 @@
         <v>103494616.8704709</v>
       </c>
       <c r="C40">
-        <v>7288395458549.0518</v>
+        <v>7288395458549.052</v>
       </c>
       <c r="D40">
-        <v>567891406022.64465</v>
+        <v>567891406022.6447</v>
       </c>
       <c r="E40">
         <v>3971514126.113616</v>
@@ -1448,47 +1410,47 @@
         <v>5487.158880286418</v>
       </c>
       <c r="H40">
-        <v>38.374113033184933</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+        <v>38.37411303318493</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41">
         <v>2064</v>
       </c>
       <c r="B41">
-        <v>64309996.193898521</v>
+        <v>64309996.19389852</v>
       </c>
       <c r="C41">
         <v>7852315350445.583</v>
       </c>
       <c r="D41">
-        <v>611845910954.61792</v>
+        <v>611845910954.6179</v>
       </c>
       <c r="E41">
         <v>3690634935.294251</v>
       </c>
       <c r="F41">
-        <v>8460470626464.9072</v>
+        <v>8460470626464.907</v>
       </c>
       <c r="G41">
-        <v>9514.0094412362505</v>
+        <v>9514.00944123625</v>
       </c>
       <c r="H41">
-        <v>57.388200182235501</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+        <v>57.3882001822355</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42">
         <v>2065</v>
       </c>
       <c r="B42">
-        <v>40829713.927179277</v>
+        <v>40829713.92717928</v>
       </c>
       <c r="C42">
-        <v>8460470626464.9072</v>
+        <v>8460470626464.907</v>
       </c>
       <c r="D42">
-        <v>659250297616.29346</v>
+        <v>659250297616.2935</v>
       </c>
       <c r="E42">
         <v>3412381524.823895</v>
@@ -1500,27 +1462,27 @@
         <v>16146.33643507964</v>
       </c>
       <c r="H42">
-        <v>83.575935185584569</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+        <v>83.57593518558457</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43">
         <v>2066</v>
       </c>
       <c r="B43">
-        <v>26826115.376713678</v>
+        <v>26826115.37671368</v>
       </c>
       <c r="C43">
         <v>9116308542556.377</v>
       </c>
       <c r="D43">
-        <v>710371868389.07813</v>
+        <v>710371868389.0781</v>
       </c>
       <c r="E43">
-        <v>3146832026.9015369</v>
+        <v>3146832026.901537</v>
       </c>
       <c r="F43">
-        <v>9823533578918.5527</v>
+        <v>9823533578918.553</v>
       </c>
       <c r="G43">
         <v>26480.608854971</v>
@@ -1529,59 +1491,59 @@
         <v>117.3047973108001</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44">
       <c r="A44">
         <v>2067</v>
       </c>
       <c r="B44">
-        <v>12370435.202627091</v>
+        <v>12370435.20262709</v>
       </c>
       <c r="C44">
-        <v>9823533578918.5527</v>
+        <v>9823533578918.553</v>
       </c>
       <c r="D44">
-        <v>765497754274.96899</v>
+        <v>765497754274.969</v>
       </c>
       <c r="E44">
-        <v>2894868684.6129098</v>
+        <v>2894868684.61291</v>
       </c>
       <c r="F44">
         <v>10586136464508.91</v>
       </c>
       <c r="G44">
-        <v>61881.230671043908</v>
+        <v>61881.23067104391</v>
       </c>
       <c r="H44">
-        <v>234.01510433506249</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+        <v>234.0151043350625</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45">
         <v>2068</v>
       </c>
       <c r="B45">
-        <v>3463963.6031892081</v>
+        <v>3463963.603189208</v>
       </c>
       <c r="C45">
         <v>10586136464508.91</v>
       </c>
       <c r="D45">
-        <v>824940023466.99524</v>
+        <v>824940023466.9952</v>
       </c>
       <c r="E45">
         <v>2653642113.432394</v>
       </c>
       <c r="F45">
-        <v>11408422845862.471</v>
+        <v>11408422845862.47</v>
       </c>
       <c r="G45">
-        <v>238149.16031666391</v>
+        <v>238149.1603166639</v>
       </c>
       <c r="H45">
-        <v>766.07101500409362</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+        <v>766.0710150040936</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46">
         <v>2069</v>
       </c>
@@ -1589,51 +1551,51 @@
         <v>392308.054137878</v>
       </c>
       <c r="C46">
-        <v>11408422845862.471</v>
+        <v>11408422845862.47</v>
       </c>
       <c r="D46">
         <v>889034208091.3479</v>
       </c>
       <c r="E46">
-        <v>2425148306.8957319</v>
+        <v>2425148306.895732</v>
       </c>
       <c r="F46">
         <v>12295031905646.92</v>
       </c>
       <c r="G46">
-        <v>2266163.5383577771</v>
+        <v>2266163.538357777</v>
       </c>
       <c r="H46">
-        <v>6181.7448847058486</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6181.744884705849</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47">
         <v>2070</v>
       </c>
       <c r="B47">
-        <v>32330.764487234781</v>
+        <v>32330.76448723478</v>
       </c>
       <c r="C47">
         <v>12295031905646.92</v>
       </c>
       <c r="D47">
-        <v>958141360326.58191</v>
+        <v>958141360326.5819</v>
       </c>
       <c r="E47">
         <v>2209927531.071094</v>
       </c>
       <c r="F47">
-        <v>13250963338442.439</v>
+        <v>13250963338442.44</v>
       </c>
       <c r="G47">
-        <v>29635592.461937811</v>
+        <v>29635592.46193781</v>
       </c>
       <c r="H47">
-        <v>68353.704779967185</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+        <v>68353.70477996719</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48">
         <v>2071</v>
       </c>
@@ -1641,7 +1603,7 @@
         <v>2659.720071365643</v>
       </c>
       <c r="C48">
-        <v>13250963338442.439</v>
+        <v>13250963338442.44</v>
       </c>
       <c r="D48">
         <v>1032650777839.588</v>
@@ -1653,65 +1615,65 @@
         <v>14281606442217.27</v>
       </c>
       <c r="G48">
-        <v>388255436.71194309</v>
+        <v>388255436.7119431</v>
       </c>
       <c r="H48">
-        <v>754844.12302231323</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+        <v>754844.1230223132</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49">
         <v>2072</v>
       </c>
       <c r="B49">
-        <v>218.41377464591409</v>
+        <v>218.4137746459141</v>
       </c>
       <c r="C49">
         <v>14281606442217.27</v>
       </c>
       <c r="D49">
-        <v>1112982454173.6609</v>
+        <v>1112982454173.661</v>
       </c>
       <c r="E49">
         <v>1817882273.983737</v>
       </c>
       <c r="F49">
-        <v>15392771014116.949</v>
+        <v>15392771014116.95</v>
       </c>
       <c r="G49">
-        <v>5095752115.3507586</v>
+        <v>5095752115.350759</v>
       </c>
       <c r="H49">
-        <v>8323111.8409579862</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8323111.840957986</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50">
         <v>2073</v>
       </c>
       <c r="B50">
-        <v>17.902715426963791</v>
+        <v>17.90271542696379</v>
       </c>
       <c r="C50">
-        <v>15392771014116.949</v>
+        <v>15392771014116.95</v>
       </c>
       <c r="D50">
-        <v>1199589197526.8701</v>
+        <v>1199589197526.87</v>
       </c>
       <c r="E50">
-        <v>1640066742.4599991</v>
+        <v>1640066742.459999</v>
       </c>
       <c r="F50">
         <v>16590720144901.35</v>
       </c>
       <c r="G50">
-        <v>67005991488.874046</v>
+        <v>67005991488.87405</v>
       </c>
       <c r="H50">
-        <v>91609943.148057178</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+        <v>91609943.14805718</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51">
         <v>2074</v>
       </c>
@@ -1722,22 +1684,22 @@
         <v>16590720144901.35</v>
       </c>
       <c r="D51">
-        <v>1292959144237.4109</v>
+        <v>1292959144237.411</v>
       </c>
       <c r="E51">
         <v>1473829761.624651</v>
       </c>
       <c r="F51">
-        <v>17882205459377.141</v>
+        <v>17882205459377.14</v>
       </c>
       <c r="G51">
-        <v>882794272251.35693</v>
+        <v>882794272251.3569</v>
       </c>
       <c r="H51">
         <v>1006287381.650569</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52">
       <c r="A52">
         <v>2075</v>
       </c>
@@ -1745,16 +1707,16 @@
         <v>0.1195837350194721</v>
       </c>
       <c r="C52">
-        <v>17882205459377.141</v>
+        <v>17882205459377.14</v>
       </c>
       <c r="D52">
-        <v>1393618502631.0759</v>
+        <v>1393618502631.076</v>
       </c>
       <c r="E52">
-        <v>1318844727.4799631</v>
+        <v>1318844727.479963</v>
       </c>
       <c r="F52">
-        <v>19274505117280.738</v>
+        <v>19274505117280.74</v>
       </c>
       <c r="G52">
         <v>11653913489189.4</v>
@@ -1763,15 +1725,15 @@
         <v>11028629664.93907</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53">
       <c r="A53">
         <v>2076</v>
       </c>
       <c r="B53">
-        <v>9.7426344842944327E-3</v>
+        <v>0.009742634484294433</v>
       </c>
       <c r="C53">
-        <v>19274505117280.738</v>
+        <v>19274505117280.74</v>
       </c>
       <c r="D53">
         <v>1502134517491.865</v>
@@ -1780,56 +1742,56 @@
         <v>1174775700.772567</v>
       </c>
       <c r="F53">
-        <v>20775464859071.828</v>
+        <v>20775464859071.83</v>
       </c>
       <c r="G53">
-        <v>154181553245518.31</v>
+        <v>154181553245518.3</v>
       </c>
       <c r="H53">
         <v>120580906803.6329</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54">
       <c r="A54">
         <v>2077</v>
       </c>
       <c r="B54">
-        <v>7.919124177843634E-4</v>
+        <v>0.0007919124177843634</v>
       </c>
       <c r="C54">
-        <v>20775464859071.828</v>
+        <v>20775464859071.83</v>
       </c>
       <c r="D54">
         <v>1619118669089.697</v>
       </c>
       <c r="E54">
-        <v>1041274427.1524791</v>
+        <v>1041274427.152479</v>
       </c>
       <c r="F54">
-        <v>22393542253734.371</v>
+        <v>22393542253734.37</v>
       </c>
       <c r="G54">
         <v>2044567849585837</v>
       </c>
       <c r="H54">
-        <v>1314885843141.3259</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1314885843141.326</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55">
         <v>2078</v>
       </c>
       <c r="B55">
-        <v>6.4215746969758516E-5</v>
+        <v>6.421574696975852E-05</v>
       </c>
       <c r="C55">
-        <v>22393542253734.371</v>
+        <v>22393542253734.37</v>
       </c>
       <c r="D55">
-        <v>1745230120283.1631</v>
+        <v>1745230120283.163</v>
       </c>
       <c r="E55">
-        <v>918016081.80983293</v>
+        <v>918016081.8098329</v>
       </c>
       <c r="F55">
         <v>24137854357935.73</v>
@@ -1841,64 +1803,64 @@
         <v>14295809441291.08</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56">
       <c r="A56">
         <v>2079</v>
       </c>
       <c r="B56">
-        <v>5.1947104526307937E-6</v>
+        <v>5.194710452630794E-06</v>
       </c>
       <c r="C56">
         <v>24137854357935.73</v>
       </c>
       <c r="D56">
-        <v>1881179429718.3569</v>
+        <v>1881179429718.357</v>
       </c>
       <c r="E56">
-        <v>804729103.93273401</v>
+        <v>804729103.932734</v>
       </c>
       <c r="F56">
-        <v>26018229058550.148</v>
+        <v>26018229058550.15</v>
       </c>
       <c r="G56">
-        <v>3.6213364476660262E+17</v>
+        <v>3.621336447666026E+17</v>
       </c>
       <c r="H56">
         <v>154913177793228</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57">
       <c r="A57">
         <v>2080</v>
       </c>
       <c r="B57">
-        <v>4.1920206307224658E-7</v>
+        <v>4.192020630722466E-07</v>
       </c>
       <c r="C57">
-        <v>26018229058550.148</v>
+        <v>26018229058550.15</v>
       </c>
       <c r="D57">
-        <v>2027732554825.7109</v>
+        <v>2027732554825.711</v>
       </c>
       <c r="E57">
-        <v>701154557.42878294</v>
+        <v>701154557.4287829</v>
       </c>
       <c r="F57">
         <v>28045260458818.43</v>
       </c>
       <c r="G57">
-        <v>4.8371244644286136E+18</v>
+        <v>4.837124464428614E+18</v>
       </c>
       <c r="H57">
         <v>1672593288998065</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58">
       <c r="A58">
         <v>2081</v>
       </c>
       <c r="B58">
-        <v>3.3742424619195353E-8</v>
+        <v>3.374242461919535E-08</v>
       </c>
       <c r="C58">
         <v>28045260458818.43</v>
@@ -1907,62 +1869,62 @@
         <v>2185715170520.708</v>
       </c>
       <c r="E58">
-        <v>606991330.47457612</v>
+        <v>606991330.4745761</v>
       </c>
       <c r="F58">
         <v>30230368638008.66</v>
       </c>
       <c r="G58">
-        <v>6.4776470428189123E+19</v>
+        <v>6.477647042818912E+19</v>
       </c>
       <c r="H58">
         <v>1.798896603681739E+16</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59">
       <c r="A59">
         <v>2082</v>
       </c>
       <c r="B59">
-        <v>2.708120731082727E-9</v>
+        <v>2.708120731082727E-09</v>
       </c>
       <c r="C59">
         <v>30230368638008.66</v>
       </c>
       <c r="D59">
-        <v>2356017326622.9458</v>
+        <v>2356017326622.946</v>
       </c>
       <c r="E59">
-        <v>521896680.22708827</v>
+        <v>521896680.2270883</v>
       </c>
       <c r="F59">
-        <v>32585864067951.379</v>
+        <v>32585864067951.38</v>
       </c>
       <c r="G59">
-        <v>8.6998238283157825E+20</v>
+        <v>8.699823828315783E+20</v>
       </c>
       <c r="H59">
-        <v>1.9271544072498941E+17</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.927154407249894E+17</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60">
         <v>2083</v>
       </c>
       <c r="B60">
-        <v>2.1659023935292221E-10</v>
+        <v>2.165902393529222E-10</v>
       </c>
       <c r="C60">
-        <v>32585864067951.379</v>
+        <v>32585864067951.38</v>
       </c>
       <c r="D60">
-        <v>2539598467546.9341</v>
+        <v>2539598467546.934</v>
       </c>
       <c r="E60">
-        <v>445504161.50598878</v>
+        <v>445504161.5059888</v>
       </c>
       <c r="F60">
-        <v>35125017031336.809</v>
+        <v>35125017031336.81</v>
       </c>
       <c r="G60">
         <v>1.172535971673587E+22</v>
@@ -1971,7 +1933,7 @@
         <v>2.056898606497514E+18</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61">
       <c r="A61">
         <v>2084</v>
       </c>
@@ -1979,51 +1941,51 @@
         <v>1.725264823465909E-11</v>
       </c>
       <c r="C61">
-        <v>35125017031336.809</v>
+        <v>35125017031336.81</v>
       </c>
       <c r="D61">
-        <v>2737492842019.8188</v>
+        <v>2737492842019.819</v>
       </c>
       <c r="E61">
-        <v>377436229.53003359</v>
+        <v>377436229.5300336</v>
       </c>
       <c r="F61">
-        <v>37862132437127.094</v>
+        <v>37862132437127.09</v>
       </c>
       <c r="G61">
         <v>1.586708779305215E+23</v>
       </c>
       <c r="H61">
-        <v>2.1877002556152312E+19</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2.187700255615231E+19</v>
+      </c>
+    </row>
+    <row r="62">
       <c r="A62">
         <v>2085</v>
       </c>
       <c r="B62">
-        <v>1.3692615296102391E-12</v>
+        <v>1.369261529610239E-12</v>
       </c>
       <c r="C62">
-        <v>37862132437127.094</v>
+        <v>37862132437127.09</v>
       </c>
       <c r="D62">
         <v>2950815334802.022</v>
       </c>
       <c r="E62">
-        <v>317281590.76877087</v>
+        <v>317281590.7687709</v>
       </c>
       <c r="F62">
-        <v>40812630490338.352</v>
+        <v>40812630490338.35</v>
       </c>
       <c r="G62">
-        <v>2.1550414372935559E+24</v>
+        <v>2.155041437293556E+24</v>
       </c>
       <c r="H62">
-        <v>2.3171730447950679E+20</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2.317173044795068E+20</v>
+      </c>
+    </row>
+    <row r="63">
       <c r="A63">
         <v>2086</v>
       </c>
@@ -2031,155 +1993,155 @@
         <v>1.082428155933926E-13</v>
       </c>
       <c r="C63">
-        <v>40812630490338.352</v>
+        <v>40812630490338.35</v>
       </c>
       <c r="D63">
-        <v>3180767754870.7231</v>
+        <v>3180767754870.723</v>
       </c>
       <c r="E63">
         <v>264567681.5129773</v>
       </c>
       <c r="F63">
-        <v>43993133677527.563</v>
+        <v>43993133677527.56</v>
       </c>
       <c r="G63">
-        <v>2.9385486116871528E+25</v>
+        <v>2.938548611687153E+25</v>
       </c>
       <c r="H63">
         <v>2.444205465855668E+21</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64">
       <c r="A64">
         <v>2087</v>
       </c>
       <c r="B64">
-        <v>8.5196748938253898E-15</v>
+        <v>8.51967489382539E-15</v>
       </c>
       <c r="C64">
-        <v>43993133677527.563</v>
+        <v>43993133677527.56</v>
       </c>
       <c r="D64">
-        <v>3428645614424.9238</v>
+        <v>3428645614424.924</v>
       </c>
       <c r="E64">
-        <v>218769195.27967411</v>
+        <v>218769195.2796741</v>
       </c>
       <c r="F64">
-        <v>47421560522757.203</v>
+        <v>47421560522757.2</v>
       </c>
       <c r="G64">
-        <v>4.0243855043222663E+26</v>
+        <v>4.024385504322266E+26</v>
       </c>
       <c r="H64">
-        <v>2.5678115421778172E+22</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2.567811542177817E+22</v>
+      </c>
+    </row>
+    <row r="65">
       <c r="A65">
         <v>2088</v>
       </c>
       <c r="B65">
-        <v>6.6735392785434672E-16</v>
+        <v>6.673539278543467E-16</v>
       </c>
       <c r="C65">
-        <v>47421560522757.203</v>
+        <v>47421560522757.2</v>
       </c>
       <c r="D65">
         <v>3695845434939.646</v>
       </c>
       <c r="E65">
-        <v>179332336.43370509</v>
+        <v>179332336.4337051</v>
       </c>
       <c r="F65">
-        <v>51117226625360.406</v>
+        <v>51117226625360.41</v>
       </c>
       <c r="G65">
-        <v>5.5380590128875108E+27</v>
+        <v>5.538059012887511E+27</v>
       </c>
       <c r="H65">
-        <v>2.6872148188336621E+23</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2.687214818833662E+23</v>
+      </c>
+    </row>
+    <row r="66">
       <c r="A66">
         <v>2089</v>
       </c>
       <c r="B66">
-        <v>5.1997606499732113E-17</v>
+        <v>5.199760649973211E-17</v>
       </c>
       <c r="C66">
-        <v>51117226625360.406</v>
+        <v>51117226625360.41</v>
       </c>
       <c r="D66">
-        <v>3983872620892.3179</v>
+        <v>3983872620892.318</v>
       </c>
       <c r="E66">
-        <v>145694891.12242949</v>
+        <v>145694891.1224295</v>
       </c>
       <c r="F66">
-        <v>55100953551361.609</v>
+        <v>55100953551361.61</v>
       </c>
       <c r="G66">
-        <v>7.6616461584877801E+28</v>
+        <v>7.66164615848778E+28</v>
       </c>
       <c r="H66">
-        <v>2.8019537999923162E+24</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2.801953799992316E+24</v>
+      </c>
+    </row>
+    <row r="67">
       <c r="A67">
         <v>2090</v>
       </c>
       <c r="B67">
-        <v>4.0278197422243239E-18</v>
+        <v>4.027819742224324E-18</v>
       </c>
       <c r="C67">
-        <v>55100953551361.609</v>
+        <v>55100953551361.61</v>
       </c>
       <c r="D67">
-        <v>4294349946354.9092</v>
+        <v>4294349946354.909</v>
       </c>
       <c r="E67">
         <v>117286044.1636263</v>
       </c>
       <c r="F67">
-        <v>59395186211672.352</v>
+        <v>59395186211672.35</v>
       </c>
       <c r="G67">
         <v>1.066172326764404E+30</v>
       </c>
       <c r="H67">
-        <v>2.9118990339636272E+25</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2.911899033963627E+25</v>
+      </c>
+    </row>
+    <row r="68">
       <c r="A68">
         <v>2091</v>
       </c>
       <c r="B68">
-        <v>3.0998704517906281E-19</v>
+        <v>3.099870451790628E-19</v>
       </c>
       <c r="C68">
-        <v>59395186211672.352</v>
+        <v>59395186211672.35</v>
       </c>
       <c r="D68">
-        <v>4629026702900.7793</v>
+        <v>4629026702900.779</v>
       </c>
       <c r="E68">
-        <v>93528898.994882122</v>
+        <v>93528898.99488212</v>
       </c>
       <c r="F68">
-        <v>64024119385674.141</v>
+        <v>64024119385674.14</v>
       </c>
       <c r="G68">
-        <v>1.4932968247840289E+31</v>
+        <v>1.493296824784029E+31</v>
       </c>
       <c r="H68">
         <v>3.01718734538908E+26</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69">
       <c r="A69">
         <v>2092</v>
       </c>
@@ -2187,25 +2149,25 @@
         <v>2.368543639090791E-20</v>
       </c>
       <c r="C69">
-        <v>64024119385674.141</v>
+        <v>64024119385674.14</v>
       </c>
       <c r="D69">
-        <v>4989788559737.3359</v>
+        <v>4989788559737.336</v>
       </c>
       <c r="E69">
-        <v>73856344.187685028</v>
+        <v>73856344.18768503</v>
       </c>
       <c r="F69">
-        <v>69013834089067.289</v>
+        <v>69013834089067.29</v>
       </c>
       <c r="G69">
-        <v>2.1066905744885321E+32</v>
+        <v>2.106690574488532E+32</v>
       </c>
       <c r="H69">
-        <v>3.1182175818401278E+27</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3.118217581840128E+27</v>
+      </c>
+    </row>
+    <row r="70">
       <c r="A70">
         <v>2093</v>
       </c>
@@ -2213,51 +2175,51 @@
         <v>1.795219224065669E-21</v>
       </c>
       <c r="C70">
-        <v>69013834089067.289</v>
+        <v>69013834089067.29</v>
       </c>
       <c r="D70">
-        <v>5378668190960.3799</v>
+        <v>5378668190960.38</v>
       </c>
       <c r="E70">
-        <v>57729453.525315747</v>
+        <v>57729453.52531575</v>
       </c>
       <c r="F70">
-        <v>74392444550574.141</v>
+        <v>74392444550574.14</v>
       </c>
       <c r="G70">
-        <v>2.9961066140876112E+33</v>
+        <v>2.996106614087611E+33</v>
       </c>
       <c r="H70">
         <v>3.215732805856138E+28</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71">
       <c r="A71">
         <v>2094</v>
       </c>
       <c r="B71">
-        <v>1.3485242691681669E-22</v>
+        <v>1.348524269168167E-22</v>
       </c>
       <c r="C71">
-        <v>74392444550574.141</v>
+        <v>74392444550574.14</v>
       </c>
       <c r="D71">
         <v>5797856729904.501</v>
       </c>
       <c r="E71">
-        <v>44648488.756678917</v>
+        <v>44648488.75667892</v>
       </c>
       <c r="F71">
-        <v>80190256631989.891</v>
+        <v>80190256631989.89</v>
       </c>
       <c r="G71">
-        <v>4.2994085182322224E+34</v>
+        <v>4.299408518232222E+34</v>
       </c>
       <c r="H71">
-        <v>3.3109147367603689E+29</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3.310914736760369E+29</v>
+      </c>
+    </row>
+    <row r="72">
       <c r="A72">
         <v>2095</v>
       </c>
@@ -2265,62 +2227,62 @@
         <v>1.002937421583133E-23</v>
       </c>
       <c r="C72">
-        <v>80190256631989.891</v>
+        <v>80190256631989.89</v>
       </c>
       <c r="D72">
         <v>6249716115758.166</v>
       </c>
       <c r="E72">
-        <v>34153339.641086876</v>
+        <v>34153339.64108688</v>
       </c>
       <c r="F72">
-        <v>86439938594408.422</v>
+        <v>86439938594408.42</v>
       </c>
       <c r="G72">
-        <v>6.2314118321490243E+35</v>
+        <v>6.231411832149024E+35</v>
       </c>
       <c r="H72">
-        <v>3.4053310711226601E+30</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3.40533107112266E+30</v>
+      </c>
+    </row>
+    <row r="73">
       <c r="A73">
         <v>2096</v>
       </c>
       <c r="B73">
-        <v>7.3765950680511283E-25</v>
+        <v>7.376595068051128E-25</v>
       </c>
       <c r="C73">
-        <v>86439938594408.422</v>
+        <v>86439938594408.42</v>
       </c>
       <c r="D73">
-        <v>6736792402394.5547</v>
+        <v>6736792402394.555</v>
       </c>
       <c r="E73">
-        <v>25823910.051280402</v>
+        <v>25823910.0512804</v>
       </c>
       <c r="F73">
-        <v>93176705172892.922</v>
+        <v>93176705172892.92</v>
       </c>
       <c r="G73">
-        <v>9.1326585507890602E+36</v>
+        <v>9.13265855078906E+36</v>
       </c>
       <c r="H73">
         <v>3.500789973293599E+31</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74">
       <c r="A74">
         <v>2097</v>
       </c>
       <c r="B74">
-        <v>5.3579871871722403E-26</v>
+        <v>5.35798718717224E-26</v>
       </c>
       <c r="C74">
-        <v>93176705172892.922</v>
+        <v>93176705172892.92</v>
       </c>
       <c r="D74">
-        <v>7261830104247.5381</v>
+        <v>7261830104247.538</v>
       </c>
       <c r="E74">
         <v>19284887.6791014</v>
@@ -2332,10 +2294,10 @@
         <v>1.355328008553914E+38</v>
       </c>
       <c r="H74">
-        <v>3.5992784240455222E+32</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3.599278424045522E+32</v>
+      </c>
+    </row>
+    <row r="75">
       <c r="A75">
         <v>2098</v>
       </c>
@@ -2346,22 +2308,22 @@
         <v>100438515992252.8</v>
       </c>
       <c r="D75">
-        <v>7827787659935.4561</v>
+        <v>7827787659935.456</v>
       </c>
       <c r="E75">
         <v>14209001.2897695</v>
       </c>
       <c r="F75">
-        <v>108266289443186.91</v>
+        <v>108266289443186.9</v>
       </c>
       <c r="G75">
-        <v>2.0399613839032731E+39</v>
+        <v>2.039961383903273E+39</v>
       </c>
       <c r="H75">
-        <v>3.7029381984028657E+33</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3.702938198402866E+33</v>
+      </c>
+    </row>
+    <row r="76">
       <c r="A76">
         <v>2099</v>
       </c>
@@ -2369,51 +2331,51 @@
         <v>2.704842910064732E-28</v>
       </c>
       <c r="C76">
-        <v>108266289443186.91</v>
+        <v>108266289443186.9</v>
       </c>
       <c r="D76">
-        <v>8437854100953.6748</v>
+        <v>8437854100953.675</v>
       </c>
       <c r="E76">
-        <v>10316628.217844641</v>
+        <v>10316628.21784464</v>
       </c>
       <c r="F76">
-        <v>116704133227512.41</v>
+        <v>116704133227512.4</v>
       </c>
       <c r="G76">
-        <v>3.1195357296190419E+40</v>
+        <v>3.119535729619042E+40</v>
       </c>
       <c r="H76">
-        <v>3.8141321181560748E+34</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3.814132118156075E+34</v>
+      </c>
+    </row>
+    <row r="77">
       <c r="A77">
         <v>2100</v>
       </c>
       <c r="B77">
-        <v>1.8729761551630479E-29</v>
+        <v>1.872976155163048E-29</v>
       </c>
       <c r="C77">
-        <v>116704133227512.41</v>
+        <v>116704133227512.4</v>
       </c>
       <c r="D77">
-        <v>9095467019672.9141</v>
+        <v>9095467019672.914</v>
       </c>
       <c r="E77">
-        <v>7370693.1668296056</v>
+        <v>7370693.166829606</v>
       </c>
       <c r="F77">
-        <v>125799592876492.09</v>
+        <v>125799592876492.1</v>
       </c>
       <c r="G77">
-        <v>4.8561574020044731E+41</v>
+        <v>4.856157402004473E+41</v>
       </c>
       <c r="H77">
-        <v>3.9352840379262407E+35</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3.935284037926241E+35</v>
+      </c>
+    </row>
+    <row r="78">
       <c r="A78">
         <v>2101</v>
       </c>
@@ -2421,59 +2383,59 @@
         <v>1.271164200719562E-30</v>
       </c>
       <c r="C78">
-        <v>125799592876492.09</v>
+        <v>125799592876492.1</v>
       </c>
       <c r="D78">
-        <v>9804331938043.7969</v>
+        <v>9804331938043.797</v>
       </c>
       <c r="E78">
-        <v>5172809.0512164785</v>
+        <v>5172809.051216478</v>
       </c>
       <c r="F78">
-        <v>135603919641726.91</v>
+        <v>135603919641726.9</v>
       </c>
       <c r="G78">
-        <v>7.7128760647081662E+42</v>
+        <v>7.712876064708166E+42</v>
       </c>
       <c r="H78">
         <v>4.069347648626613E+36</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79">
       <c r="A79">
         <v>2102</v>
       </c>
       <c r="B79">
-        <v>8.4331172619304396E-32</v>
+        <v>8.43311726193044E-32</v>
       </c>
       <c r="C79">
-        <v>135603919641726.91</v>
+        <v>135603919641726.9</v>
       </c>
       <c r="D79">
-        <v>10568443186156.279</v>
+        <v>10568443186156.28</v>
       </c>
       <c r="E79">
-        <v>3558585.9767912431</v>
+        <v>3558585.976791243</v>
       </c>
       <c r="F79">
-        <v>146172359269297.19</v>
+        <v>146172359269297.2</v>
       </c>
       <c r="G79">
         <v>1.253207189927896E+44</v>
       </c>
       <c r="H79">
-        <v>4.2197752815032491E+37</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4.219775281503249E+37</v>
+      </c>
+    </row>
+    <row r="80">
       <c r="A80">
         <v>2103</v>
       </c>
       <c r="B80">
-        <v>5.4520247951141098E-33</v>
+        <v>5.45202479511411E-33</v>
       </c>
       <c r="C80">
-        <v>146172359269297.19</v>
+        <v>146172359269297.2</v>
       </c>
       <c r="D80">
         <v>11392106408321.98</v>
@@ -2482,16 +2444,16 @@
         <v>2393879.837626609</v>
       </c>
       <c r="F80">
-        <v>157564463283739.31</v>
+        <v>157564463283739.3</v>
       </c>
       <c r="G80">
-        <v>2.0895184516642589E+45</v>
+        <v>2.089518451664259E+45</v>
       </c>
       <c r="H80">
-        <v>4.3908087868050598E+38</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4.39080878680506E+38</v>
+      </c>
+    </row>
+    <row r="81">
       <c r="A81">
         <v>2104</v>
       </c>
@@ -2499,25 +2461,25 @@
         <v>3.423200520607734E-34</v>
       </c>
       <c r="C81">
-        <v>157564463283739.31</v>
+        <v>157564463283739.3</v>
       </c>
       <c r="D81">
-        <v>12279962823508.881</v>
+        <v>12279962823508.88</v>
       </c>
       <c r="E81">
-        <v>1570442.4732942721</v>
+        <v>1570442.473294272</v>
       </c>
       <c r="F81">
-        <v>169844424536805.81</v>
+        <v>169844424536805.8</v>
       </c>
       <c r="G81">
-        <v>3.5872753435223172E+46</v>
+        <v>3.587275343522317E+46</v>
       </c>
       <c r="H81">
-        <v>4.5876438258295928E+39</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4.587643825829593E+39</v>
+      </c>
+    </row>
+    <row r="82">
       <c r="A82">
         <v>2105</v>
       </c>
@@ -2525,7 +2487,7 @@
         <v>2.079488835010824E-35</v>
       </c>
       <c r="C82">
-        <v>169844424536805.81</v>
+        <v>169844424536805.8</v>
       </c>
       <c r="D82">
         <v>13237015376878.08</v>
@@ -2534,102 +2496,102 @@
         <v>1001602.57173367</v>
       </c>
       <c r="F82">
-        <v>183081438912081.31</v>
+        <v>183081438912081.3</v>
       </c>
       <c r="G82">
-        <v>6.3655140407662636E+47</v>
+        <v>6.365514040766264E+47</v>
       </c>
       <c r="H82">
-        <v>4.8165806657406588E+40</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4.816580665740659E+40</v>
+      </c>
+    </row>
+    <row r="83">
       <c r="A83">
         <v>2106</v>
       </c>
       <c r="B83">
-        <v>1.2167874448994201E-36</v>
+        <v>1.21678744489942E-36</v>
       </c>
       <c r="C83">
-        <v>183081438912081.31</v>
+        <v>183081438912081.3</v>
       </c>
       <c r="D83">
         <v>14268656929774.52</v>
       </c>
       <c r="E83">
-        <v>618762.92611276894</v>
+        <v>618762.9261127689</v>
       </c>
       <c r="F83">
-        <v>197350095223092.91</v>
+        <v>197350095223092.9</v>
       </c>
       <c r="G83">
         <v>1.172649914295752E+49</v>
       </c>
       <c r="H83">
-        <v>5.0852178719177721E+41</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5.085217871917772E+41</v>
+      </c>
+    </row>
+    <row r="84">
       <c r="A84">
         <v>2107</v>
       </c>
       <c r="B84">
-        <v>6.8230940400512354E-38</v>
+        <v>6.823094040051235E-38</v>
       </c>
       <c r="C84">
-        <v>197350095223092.91</v>
+        <v>197350095223092.9</v>
       </c>
       <c r="D84">
-        <v>15380700646982.051</v>
+        <v>15380700646982.05</v>
       </c>
       <c r="E84">
-        <v>368597.68948457937</v>
+        <v>368597.6894845794</v>
       </c>
       <c r="F84">
-        <v>212730795501477.31</v>
+        <v>212730795501477.3</v>
       </c>
       <c r="G84">
         <v>2.2542120270801E+50</v>
       </c>
       <c r="H84">
-        <v>5.4022073757290842E+42</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5.402207375729084E+42</v>
+      </c>
+    </row>
+    <row r="85">
       <c r="A85">
         <v>2108</v>
       </c>
       <c r="B85">
-        <v>3.6452420633386258E-39</v>
+        <v>3.645242063338626E-39</v>
       </c>
       <c r="C85">
-        <v>212730795501477.31</v>
+        <v>212730795501477.3</v>
       </c>
       <c r="D85">
-        <v>16579412752448.539</v>
+        <v>16579412752448.54</v>
       </c>
       <c r="E85">
-        <v>210583.86763651171</v>
+        <v>210583.8676365117</v>
       </c>
       <c r="F85">
-        <v>229310208043341.91</v>
+        <v>229310208043341.9</v>
       </c>
       <c r="G85">
-        <v>4.5482336877413537E+51</v>
+        <v>4.548233687741354E+51</v>
       </c>
       <c r="H85">
-        <v>5.7769515433397837E+43</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5.776951543339784E+43</v>
+      </c>
+    </row>
+    <row r="86">
       <c r="A86">
         <v>2109</v>
       </c>
       <c r="B86">
-        <v>1.8435149274093701E-40</v>
+        <v>1.84351492740937E-40</v>
       </c>
       <c r="C86">
-        <v>229310208043341.91</v>
+        <v>229310208043341.9</v>
       </c>
       <c r="D86">
         <v>17871547838052.77</v>
@@ -2638,85 +2600,85 @@
         <v>114656.5881243225</v>
       </c>
       <c r="F86">
-        <v>247181755766738.09</v>
+        <v>247181755766738.1</v>
       </c>
       <c r="G86">
-        <v>9.6942788866738709E+52</v>
+        <v>9.694278886673871E+52</v>
       </c>
       <c r="H86">
         <v>6.219455368633526E+44</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87">
       <c r="A87">
         <v>2110</v>
       </c>
       <c r="B87">
-        <v>8.7624022454542326E-42</v>
+        <v>8.762402245454233E-42</v>
       </c>
       <c r="C87">
-        <v>247181755766738.09</v>
+        <v>247181755766738.1</v>
       </c>
       <c r="D87">
         <v>19264386924374.34</v>
       </c>
       <c r="E87">
-        <v>59067.529054525883</v>
+        <v>59067.52905452588</v>
       </c>
       <c r="F87">
-        <v>266446142632044.91</v>
+        <v>266446142632044.9</v>
       </c>
       <c r="G87">
         <v>2.198528027444567E+54</v>
       </c>
       <c r="H87">
-        <v>6.7410200307990862E+45</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6.741020030799086E+45</v>
+      </c>
+    </row>
+    <row r="88">
       <c r="A88">
         <v>2111</v>
       </c>
       <c r="B88">
-        <v>3.8826756007732427E-43</v>
+        <v>3.882675600773243E-43</v>
       </c>
       <c r="C88">
-        <v>266446142632044.91</v>
+        <v>266446142632044.9</v>
       </c>
       <c r="D88">
-        <v>20765778487927.961</v>
+        <v>20765778487927.96</v>
       </c>
       <c r="E88">
-        <v>28533.994253523138</v>
+        <v>28533.99425352314</v>
       </c>
       <c r="F88">
-        <v>287211921091438.88</v>
+        <v>287211921091438.9</v>
       </c>
       <c r="G88">
-        <v>5.3483166308801106E+55</v>
+        <v>5.348316630880111E+55</v>
       </c>
       <c r="H88">
-        <v>7.3490544118186273E+46</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7.349054411818627E+46</v>
+      </c>
+    </row>
+    <row r="89">
       <c r="A89">
         <v>2112</v>
       </c>
       <c r="B89">
-        <v>1.5893286202040119E-44</v>
+        <v>1.589328620204012E-44</v>
       </c>
       <c r="C89">
-        <v>287211921091438.88</v>
+        <v>287211921091438.9</v>
       </c>
       <c r="D89">
-        <v>22384182686029.898</v>
+        <v>22384182686029.9</v>
       </c>
       <c r="E89">
-        <v>12785.153465700179</v>
+        <v>12785.15346570018</v>
       </c>
       <c r="F89">
-        <v>309596103764683.63</v>
+        <v>309596103764683.6</v>
       </c>
       <c r="G89">
         <v>1.408404932842434E+57</v>
@@ -2725,50 +2687,50 @@
         <v>8.044373770893923E+47</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90">
       <c r="A90">
         <v>2113</v>
       </c>
       <c r="B90">
-        <v>5.9502353329276011E-46</v>
+        <v>5.950235332927601E-46</v>
       </c>
       <c r="C90">
-        <v>309596103764683.63</v>
+        <v>309596103764683.6</v>
       </c>
       <c r="D90">
-        <v>24128719028486.762</v>
+        <v>24128719028486.76</v>
       </c>
       <c r="E90">
-        <v>5249.3513139976812</v>
+        <v>5249.351313997681</v>
       </c>
       <c r="F90">
         <v>333724822787921</v>
       </c>
       <c r="G90">
-        <v>4.0550865097658389E+58</v>
+        <v>4.055086509765839E+58</v>
       </c>
       <c r="H90">
-        <v>8.8220902540587844E+48</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8.822090254058784E+48</v>
+      </c>
+    </row>
+    <row r="91">
       <c r="A91">
         <v>2114</v>
       </c>
       <c r="B91">
-        <v>2.0158693350649441E-47</v>
+        <v>2.015869335064944E-47</v>
       </c>
       <c r="C91">
         <v>333724822787921</v>
       </c>
       <c r="D91">
-        <v>26009217764724.672</v>
+        <v>26009217764724.67</v>
       </c>
       <c r="E91">
         <v>1955.913619080183</v>
       </c>
       <c r="F91">
-        <v>359734040550689.81</v>
+        <v>359734040550689.8</v>
       </c>
       <c r="G91">
         <v>1.2902233945578E+60</v>
@@ -2777,96 +2739,96 @@
         <v>9.702581338274934E+49</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92">
       <c r="A92">
         <v>2115</v>
       </c>
       <c r="B92">
-        <v>6.1099193081665297E-49</v>
+        <v>6.10991930816653E-49</v>
       </c>
       <c r="C92">
-        <v>359734040550689.81</v>
+        <v>359734040550689.8</v>
       </c>
       <c r="D92">
-        <v>28036275275909.191</v>
+        <v>28036275275909.19</v>
       </c>
       <c r="E92">
         <v>648.8123932826602</v>
       </c>
       <c r="F92">
-        <v>387770315825950.13</v>
+        <v>387770315825950.1</v>
       </c>
       <c r="G92">
-        <v>4.5886490249447082E+61</v>
+        <v>4.588649024944708E+61</v>
       </c>
       <c r="H92">
-        <v>1.0619001013899749E+51</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.061900101389975E+51</v>
+      </c>
+    </row>
+    <row r="93">
       <c r="A93">
         <v>2116</v>
       </c>
       <c r="B93">
-        <v>1.6352259492995031E-50</v>
+        <v>1.635225949299503E-50</v>
       </c>
       <c r="C93">
-        <v>387770315825950.13</v>
+        <v>387770315825950.1</v>
       </c>
       <c r="D93">
         <v>30221313784170.52</v>
       </c>
       <c r="E93">
-        <v>176.36955827110171</v>
+        <v>176.3695582711017</v>
       </c>
       <c r="F93">
-        <v>417991629609944.31</v>
+        <v>417991629609944.3</v>
       </c>
       <c r="G93">
-        <v>1.8481429919282219E+63</v>
+        <v>1.848142991928222E+63</v>
       </c>
       <c r="H93">
         <v>1.078563842181288E+52</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94">
       <c r="A94">
         <v>2117</v>
       </c>
       <c r="B94">
-        <v>3.7698142058252572E-52</v>
+        <v>3.769814205825257E-52</v>
       </c>
       <c r="C94">
-        <v>417991629609944.31</v>
+        <v>417991629609944.3</v>
       </c>
       <c r="D94">
-        <v>32576645715375.422</v>
+        <v>32576645715375.42</v>
       </c>
       <c r="E94">
-        <v>37.422343455112703</v>
+        <v>37.4223434551127</v>
       </c>
       <c r="F94">
-        <v>450568275325282.31</v>
+        <v>450568275325282.3</v>
       </c>
       <c r="G94">
-        <v>8.6414459537652479E+64</v>
+        <v>8.641445953765248E+64</v>
       </c>
       <c r="H94">
-        <v>9.9268402663681163E+52</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9.926840266368116E+52</v>
+      </c>
+    </row>
+    <row r="95">
       <c r="A95">
         <v>2118</v>
       </c>
       <c r="B95">
-        <v>6.5330579293764258E-54</v>
+        <v>6.533057929376426E-54</v>
       </c>
       <c r="C95">
-        <v>450568275325282.31</v>
+        <v>450568275325282.3</v>
       </c>
       <c r="D95">
-        <v>35115543078116.191</v>
+        <v>35115543078116.19</v>
       </c>
       <c r="E95">
         <v>7.455900926043717</v>
@@ -2875,13 +2837,13 @@
         <v>485683818403391</v>
       </c>
       <c r="G95">
-        <v>5.3750546004216942E+66</v>
+        <v>5.375054600421694E+66</v>
       </c>
       <c r="H95">
         <v>1.141257433600528E+54</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96">
       <c r="A96">
         <v>2119</v>
       </c>
@@ -2892,19 +2854,21 @@
         <v>485683818403391</v>
       </c>
       <c r="D96">
-        <v>37852312249848.688</v>
+        <v>37852312249848.69</v>
       </c>
       <c r="E96">
         <v>0</v>
       </c>
       <c r="F96">
-        <v>523536130653239.69</v>
-      </c>
-      <c r="G96" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+        <v>523536130653239.7</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
       <c r="A97">
         <v>2120</v>
       </c>
@@ -2912,10 +2876,10 @@
         <v>0</v>
       </c>
       <c r="C97">
-        <v>523536130653239.69</v>
+        <v>523536130653239.7</v>
       </c>
       <c r="D97">
-        <v>40802374591579.859</v>
+        <v>40802374591579.86</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -2923,8 +2887,10 @@
       <c r="F97">
         <v>564338505244819.5</v>
       </c>
-      <c r="G97" t="s">
-        <v>8</v>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
       </c>
     </row>
   </sheetData>
